--- a/template_baogia.xlsx
+++ b/template_baogia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BANCHUAN\DONHANG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BANCHUAN\BAOGIANSB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072463D5-DAAE-43C6-AB67-9A6E2998AF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B13AB65-7CB7-4ABC-95BD-501081C4E9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1ACCF3B5-8732-43CE-BFEE-861D393691CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17400" xr2:uid="{1ACCF3B5-8732-43CE-BFEE-861D393691CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Vị trí lắp đặt</t>
   </si>
@@ -78,25 +78,32 @@
     <t>Bộ</t>
   </si>
   <si>
-    <t>Cộng:</t>
+    <t>%</t>
   </si>
   <si>
-    <t>Chiết khấu:</t>
+    <t>Thuế GTGT
+(%)</t>
   </si>
   <si>
-    <t>Phí vận chuyển và lắp đặt:</t>
+    <t>Tổng thành tiền</t>
   </si>
   <si>
-    <t>Thuế GTGT:</t>
+    <t>Chiết khấu</t>
   </si>
   <si>
-    <t>Tạm ứng:</t>
+    <t>Phí vận chuyển và lắp đặt</t>
   </si>
   <si>
-    <t>Số tiền còn phải thanh toán:</t>
+    <t>Thuế GTGT 8%</t>
   </si>
   <si>
-    <t>%</t>
+    <t>Tạm ứng</t>
+  </si>
+  <si>
+    <t>Số tiền còn phải thanh toán</t>
+  </si>
+  <si>
+    <t>Thuế GTGT 10%</t>
   </si>
 </sst>
 </file>
@@ -112,7 +119,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -131,7 +138,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -416,11 +423,35 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,14 +459,11 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -448,27 +476,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -841,194 +848,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C7507C-0651-46A0-B0E3-516D355C4980}">
-  <dimension ref="A1:L518"/>
+  <dimension ref="A1:M519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L505" sqref="L505"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L513" sqref="L513"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="16.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="16.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="M10" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="35"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1041,8 +1061,9 @@
       <c r="J12" s="13"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1055,8 +1076,9 @@
       <c r="J13" s="13"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -1069,8 +1091,9 @@
       <c r="J14" s="13"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1083,8 +1106,9 @@
       <c r="J15" s="13"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -1097,8 +1121,9 @@
       <c r="J16" s="13"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1111,8 +1136,9 @@
       <c r="J17" s="13"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1125,8 +1151,9 @@
       <c r="J18" s="13"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -1139,8 +1166,9 @@
       <c r="J19" s="13"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -1153,8 +1181,9 @@
       <c r="J20" s="13"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -1167,8 +1196,9 @@
       <c r="J21" s="13"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -1181,8 +1211,9 @@
       <c r="J22" s="13"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -1195,8 +1226,9 @@
       <c r="J23" s="13"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -1209,8 +1241,9 @@
       <c r="J24" s="13"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
@@ -1223,8 +1256,9 @@
       <c r="J25" s="13"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
@@ -1237,8 +1271,9 @@
       <c r="J26" s="13"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -1251,8 +1286,9 @@
       <c r="J27" s="13"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -1265,8 +1301,9 @@
       <c r="J28" s="13"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -1279,8 +1316,9 @@
       <c r="J29" s="13"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -1293,8 +1331,9 @@
       <c r="J30" s="13"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
@@ -1307,8 +1346,9 @@
       <c r="J31" s="13"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
@@ -1321,8 +1361,9 @@
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -1335,8 +1376,9 @@
       <c r="J33" s="13"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -1349,8 +1391,9 @@
       <c r="J34" s="13"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -1363,8 +1406,9 @@
       <c r="J35" s="13"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -1377,8 +1421,9 @@
       <c r="J36" s="13"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
@@ -1391,8 +1436,9 @@
       <c r="J37" s="13"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
@@ -1405,8 +1451,9 @@
       <c r="J38" s="13"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
@@ -1419,8 +1466,9 @@
       <c r="J39" s="13"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
@@ -1433,8 +1481,9 @@
       <c r="J40" s="13"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
@@ -1447,8 +1496,9 @@
       <c r="J41" s="13"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
-    </row>
-    <row r="42" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -1461,8 +1511,9 @@
       <c r="J42" s="13"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
-    </row>
-    <row r="43" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
@@ -1475,8 +1526,9 @@
       <c r="J43" s="13"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
@@ -1489,8 +1541,9 @@
       <c r="J44" s="13"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
@@ -1503,8 +1556,9 @@
       <c r="J45" s="13"/>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
-    </row>
-    <row r="46" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
@@ -1517,8 +1571,9 @@
       <c r="J46" s="13"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
-    </row>
-    <row r="47" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
@@ -1531,8 +1586,9 @@
       <c r="J47" s="13"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
-    </row>
-    <row r="48" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="14"/>
+    </row>
+    <row r="48" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
@@ -1545,8 +1601,9 @@
       <c r="J48" s="13"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
@@ -1559,8 +1616,9 @@
       <c r="J49" s="13"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
-    </row>
-    <row r="50" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
@@ -1573,8 +1631,9 @@
       <c r="J50" s="13"/>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
-    </row>
-    <row r="51" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="14"/>
+    </row>
+    <row r="51" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
@@ -1587,8 +1646,9 @@
       <c r="J51" s="13"/>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
-    </row>
-    <row r="52" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
@@ -1601,8 +1661,9 @@
       <c r="J52" s="13"/>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
-    </row>
-    <row r="53" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="14"/>
+    </row>
+    <row r="53" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
@@ -1615,8 +1676,9 @@
       <c r="J53" s="13"/>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
-    </row>
-    <row r="54" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
@@ -1629,8 +1691,9 @@
       <c r="J54" s="13"/>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -1643,8 +1706,9 @@
       <c r="J55" s="13"/>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
@@ -1657,8 +1721,9 @@
       <c r="J56" s="13"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
-    </row>
-    <row r="57" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
@@ -1671,8 +1736,9 @@
       <c r="J57" s="13"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
-    </row>
-    <row r="58" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M57" s="14"/>
+    </row>
+    <row r="58" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
@@ -1685,8 +1751,9 @@
       <c r="J58" s="13"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
-    </row>
-    <row r="59" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="14"/>
+    </row>
+    <row r="59" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -1699,8 +1766,9 @@
       <c r="J59" s="13"/>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
-    </row>
-    <row r="60" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M59" s="14"/>
+    </row>
+    <row r="60" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -1713,8 +1781,9 @@
       <c r="J60" s="13"/>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
-    </row>
-    <row r="61" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="14"/>
+    </row>
+    <row r="61" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -1727,8 +1796,9 @@
       <c r="J61" s="13"/>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
-    </row>
-    <row r="62" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
@@ -1741,8 +1811,9 @@
       <c r="J62" s="13"/>
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
-    </row>
-    <row r="63" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
@@ -1755,8 +1826,9 @@
       <c r="J63" s="13"/>
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
-    </row>
-    <row r="64" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="14"/>
+    </row>
+    <row r="64" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -1769,8 +1841,9 @@
       <c r="J64" s="13"/>
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
-    </row>
-    <row r="65" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M64" s="14"/>
+    </row>
+    <row r="65" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
@@ -1783,8 +1856,9 @@
       <c r="J65" s="13"/>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
-    </row>
-    <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -1797,8 +1871,9 @@
       <c r="J66" s="13"/>
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
-    </row>
-    <row r="67" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="14"/>
+    </row>
+    <row r="67" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -1811,8 +1886,9 @@
       <c r="J67" s="13"/>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
-    </row>
-    <row r="68" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="14"/>
+    </row>
+    <row r="68" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -1825,8 +1901,9 @@
       <c r="J68" s="13"/>
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
-    </row>
-    <row r="69" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M68" s="14"/>
+    </row>
+    <row r="69" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
@@ -1839,8 +1916,9 @@
       <c r="J69" s="13"/>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
-    </row>
-    <row r="70" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="14"/>
+    </row>
+    <row r="70" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -1853,8 +1931,9 @@
       <c r="J70" s="13"/>
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
-    </row>
-    <row r="71" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M70" s="14"/>
+    </row>
+    <row r="71" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -1867,8 +1946,9 @@
       <c r="J71" s="13"/>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
-    </row>
-    <row r="72" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M71" s="14"/>
+    </row>
+    <row r="72" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -1881,8 +1961,9 @@
       <c r="J72" s="13"/>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
-    </row>
-    <row r="73" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M72" s="14"/>
+    </row>
+    <row r="73" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -1895,8 +1976,9 @@
       <c r="J73" s="13"/>
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
-    </row>
-    <row r="74" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="14"/>
+    </row>
+    <row r="74" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -1909,8 +1991,9 @@
       <c r="J74" s="13"/>
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
-    </row>
-    <row r="75" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="14"/>
+    </row>
+    <row r="75" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -1923,8 +2006,9 @@
       <c r="J75" s="13"/>
       <c r="K75" s="14"/>
       <c r="L75" s="14"/>
-    </row>
-    <row r="76" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="14"/>
+    </row>
+    <row r="76" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -1937,8 +2021,9 @@
       <c r="J76" s="13"/>
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
-    </row>
-    <row r="77" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="14"/>
+    </row>
+    <row r="77" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -1951,8 +2036,9 @@
       <c r="J77" s="13"/>
       <c r="K77" s="14"/>
       <c r="L77" s="14"/>
-    </row>
-    <row r="78" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="14"/>
+    </row>
+    <row r="78" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -1965,8 +2051,9 @@
       <c r="J78" s="13"/>
       <c r="K78" s="14"/>
       <c r="L78" s="14"/>
-    </row>
-    <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M78" s="14"/>
+    </row>
+    <row r="79" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -1979,8 +2066,9 @@
       <c r="J79" s="13"/>
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
-    </row>
-    <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M79" s="14"/>
+    </row>
+    <row r="80" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -1993,8 +2081,9 @@
       <c r="J80" s="13"/>
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
-    </row>
-    <row r="81" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M80" s="14"/>
+    </row>
+    <row r="81" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -2007,8 +2096,9 @@
       <c r="J81" s="13"/>
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
-    </row>
-    <row r="82" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="14"/>
+    </row>
+    <row r="82" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
@@ -2021,8 +2111,9 @@
       <c r="J82" s="13"/>
       <c r="K82" s="14"/>
       <c r="L82" s="14"/>
-    </row>
-    <row r="83" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M82" s="14"/>
+    </row>
+    <row r="83" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
@@ -2035,8 +2126,9 @@
       <c r="J83" s="13"/>
       <c r="K83" s="14"/>
       <c r="L83" s="14"/>
-    </row>
-    <row r="84" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="14"/>
+    </row>
+    <row r="84" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
@@ -2049,8 +2141,9 @@
       <c r="J84" s="13"/>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
-    </row>
-    <row r="85" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M84" s="14"/>
+    </row>
+    <row r="85" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
@@ -2063,8 +2156,9 @@
       <c r="J85" s="13"/>
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
-    </row>
-    <row r="86" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M85" s="14"/>
+    </row>
+    <row r="86" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
@@ -2077,8 +2171,9 @@
       <c r="J86" s="13"/>
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
-    </row>
-    <row r="87" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="14"/>
+    </row>
+    <row r="87" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
@@ -2091,8 +2186,9 @@
       <c r="J87" s="13"/>
       <c r="K87" s="14"/>
       <c r="L87" s="14"/>
-    </row>
-    <row r="88" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M87" s="14"/>
+    </row>
+    <row r="88" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
@@ -2105,8 +2201,9 @@
       <c r="J88" s="13"/>
       <c r="K88" s="14"/>
       <c r="L88" s="14"/>
-    </row>
-    <row r="89" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M88" s="14"/>
+    </row>
+    <row r="89" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
@@ -2119,8 +2216,9 @@
       <c r="J89" s="13"/>
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
-    </row>
-    <row r="90" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M89" s="14"/>
+    </row>
+    <row r="90" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
@@ -2133,8 +2231,9 @@
       <c r="J90" s="13"/>
       <c r="K90" s="14"/>
       <c r="L90" s="14"/>
-    </row>
-    <row r="91" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M90" s="14"/>
+    </row>
+    <row r="91" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
@@ -2147,8 +2246,9 @@
       <c r="J91" s="13"/>
       <c r="K91" s="14"/>
       <c r="L91" s="14"/>
-    </row>
-    <row r="92" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M91" s="14"/>
+    </row>
+    <row r="92" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
@@ -2161,8 +2261,9 @@
       <c r="J92" s="13"/>
       <c r="K92" s="14"/>
       <c r="L92" s="14"/>
-    </row>
-    <row r="93" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M92" s="14"/>
+    </row>
+    <row r="93" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
@@ -2175,8 +2276,9 @@
       <c r="J93" s="13"/>
       <c r="K93" s="14"/>
       <c r="L93" s="14"/>
-    </row>
-    <row r="94" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M93" s="14"/>
+    </row>
+    <row r="94" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
@@ -2189,8 +2291,9 @@
       <c r="J94" s="13"/>
       <c r="K94" s="14"/>
       <c r="L94" s="14"/>
-    </row>
-    <row r="95" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M94" s="14"/>
+    </row>
+    <row r="95" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
@@ -2203,8 +2306,9 @@
       <c r="J95" s="13"/>
       <c r="K95" s="14"/>
       <c r="L95" s="14"/>
-    </row>
-    <row r="96" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M95" s="14"/>
+    </row>
+    <row r="96" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
@@ -2217,8 +2321,9 @@
       <c r="J96" s="13"/>
       <c r="K96" s="14"/>
       <c r="L96" s="14"/>
-    </row>
-    <row r="97" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M96" s="14"/>
+    </row>
+    <row r="97" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
@@ -2231,8 +2336,9 @@
       <c r="J97" s="13"/>
       <c r="K97" s="14"/>
       <c r="L97" s="14"/>
-    </row>
-    <row r="98" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M97" s="14"/>
+    </row>
+    <row r="98" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
@@ -2245,8 +2351,9 @@
       <c r="J98" s="13"/>
       <c r="K98" s="14"/>
       <c r="L98" s="14"/>
-    </row>
-    <row r="99" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M98" s="14"/>
+    </row>
+    <row r="99" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
@@ -2259,8 +2366,9 @@
       <c r="J99" s="13"/>
       <c r="K99" s="14"/>
       <c r="L99" s="14"/>
-    </row>
-    <row r="100" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M99" s="14"/>
+    </row>
+    <row r="100" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
@@ -2273,8 +2381,9 @@
       <c r="J100" s="13"/>
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
-    </row>
-    <row r="101" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M100" s="14"/>
+    </row>
+    <row r="101" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
@@ -2287,8 +2396,9 @@
       <c r="J101" s="13"/>
       <c r="K101" s="14"/>
       <c r="L101" s="14"/>
-    </row>
-    <row r="102" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M101" s="14"/>
+    </row>
+    <row r="102" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
@@ -2301,8 +2411,9 @@
       <c r="J102" s="13"/>
       <c r="K102" s="14"/>
       <c r="L102" s="14"/>
-    </row>
-    <row r="103" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M102" s="14"/>
+    </row>
+    <row r="103" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
@@ -2315,8 +2426,9 @@
       <c r="J103" s="13"/>
       <c r="K103" s="14"/>
       <c r="L103" s="14"/>
-    </row>
-    <row r="104" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="14"/>
+    </row>
+    <row r="104" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
@@ -2329,8 +2441,9 @@
       <c r="J104" s="13"/>
       <c r="K104" s="14"/>
       <c r="L104" s="14"/>
-    </row>
-    <row r="105" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M104" s="14"/>
+    </row>
+    <row r="105" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
@@ -2343,8 +2456,9 @@
       <c r="J105" s="13"/>
       <c r="K105" s="14"/>
       <c r="L105" s="14"/>
-    </row>
-    <row r="106" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M105" s="14"/>
+    </row>
+    <row r="106" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
@@ -2357,8 +2471,9 @@
       <c r="J106" s="13"/>
       <c r="K106" s="14"/>
       <c r="L106" s="14"/>
-    </row>
-    <row r="107" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M106" s="14"/>
+    </row>
+    <row r="107" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
@@ -2371,8 +2486,9 @@
       <c r="J107" s="13"/>
       <c r="K107" s="14"/>
       <c r="L107" s="14"/>
-    </row>
-    <row r="108" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M107" s="14"/>
+    </row>
+    <row r="108" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
@@ -2385,8 +2501,9 @@
       <c r="J108" s="13"/>
       <c r="K108" s="14"/>
       <c r="L108" s="14"/>
-    </row>
-    <row r="109" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="14"/>
+    </row>
+    <row r="109" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
@@ -2399,8 +2516,9 @@
       <c r="J109" s="13"/>
       <c r="K109" s="14"/>
       <c r="L109" s="14"/>
-    </row>
-    <row r="110" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M109" s="14"/>
+    </row>
+    <row r="110" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
@@ -2413,8 +2531,9 @@
       <c r="J110" s="13"/>
       <c r="K110" s="14"/>
       <c r="L110" s="14"/>
-    </row>
-    <row r="111" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="14"/>
+    </row>
+    <row r="111" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
@@ -2427,8 +2546,9 @@
       <c r="J111" s="13"/>
       <c r="K111" s="14"/>
       <c r="L111" s="14"/>
-    </row>
-    <row r="112" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M111" s="14"/>
+    </row>
+    <row r="112" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
@@ -2441,8 +2561,9 @@
       <c r="J112" s="13"/>
       <c r="K112" s="14"/>
       <c r="L112" s="14"/>
-    </row>
-    <row r="113" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M112" s="14"/>
+    </row>
+    <row r="113" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
@@ -2455,8 +2576,9 @@
       <c r="J113" s="13"/>
       <c r="K113" s="14"/>
       <c r="L113" s="14"/>
-    </row>
-    <row r="114" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M113" s="14"/>
+    </row>
+    <row r="114" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
@@ -2469,8 +2591,9 @@
       <c r="J114" s="13"/>
       <c r="K114" s="14"/>
       <c r="L114" s="14"/>
-    </row>
-    <row r="115" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M114" s="14"/>
+    </row>
+    <row r="115" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
@@ -2483,8 +2606,9 @@
       <c r="J115" s="13"/>
       <c r="K115" s="14"/>
       <c r="L115" s="14"/>
-    </row>
-    <row r="116" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M115" s="14"/>
+    </row>
+    <row r="116" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
@@ -2497,8 +2621,9 @@
       <c r="J116" s="13"/>
       <c r="K116" s="14"/>
       <c r="L116" s="14"/>
-    </row>
-    <row r="117" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="14"/>
+    </row>
+    <row r="117" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
@@ -2511,8 +2636,9 @@
       <c r="J117" s="13"/>
       <c r="K117" s="14"/>
       <c r="L117" s="14"/>
-    </row>
-    <row r="118" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M117" s="14"/>
+    </row>
+    <row r="118" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
@@ -2525,8 +2651,9 @@
       <c r="J118" s="13"/>
       <c r="K118" s="14"/>
       <c r="L118" s="14"/>
-    </row>
-    <row r="119" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M118" s="14"/>
+    </row>
+    <row r="119" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
@@ -2539,8 +2666,9 @@
       <c r="J119" s="13"/>
       <c r="K119" s="14"/>
       <c r="L119" s="14"/>
-    </row>
-    <row r="120" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M119" s="14"/>
+    </row>
+    <row r="120" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
@@ -2553,8 +2681,9 @@
       <c r="J120" s="13"/>
       <c r="K120" s="14"/>
       <c r="L120" s="14"/>
-    </row>
-    <row r="121" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M120" s="14"/>
+    </row>
+    <row r="121" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
@@ -2567,8 +2696,9 @@
       <c r="J121" s="13"/>
       <c r="K121" s="14"/>
       <c r="L121" s="14"/>
-    </row>
-    <row r="122" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M121" s="14"/>
+    </row>
+    <row r="122" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
@@ -2581,8 +2711,9 @@
       <c r="J122" s="13"/>
       <c r="K122" s="14"/>
       <c r="L122" s="14"/>
-    </row>
-    <row r="123" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M122" s="14"/>
+    </row>
+    <row r="123" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
@@ -2595,8 +2726,9 @@
       <c r="J123" s="13"/>
       <c r="K123" s="14"/>
       <c r="L123" s="14"/>
-    </row>
-    <row r="124" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M123" s="14"/>
+    </row>
+    <row r="124" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
@@ -2609,8 +2741,9 @@
       <c r="J124" s="13"/>
       <c r="K124" s="14"/>
       <c r="L124" s="14"/>
-    </row>
-    <row r="125" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M124" s="14"/>
+    </row>
+    <row r="125" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
@@ -2623,8 +2756,9 @@
       <c r="J125" s="13"/>
       <c r="K125" s="14"/>
       <c r="L125" s="14"/>
-    </row>
-    <row r="126" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M125" s="14"/>
+    </row>
+    <row r="126" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
@@ -2637,8 +2771,9 @@
       <c r="J126" s="13"/>
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
-    </row>
-    <row r="127" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M126" s="14"/>
+    </row>
+    <row r="127" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
@@ -2651,8 +2786,9 @@
       <c r="J127" s="13"/>
       <c r="K127" s="14"/>
       <c r="L127" s="14"/>
-    </row>
-    <row r="128" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M127" s="14"/>
+    </row>
+    <row r="128" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
@@ -2665,8 +2801,9 @@
       <c r="J128" s="13"/>
       <c r="K128" s="14"/>
       <c r="L128" s="14"/>
-    </row>
-    <row r="129" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M128" s="14"/>
+    </row>
+    <row r="129" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
@@ -2679,8 +2816,9 @@
       <c r="J129" s="13"/>
       <c r="K129" s="14"/>
       <c r="L129" s="14"/>
-    </row>
-    <row r="130" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M129" s="14"/>
+    </row>
+    <row r="130" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
@@ -2693,8 +2831,9 @@
       <c r="J130" s="13"/>
       <c r="K130" s="14"/>
       <c r="L130" s="14"/>
-    </row>
-    <row r="131" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M130" s="14"/>
+    </row>
+    <row r="131" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
@@ -2707,8 +2846,9 @@
       <c r="J131" s="13"/>
       <c r="K131" s="14"/>
       <c r="L131" s="14"/>
-    </row>
-    <row r="132" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M131" s="14"/>
+    </row>
+    <row r="132" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
@@ -2721,8 +2861,9 @@
       <c r="J132" s="13"/>
       <c r="K132" s="14"/>
       <c r="L132" s="14"/>
-    </row>
-    <row r="133" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M132" s="14"/>
+    </row>
+    <row r="133" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
@@ -2735,8 +2876,9 @@
       <c r="J133" s="13"/>
       <c r="K133" s="14"/>
       <c r="L133" s="14"/>
-    </row>
-    <row r="134" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M133" s="14"/>
+    </row>
+    <row r="134" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
@@ -2749,8 +2891,9 @@
       <c r="J134" s="13"/>
       <c r="K134" s="14"/>
       <c r="L134" s="14"/>
-    </row>
-    <row r="135" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M134" s="14"/>
+    </row>
+    <row r="135" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
@@ -2763,8 +2906,9 @@
       <c r="J135" s="13"/>
       <c r="K135" s="14"/>
       <c r="L135" s="14"/>
-    </row>
-    <row r="136" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M135" s="14"/>
+    </row>
+    <row r="136" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
@@ -2777,8 +2921,9 @@
       <c r="J136" s="13"/>
       <c r="K136" s="14"/>
       <c r="L136" s="14"/>
-    </row>
-    <row r="137" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M136" s="14"/>
+    </row>
+    <row r="137" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
@@ -2791,8 +2936,9 @@
       <c r="J137" s="13"/>
       <c r="K137" s="14"/>
       <c r="L137" s="14"/>
-    </row>
-    <row r="138" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M137" s="14"/>
+    </row>
+    <row r="138" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
@@ -2805,8 +2951,9 @@
       <c r="J138" s="13"/>
       <c r="K138" s="14"/>
       <c r="L138" s="14"/>
-    </row>
-    <row r="139" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M138" s="14"/>
+    </row>
+    <row r="139" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
@@ -2819,8 +2966,9 @@
       <c r="J139" s="13"/>
       <c r="K139" s="14"/>
       <c r="L139" s="14"/>
-    </row>
-    <row r="140" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M139" s="14"/>
+    </row>
+    <row r="140" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
@@ -2833,8 +2981,9 @@
       <c r="J140" s="13"/>
       <c r="K140" s="14"/>
       <c r="L140" s="14"/>
-    </row>
-    <row r="141" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M140" s="14"/>
+    </row>
+    <row r="141" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
@@ -2847,8 +2996,9 @@
       <c r="J141" s="13"/>
       <c r="K141" s="14"/>
       <c r="L141" s="14"/>
-    </row>
-    <row r="142" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M141" s="14"/>
+    </row>
+    <row r="142" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
@@ -2861,8 +3011,9 @@
       <c r="J142" s="13"/>
       <c r="K142" s="14"/>
       <c r="L142" s="14"/>
-    </row>
-    <row r="143" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M142" s="14"/>
+    </row>
+    <row r="143" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
@@ -2875,8 +3026,9 @@
       <c r="J143" s="13"/>
       <c r="K143" s="14"/>
       <c r="L143" s="14"/>
-    </row>
-    <row r="144" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M143" s="14"/>
+    </row>
+    <row r="144" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
@@ -2889,8 +3041,9 @@
       <c r="J144" s="13"/>
       <c r="K144" s="14"/>
       <c r="L144" s="14"/>
-    </row>
-    <row r="145" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M144" s="14"/>
+    </row>
+    <row r="145" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="6"/>
@@ -2903,8 +3056,9 @@
       <c r="J145" s="13"/>
       <c r="K145" s="14"/>
       <c r="L145" s="14"/>
-    </row>
-    <row r="146" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M145" s="14"/>
+    </row>
+    <row r="146" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="6"/>
@@ -2917,8 +3071,9 @@
       <c r="J146" s="13"/>
       <c r="K146" s="14"/>
       <c r="L146" s="14"/>
-    </row>
-    <row r="147" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M146" s="14"/>
+    </row>
+    <row r="147" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6"/>
@@ -2931,8 +3086,9 @@
       <c r="J147" s="13"/>
       <c r="K147" s="14"/>
       <c r="L147" s="14"/>
-    </row>
-    <row r="148" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M147" s="14"/>
+    </row>
+    <row r="148" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="6"/>
@@ -2945,8 +3101,9 @@
       <c r="J148" s="13"/>
       <c r="K148" s="14"/>
       <c r="L148" s="14"/>
-    </row>
-    <row r="149" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M148" s="14"/>
+    </row>
+    <row r="149" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="6"/>
@@ -2959,8 +3116,9 @@
       <c r="J149" s="13"/>
       <c r="K149" s="14"/>
       <c r="L149" s="14"/>
-    </row>
-    <row r="150" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M149" s="14"/>
+    </row>
+    <row r="150" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="6"/>
@@ -2973,8 +3131,9 @@
       <c r="J150" s="13"/>
       <c r="K150" s="14"/>
       <c r="L150" s="14"/>
-    </row>
-    <row r="151" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M150" s="14"/>
+    </row>
+    <row r="151" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6"/>
@@ -2987,8 +3146,9 @@
       <c r="J151" s="13"/>
       <c r="K151" s="14"/>
       <c r="L151" s="14"/>
-    </row>
-    <row r="152" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M151" s="14"/>
+    </row>
+    <row r="152" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="6"/>
@@ -3001,8 +3161,9 @@
       <c r="J152" s="13"/>
       <c r="K152" s="14"/>
       <c r="L152" s="14"/>
-    </row>
-    <row r="153" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M152" s="14"/>
+    </row>
+    <row r="153" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6"/>
@@ -3015,8 +3176,9 @@
       <c r="J153" s="13"/>
       <c r="K153" s="14"/>
       <c r="L153" s="14"/>
-    </row>
-    <row r="154" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M153" s="14"/>
+    </row>
+    <row r="154" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="6"/>
@@ -3029,8 +3191,9 @@
       <c r="J154" s="13"/>
       <c r="K154" s="14"/>
       <c r="L154" s="14"/>
-    </row>
-    <row r="155" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M154" s="14"/>
+    </row>
+    <row r="155" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="6"/>
@@ -3043,8 +3206,9 @@
       <c r="J155" s="13"/>
       <c r="K155" s="14"/>
       <c r="L155" s="14"/>
-    </row>
-    <row r="156" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M155" s="14"/>
+    </row>
+    <row r="156" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="6"/>
@@ -3057,8 +3221,9 @@
       <c r="J156" s="13"/>
       <c r="K156" s="14"/>
       <c r="L156" s="14"/>
-    </row>
-    <row r="157" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M156" s="14"/>
+    </row>
+    <row r="157" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="6"/>
@@ -3071,8 +3236,9 @@
       <c r="J157" s="13"/>
       <c r="K157" s="14"/>
       <c r="L157" s="14"/>
-    </row>
-    <row r="158" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M157" s="14"/>
+    </row>
+    <row r="158" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6"/>
@@ -3085,8 +3251,9 @@
       <c r="J158" s="13"/>
       <c r="K158" s="14"/>
       <c r="L158" s="14"/>
-    </row>
-    <row r="159" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M158" s="14"/>
+    </row>
+    <row r="159" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="6"/>
@@ -3099,8 +3266,9 @@
       <c r="J159" s="13"/>
       <c r="K159" s="14"/>
       <c r="L159" s="14"/>
-    </row>
-    <row r="160" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M159" s="14"/>
+    </row>
+    <row r="160" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
@@ -3113,8 +3281,9 @@
       <c r="J160" s="13"/>
       <c r="K160" s="14"/>
       <c r="L160" s="14"/>
-    </row>
-    <row r="161" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M160" s="14"/>
+    </row>
+    <row r="161" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6"/>
@@ -3127,8 +3296,9 @@
       <c r="J161" s="13"/>
       <c r="K161" s="14"/>
       <c r="L161" s="14"/>
-    </row>
-    <row r="162" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M161" s="14"/>
+    </row>
+    <row r="162" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6"/>
@@ -3141,8 +3311,9 @@
       <c r="J162" s="13"/>
       <c r="K162" s="14"/>
       <c r="L162" s="14"/>
-    </row>
-    <row r="163" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M162" s="14"/>
+    </row>
+    <row r="163" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6"/>
@@ -3155,8 +3326,9 @@
       <c r="J163" s="13"/>
       <c r="K163" s="14"/>
       <c r="L163" s="14"/>
-    </row>
-    <row r="164" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M163" s="14"/>
+    </row>
+    <row r="164" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
@@ -3169,8 +3341,9 @@
       <c r="J164" s="13"/>
       <c r="K164" s="14"/>
       <c r="L164" s="14"/>
-    </row>
-    <row r="165" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M164" s="14"/>
+    </row>
+    <row r="165" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6"/>
@@ -3183,8 +3356,9 @@
       <c r="J165" s="13"/>
       <c r="K165" s="14"/>
       <c r="L165" s="14"/>
-    </row>
-    <row r="166" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M165" s="14"/>
+    </row>
+    <row r="166" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6"/>
@@ -3197,8 +3371,9 @@
       <c r="J166" s="13"/>
       <c r="K166" s="14"/>
       <c r="L166" s="14"/>
-    </row>
-    <row r="167" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M166" s="14"/>
+    </row>
+    <row r="167" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
@@ -3211,8 +3386,9 @@
       <c r="J167" s="13"/>
       <c r="K167" s="14"/>
       <c r="L167" s="14"/>
-    </row>
-    <row r="168" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M167" s="14"/>
+    </row>
+    <row r="168" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
@@ -3225,8 +3401,9 @@
       <c r="J168" s="13"/>
       <c r="K168" s="14"/>
       <c r="L168" s="14"/>
-    </row>
-    <row r="169" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M168" s="14"/>
+    </row>
+    <row r="169" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6"/>
@@ -3239,8 +3416,9 @@
       <c r="J169" s="13"/>
       <c r="K169" s="14"/>
       <c r="L169" s="14"/>
-    </row>
-    <row r="170" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M169" s="14"/>
+    </row>
+    <row r="170" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
@@ -3253,8 +3431,9 @@
       <c r="J170" s="13"/>
       <c r="K170" s="14"/>
       <c r="L170" s="14"/>
-    </row>
-    <row r="171" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M170" s="14"/>
+    </row>
+    <row r="171" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
@@ -3267,8 +3446,9 @@
       <c r="J171" s="13"/>
       <c r="K171" s="14"/>
       <c r="L171" s="14"/>
-    </row>
-    <row r="172" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M171" s="14"/>
+    </row>
+    <row r="172" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
@@ -3281,8 +3461,9 @@
       <c r="J172" s="13"/>
       <c r="K172" s="14"/>
       <c r="L172" s="14"/>
-    </row>
-    <row r="173" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M172" s="14"/>
+    </row>
+    <row r="173" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
@@ -3295,8 +3476,9 @@
       <c r="J173" s="13"/>
       <c r="K173" s="14"/>
       <c r="L173" s="14"/>
-    </row>
-    <row r="174" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M173" s="14"/>
+    </row>
+    <row r="174" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6"/>
@@ -3309,8 +3491,9 @@
       <c r="J174" s="13"/>
       <c r="K174" s="14"/>
       <c r="L174" s="14"/>
-    </row>
-    <row r="175" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M174" s="14"/>
+    </row>
+    <row r="175" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
@@ -3323,8 +3506,9 @@
       <c r="J175" s="13"/>
       <c r="K175" s="14"/>
       <c r="L175" s="14"/>
-    </row>
-    <row r="176" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M175" s="14"/>
+    </row>
+    <row r="176" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
@@ -3337,8 +3521,9 @@
       <c r="J176" s="13"/>
       <c r="K176" s="14"/>
       <c r="L176" s="14"/>
-    </row>
-    <row r="177" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M176" s="14"/>
+    </row>
+    <row r="177" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6"/>
@@ -3351,8 +3536,9 @@
       <c r="J177" s="13"/>
       <c r="K177" s="14"/>
       <c r="L177" s="14"/>
-    </row>
-    <row r="178" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M177" s="14"/>
+    </row>
+    <row r="178" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
@@ -3365,8 +3551,9 @@
       <c r="J178" s="13"/>
       <c r="K178" s="14"/>
       <c r="L178" s="14"/>
-    </row>
-    <row r="179" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M178" s="14"/>
+    </row>
+    <row r="179" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
@@ -3379,8 +3566,9 @@
       <c r="J179" s="13"/>
       <c r="K179" s="14"/>
       <c r="L179" s="14"/>
-    </row>
-    <row r="180" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M179" s="14"/>
+    </row>
+    <row r="180" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6"/>
@@ -3393,8 +3581,9 @@
       <c r="J180" s="13"/>
       <c r="K180" s="14"/>
       <c r="L180" s="14"/>
-    </row>
-    <row r="181" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M180" s="14"/>
+    </row>
+    <row r="181" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
@@ -3407,8 +3596,9 @@
       <c r="J181" s="13"/>
       <c r="K181" s="14"/>
       <c r="L181" s="14"/>
-    </row>
-    <row r="182" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M181" s="14"/>
+    </row>
+    <row r="182" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
@@ -3421,8 +3611,9 @@
       <c r="J182" s="13"/>
       <c r="K182" s="14"/>
       <c r="L182" s="14"/>
-    </row>
-    <row r="183" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M182" s="14"/>
+    </row>
+    <row r="183" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
@@ -3435,8 +3626,9 @@
       <c r="J183" s="13"/>
       <c r="K183" s="14"/>
       <c r="L183" s="14"/>
-    </row>
-    <row r="184" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M183" s="14"/>
+    </row>
+    <row r="184" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
@@ -3449,8 +3641,9 @@
       <c r="J184" s="13"/>
       <c r="K184" s="14"/>
       <c r="L184" s="14"/>
-    </row>
-    <row r="185" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M184" s="14"/>
+    </row>
+    <row r="185" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
@@ -3463,8 +3656,9 @@
       <c r="J185" s="13"/>
       <c r="K185" s="14"/>
       <c r="L185" s="14"/>
-    </row>
-    <row r="186" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M185" s="14"/>
+    </row>
+    <row r="186" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
@@ -3477,8 +3671,9 @@
       <c r="J186" s="13"/>
       <c r="K186" s="14"/>
       <c r="L186" s="14"/>
-    </row>
-    <row r="187" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M186" s="14"/>
+    </row>
+    <row r="187" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
@@ -3491,8 +3686,9 @@
       <c r="J187" s="13"/>
       <c r="K187" s="14"/>
       <c r="L187" s="14"/>
-    </row>
-    <row r="188" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M187" s="14"/>
+    </row>
+    <row r="188" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
@@ -3505,8 +3701,9 @@
       <c r="J188" s="13"/>
       <c r="K188" s="14"/>
       <c r="L188" s="14"/>
-    </row>
-    <row r="189" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M188" s="14"/>
+    </row>
+    <row r="189" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
@@ -3519,8 +3716,9 @@
       <c r="J189" s="13"/>
       <c r="K189" s="14"/>
       <c r="L189" s="14"/>
-    </row>
-    <row r="190" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M189" s="14"/>
+    </row>
+    <row r="190" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -3533,8 +3731,9 @@
       <c r="J190" s="13"/>
       <c r="K190" s="14"/>
       <c r="L190" s="14"/>
-    </row>
-    <row r="191" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M190" s="14"/>
+    </row>
+    <row r="191" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
@@ -3547,8 +3746,9 @@
       <c r="J191" s="13"/>
       <c r="K191" s="14"/>
       <c r="L191" s="14"/>
-    </row>
-    <row r="192" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M191" s="14"/>
+    </row>
+    <row r="192" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
@@ -3561,8 +3761,9 @@
       <c r="J192" s="13"/>
       <c r="K192" s="14"/>
       <c r="L192" s="14"/>
-    </row>
-    <row r="193" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M192" s="14"/>
+    </row>
+    <row r="193" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
@@ -3575,8 +3776,9 @@
       <c r="J193" s="13"/>
       <c r="K193" s="14"/>
       <c r="L193" s="14"/>
-    </row>
-    <row r="194" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M193" s="14"/>
+    </row>
+    <row r="194" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
@@ -3589,8 +3791,9 @@
       <c r="J194" s="13"/>
       <c r="K194" s="14"/>
       <c r="L194" s="14"/>
-    </row>
-    <row r="195" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M194" s="14"/>
+    </row>
+    <row r="195" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6"/>
@@ -3603,8 +3806,9 @@
       <c r="J195" s="13"/>
       <c r="K195" s="14"/>
       <c r="L195" s="14"/>
-    </row>
-    <row r="196" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M195" s="14"/>
+    </row>
+    <row r="196" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6"/>
@@ -3617,8 +3821,9 @@
       <c r="J196" s="13"/>
       <c r="K196" s="14"/>
       <c r="L196" s="14"/>
-    </row>
-    <row r="197" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M196" s="14"/>
+    </row>
+    <row r="197" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
@@ -3631,8 +3836,9 @@
       <c r="J197" s="13"/>
       <c r="K197" s="14"/>
       <c r="L197" s="14"/>
-    </row>
-    <row r="198" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M197" s="14"/>
+    </row>
+    <row r="198" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
@@ -3645,8 +3851,9 @@
       <c r="J198" s="13"/>
       <c r="K198" s="14"/>
       <c r="L198" s="14"/>
-    </row>
-    <row r="199" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M198" s="14"/>
+    </row>
+    <row r="199" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
@@ -3659,8 +3866,9 @@
       <c r="J199" s="13"/>
       <c r="K199" s="14"/>
       <c r="L199" s="14"/>
-    </row>
-    <row r="200" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M199" s="14"/>
+    </row>
+    <row r="200" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
@@ -3673,8 +3881,9 @@
       <c r="J200" s="13"/>
       <c r="K200" s="14"/>
       <c r="L200" s="14"/>
-    </row>
-    <row r="201" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M200" s="14"/>
+    </row>
+    <row r="201" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
@@ -3687,8 +3896,9 @@
       <c r="J201" s="13"/>
       <c r="K201" s="14"/>
       <c r="L201" s="14"/>
-    </row>
-    <row r="202" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M201" s="14"/>
+    </row>
+    <row r="202" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
@@ -3701,8 +3911,9 @@
       <c r="J202" s="13"/>
       <c r="K202" s="14"/>
       <c r="L202" s="14"/>
-    </row>
-    <row r="203" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M202" s="14"/>
+    </row>
+    <row r="203" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
@@ -3715,8 +3926,9 @@
       <c r="J203" s="13"/>
       <c r="K203" s="14"/>
       <c r="L203" s="14"/>
-    </row>
-    <row r="204" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M203" s="14"/>
+    </row>
+    <row r="204" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
@@ -3729,8 +3941,9 @@
       <c r="J204" s="13"/>
       <c r="K204" s="14"/>
       <c r="L204" s="14"/>
-    </row>
-    <row r="205" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M204" s="14"/>
+    </row>
+    <row r="205" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6"/>
@@ -3743,8 +3956,9 @@
       <c r="J205" s="13"/>
       <c r="K205" s="14"/>
       <c r="L205" s="14"/>
-    </row>
-    <row r="206" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M205" s="14"/>
+    </row>
+    <row r="206" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6"/>
@@ -3757,8 +3971,9 @@
       <c r="J206" s="13"/>
       <c r="K206" s="14"/>
       <c r="L206" s="14"/>
-    </row>
-    <row r="207" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M206" s="14"/>
+    </row>
+    <row r="207" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="6"/>
@@ -3771,8 +3986,9 @@
       <c r="J207" s="13"/>
       <c r="K207" s="14"/>
       <c r="L207" s="14"/>
-    </row>
-    <row r="208" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M207" s="14"/>
+    </row>
+    <row r="208" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6"/>
@@ -3785,8 +4001,9 @@
       <c r="J208" s="13"/>
       <c r="K208" s="14"/>
       <c r="L208" s="14"/>
-    </row>
-    <row r="209" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M208" s="14"/>
+    </row>
+    <row r="209" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6"/>
@@ -3799,8 +4016,9 @@
       <c r="J209" s="13"/>
       <c r="K209" s="14"/>
       <c r="L209" s="14"/>
-    </row>
-    <row r="210" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M209" s="14"/>
+    </row>
+    <row r="210" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6"/>
@@ -3813,8 +4031,9 @@
       <c r="J210" s="13"/>
       <c r="K210" s="14"/>
       <c r="L210" s="14"/>
-    </row>
-    <row r="211" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M210" s="14"/>
+    </row>
+    <row r="211" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6"/>
@@ -3827,8 +4046,9 @@
       <c r="J211" s="13"/>
       <c r="K211" s="14"/>
       <c r="L211" s="14"/>
-    </row>
-    <row r="212" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M211" s="14"/>
+    </row>
+    <row r="212" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6"/>
@@ -3841,8 +4061,9 @@
       <c r="J212" s="13"/>
       <c r="K212" s="14"/>
       <c r="L212" s="14"/>
-    </row>
-    <row r="213" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M212" s="14"/>
+    </row>
+    <row r="213" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
@@ -3855,8 +4076,9 @@
       <c r="J213" s="13"/>
       <c r="K213" s="14"/>
       <c r="L213" s="14"/>
-    </row>
-    <row r="214" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M213" s="14"/>
+    </row>
+    <row r="214" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6"/>
@@ -3869,8 +4091,9 @@
       <c r="J214" s="13"/>
       <c r="K214" s="14"/>
       <c r="L214" s="14"/>
-    </row>
-    <row r="215" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M214" s="14"/>
+    </row>
+    <row r="215" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
@@ -3883,8 +4106,9 @@
       <c r="J215" s="13"/>
       <c r="K215" s="14"/>
       <c r="L215" s="14"/>
-    </row>
-    <row r="216" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M215" s="14"/>
+    </row>
+    <row r="216" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6"/>
@@ -3897,8 +4121,9 @@
       <c r="J216" s="13"/>
       <c r="K216" s="14"/>
       <c r="L216" s="14"/>
-    </row>
-    <row r="217" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M216" s="14"/>
+    </row>
+    <row r="217" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
@@ -3911,8 +4136,9 @@
       <c r="J217" s="13"/>
       <c r="K217" s="14"/>
       <c r="L217" s="14"/>
-    </row>
-    <row r="218" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M217" s="14"/>
+    </row>
+    <row r="218" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="6"/>
@@ -3925,8 +4151,9 @@
       <c r="J218" s="13"/>
       <c r="K218" s="14"/>
       <c r="L218" s="14"/>
-    </row>
-    <row r="219" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M218" s="14"/>
+    </row>
+    <row r="219" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="6"/>
@@ -3939,8 +4166,9 @@
       <c r="J219" s="13"/>
       <c r="K219" s="14"/>
       <c r="L219" s="14"/>
-    </row>
-    <row r="220" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M219" s="14"/>
+    </row>
+    <row r="220" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="6"/>
@@ -3953,8 +4181,9 @@
       <c r="J220" s="13"/>
       <c r="K220" s="14"/>
       <c r="L220" s="14"/>
-    </row>
-    <row r="221" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M220" s="14"/>
+    </row>
+    <row r="221" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="6"/>
@@ -3967,8 +4196,9 @@
       <c r="J221" s="13"/>
       <c r="K221" s="14"/>
       <c r="L221" s="14"/>
-    </row>
-    <row r="222" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M221" s="14"/>
+    </row>
+    <row r="222" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
@@ -3981,8 +4211,9 @@
       <c r="J222" s="13"/>
       <c r="K222" s="14"/>
       <c r="L222" s="14"/>
-    </row>
-    <row r="223" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M222" s="14"/>
+    </row>
+    <row r="223" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="6"/>
@@ -3995,8 +4226,9 @@
       <c r="J223" s="13"/>
       <c r="K223" s="14"/>
       <c r="L223" s="14"/>
-    </row>
-    <row r="224" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M223" s="14"/>
+    </row>
+    <row r="224" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
@@ -4009,8 +4241,9 @@
       <c r="J224" s="13"/>
       <c r="K224" s="14"/>
       <c r="L224" s="14"/>
-    </row>
-    <row r="225" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M224" s="14"/>
+    </row>
+    <row r="225" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
@@ -4023,8 +4256,9 @@
       <c r="J225" s="13"/>
       <c r="K225" s="14"/>
       <c r="L225" s="14"/>
-    </row>
-    <row r="226" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M225" s="14"/>
+    </row>
+    <row r="226" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="6"/>
@@ -4037,8 +4271,9 @@
       <c r="J226" s="13"/>
       <c r="K226" s="14"/>
       <c r="L226" s="14"/>
-    </row>
-    <row r="227" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M226" s="14"/>
+    </row>
+    <row r="227" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
@@ -4051,8 +4286,9 @@
       <c r="J227" s="13"/>
       <c r="K227" s="14"/>
       <c r="L227" s="14"/>
-    </row>
-    <row r="228" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M227" s="14"/>
+    </row>
+    <row r="228" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="6"/>
@@ -4065,8 +4301,9 @@
       <c r="J228" s="13"/>
       <c r="K228" s="14"/>
       <c r="L228" s="14"/>
-    </row>
-    <row r="229" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M228" s="14"/>
+    </row>
+    <row r="229" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="6"/>
@@ -4079,8 +4316,9 @@
       <c r="J229" s="13"/>
       <c r="K229" s="14"/>
       <c r="L229" s="14"/>
-    </row>
-    <row r="230" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M229" s="14"/>
+    </row>
+    <row r="230" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="6"/>
@@ -4093,8 +4331,9 @@
       <c r="J230" s="13"/>
       <c r="K230" s="14"/>
       <c r="L230" s="14"/>
-    </row>
-    <row r="231" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M230" s="14"/>
+    </row>
+    <row r="231" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="6"/>
@@ -4107,8 +4346,9 @@
       <c r="J231" s="13"/>
       <c r="K231" s="14"/>
       <c r="L231" s="14"/>
-    </row>
-    <row r="232" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M231" s="14"/>
+    </row>
+    <row r="232" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="6"/>
@@ -4121,8 +4361,9 @@
       <c r="J232" s="13"/>
       <c r="K232" s="14"/>
       <c r="L232" s="14"/>
-    </row>
-    <row r="233" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M232" s="14"/>
+    </row>
+    <row r="233" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
       <c r="C233" s="6"/>
@@ -4135,8 +4376,9 @@
       <c r="J233" s="13"/>
       <c r="K233" s="14"/>
       <c r="L233" s="14"/>
-    </row>
-    <row r="234" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M233" s="14"/>
+    </row>
+    <row r="234" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
       <c r="C234" s="6"/>
@@ -4149,8 +4391,9 @@
       <c r="J234" s="13"/>
       <c r="K234" s="14"/>
       <c r="L234" s="14"/>
-    </row>
-    <row r="235" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M234" s="14"/>
+    </row>
+    <row r="235" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
       <c r="C235" s="6"/>
@@ -4163,8 +4406,9 @@
       <c r="J235" s="13"/>
       <c r="K235" s="14"/>
       <c r="L235" s="14"/>
-    </row>
-    <row r="236" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M235" s="14"/>
+    </row>
+    <row r="236" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="6"/>
@@ -4177,8 +4421,9 @@
       <c r="J236" s="13"/>
       <c r="K236" s="14"/>
       <c r="L236" s="14"/>
-    </row>
-    <row r="237" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M236" s="14"/>
+    </row>
+    <row r="237" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
@@ -4191,8 +4436,9 @@
       <c r="J237" s="13"/>
       <c r="K237" s="14"/>
       <c r="L237" s="14"/>
-    </row>
-    <row r="238" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M237" s="14"/>
+    </row>
+    <row r="238" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="6"/>
@@ -4205,8 +4451,9 @@
       <c r="J238" s="13"/>
       <c r="K238" s="14"/>
       <c r="L238" s="14"/>
-    </row>
-    <row r="239" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M238" s="14"/>
+    </row>
+    <row r="239" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="6"/>
@@ -4219,8 +4466,9 @@
       <c r="J239" s="13"/>
       <c r="K239" s="14"/>
       <c r="L239" s="14"/>
-    </row>
-    <row r="240" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M239" s="14"/>
+    </row>
+    <row r="240" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
@@ -4233,8 +4481,9 @@
       <c r="J240" s="13"/>
       <c r="K240" s="14"/>
       <c r="L240" s="14"/>
-    </row>
-    <row r="241" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M240" s="14"/>
+    </row>
+    <row r="241" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
       <c r="C241" s="6"/>
@@ -4247,8 +4496,9 @@
       <c r="J241" s="13"/>
       <c r="K241" s="14"/>
       <c r="L241" s="14"/>
-    </row>
-    <row r="242" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M241" s="14"/>
+    </row>
+    <row r="242" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="6"/>
@@ -4261,8 +4511,9 @@
       <c r="J242" s="13"/>
       <c r="K242" s="14"/>
       <c r="L242" s="14"/>
-    </row>
-    <row r="243" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M242" s="14"/>
+    </row>
+    <row r="243" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
       <c r="C243" s="6"/>
@@ -4275,8 +4526,9 @@
       <c r="J243" s="13"/>
       <c r="K243" s="14"/>
       <c r="L243" s="14"/>
-    </row>
-    <row r="244" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M243" s="14"/>
+    </row>
+    <row r="244" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
@@ -4289,8 +4541,9 @@
       <c r="J244" s="13"/>
       <c r="K244" s="14"/>
       <c r="L244" s="14"/>
-    </row>
-    <row r="245" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M244" s="14"/>
+    </row>
+    <row r="245" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
@@ -4303,8 +4556,9 @@
       <c r="J245" s="13"/>
       <c r="K245" s="14"/>
       <c r="L245" s="14"/>
-    </row>
-    <row r="246" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M245" s="14"/>
+    </row>
+    <row r="246" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="6"/>
@@ -4317,8 +4571,9 @@
       <c r="J246" s="13"/>
       <c r="K246" s="14"/>
       <c r="L246" s="14"/>
-    </row>
-    <row r="247" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M246" s="14"/>
+    </row>
+    <row r="247" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="5"/>
       <c r="C247" s="6"/>
@@ -4331,8 +4586,9 @@
       <c r="J247" s="13"/>
       <c r="K247" s="14"/>
       <c r="L247" s="14"/>
-    </row>
-    <row r="248" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M247" s="14"/>
+    </row>
+    <row r="248" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="6"/>
@@ -4345,8 +4601,9 @@
       <c r="J248" s="13"/>
       <c r="K248" s="14"/>
       <c r="L248" s="14"/>
-    </row>
-    <row r="249" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M248" s="14"/>
+    </row>
+    <row r="249" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
@@ -4359,8 +4616,9 @@
       <c r="J249" s="13"/>
       <c r="K249" s="14"/>
       <c r="L249" s="14"/>
-    </row>
-    <row r="250" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M249" s="14"/>
+    </row>
+    <row r="250" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="6"/>
@@ -4373,8 +4631,9 @@
       <c r="J250" s="13"/>
       <c r="K250" s="14"/>
       <c r="L250" s="14"/>
-    </row>
-    <row r="251" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M250" s="14"/>
+    </row>
+    <row r="251" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
       <c r="C251" s="6"/>
@@ -4387,8 +4646,9 @@
       <c r="J251" s="13"/>
       <c r="K251" s="14"/>
       <c r="L251" s="14"/>
-    </row>
-    <row r="252" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M251" s="14"/>
+    </row>
+    <row r="252" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="5"/>
       <c r="C252" s="6"/>
@@ -4401,8 +4661,9 @@
       <c r="J252" s="13"/>
       <c r="K252" s="14"/>
       <c r="L252" s="14"/>
-    </row>
-    <row r="253" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M252" s="14"/>
+    </row>
+    <row r="253" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="5"/>
       <c r="C253" s="6"/>
@@ -4415,8 +4676,9 @@
       <c r="J253" s="13"/>
       <c r="K253" s="14"/>
       <c r="L253" s="14"/>
-    </row>
-    <row r="254" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M253" s="14"/>
+    </row>
+    <row r="254" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="5"/>
       <c r="C254" s="6"/>
@@ -4429,8 +4691,9 @@
       <c r="J254" s="13"/>
       <c r="K254" s="14"/>
       <c r="L254" s="14"/>
-    </row>
-    <row r="255" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M254" s="14"/>
+    </row>
+    <row r="255" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="5"/>
       <c r="C255" s="6"/>
@@ -4443,8 +4706,9 @@
       <c r="J255" s="13"/>
       <c r="K255" s="14"/>
       <c r="L255" s="14"/>
-    </row>
-    <row r="256" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M255" s="14"/>
+    </row>
+    <row r="256" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
       <c r="C256" s="6"/>
@@ -4457,8 +4721,9 @@
       <c r="J256" s="13"/>
       <c r="K256" s="14"/>
       <c r="L256" s="14"/>
-    </row>
-    <row r="257" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M256" s="14"/>
+    </row>
+    <row r="257" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="5"/>
       <c r="C257" s="6"/>
@@ -4471,8 +4736,9 @@
       <c r="J257" s="13"/>
       <c r="K257" s="14"/>
       <c r="L257" s="14"/>
-    </row>
-    <row r="258" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M257" s="14"/>
+    </row>
+    <row r="258" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="5"/>
       <c r="C258" s="6"/>
@@ -4485,8 +4751,9 @@
       <c r="J258" s="13"/>
       <c r="K258" s="14"/>
       <c r="L258" s="14"/>
-    </row>
-    <row r="259" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M258" s="14"/>
+    </row>
+    <row r="259" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="5"/>
       <c r="C259" s="6"/>
@@ -4499,8 +4766,9 @@
       <c r="J259" s="13"/>
       <c r="K259" s="14"/>
       <c r="L259" s="14"/>
-    </row>
-    <row r="260" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M259" s="14"/>
+    </row>
+    <row r="260" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="5"/>
       <c r="C260" s="6"/>
@@ -4513,8 +4781,9 @@
       <c r="J260" s="13"/>
       <c r="K260" s="14"/>
       <c r="L260" s="14"/>
-    </row>
-    <row r="261" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M260" s="14"/>
+    </row>
+    <row r="261" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="6"/>
@@ -4527,8 +4796,9 @@
       <c r="J261" s="13"/>
       <c r="K261" s="14"/>
       <c r="L261" s="14"/>
-    </row>
-    <row r="262" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M261" s="14"/>
+    </row>
+    <row r="262" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
       <c r="C262" s="6"/>
@@ -4541,8 +4811,9 @@
       <c r="J262" s="13"/>
       <c r="K262" s="14"/>
       <c r="L262" s="14"/>
-    </row>
-    <row r="263" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M262" s="14"/>
+    </row>
+    <row r="263" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="5"/>
       <c r="C263" s="6"/>
@@ -4555,8 +4826,9 @@
       <c r="J263" s="13"/>
       <c r="K263" s="14"/>
       <c r="L263" s="14"/>
-    </row>
-    <row r="264" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M263" s="14"/>
+    </row>
+    <row r="264" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
       <c r="C264" s="6"/>
@@ -4569,8 +4841,9 @@
       <c r="J264" s="13"/>
       <c r="K264" s="14"/>
       <c r="L264" s="14"/>
-    </row>
-    <row r="265" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M264" s="14"/>
+    </row>
+    <row r="265" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="6"/>
@@ -4583,8 +4856,9 @@
       <c r="J265" s="13"/>
       <c r="K265" s="14"/>
       <c r="L265" s="14"/>
-    </row>
-    <row r="266" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M265" s="14"/>
+    </row>
+    <row r="266" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
@@ -4597,8 +4871,9 @@
       <c r="J266" s="13"/>
       <c r="K266" s="14"/>
       <c r="L266" s="14"/>
-    </row>
-    <row r="267" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M266" s="14"/>
+    </row>
+    <row r="267" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
       <c r="C267" s="6"/>
@@ -4611,8 +4886,9 @@
       <c r="J267" s="13"/>
       <c r="K267" s="14"/>
       <c r="L267" s="14"/>
-    </row>
-    <row r="268" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M267" s="14"/>
+    </row>
+    <row r="268" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="6"/>
@@ -4625,8 +4901,9 @@
       <c r="J268" s="13"/>
       <c r="K268" s="14"/>
       <c r="L268" s="14"/>
-    </row>
-    <row r="269" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M268" s="14"/>
+    </row>
+    <row r="269" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="6"/>
@@ -4639,8 +4916,9 @@
       <c r="J269" s="13"/>
       <c r="K269" s="14"/>
       <c r="L269" s="14"/>
-    </row>
-    <row r="270" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M269" s="14"/>
+    </row>
+    <row r="270" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="6"/>
@@ -4653,8 +4931,9 @@
       <c r="J270" s="13"/>
       <c r="K270" s="14"/>
       <c r="L270" s="14"/>
-    </row>
-    <row r="271" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M270" s="14"/>
+    </row>
+    <row r="271" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="6"/>
@@ -4667,8 +4946,9 @@
       <c r="J271" s="13"/>
       <c r="K271" s="14"/>
       <c r="L271" s="14"/>
-    </row>
-    <row r="272" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M271" s="14"/>
+    </row>
+    <row r="272" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="6"/>
@@ -4681,8 +4961,9 @@
       <c r="J272" s="13"/>
       <c r="K272" s="14"/>
       <c r="L272" s="14"/>
-    </row>
-    <row r="273" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M272" s="14"/>
+    </row>
+    <row r="273" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
@@ -4695,8 +4976,9 @@
       <c r="J273" s="13"/>
       <c r="K273" s="14"/>
       <c r="L273" s="14"/>
-    </row>
-    <row r="274" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M273" s="14"/>
+    </row>
+    <row r="274" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
@@ -4709,8 +4991,9 @@
       <c r="J274" s="13"/>
       <c r="K274" s="14"/>
       <c r="L274" s="14"/>
-    </row>
-    <row r="275" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M274" s="14"/>
+    </row>
+    <row r="275" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
@@ -4723,8 +5006,9 @@
       <c r="J275" s="13"/>
       <c r="K275" s="14"/>
       <c r="L275" s="14"/>
-    </row>
-    <row r="276" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M275" s="14"/>
+    </row>
+    <row r="276" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="6"/>
@@ -4737,8 +5021,9 @@
       <c r="J276" s="13"/>
       <c r="K276" s="14"/>
       <c r="L276" s="14"/>
-    </row>
-    <row r="277" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M276" s="14"/>
+    </row>
+    <row r="277" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
@@ -4751,8 +5036,9 @@
       <c r="J277" s="13"/>
       <c r="K277" s="14"/>
       <c r="L277" s="14"/>
-    </row>
-    <row r="278" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M277" s="14"/>
+    </row>
+    <row r="278" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="6"/>
@@ -4765,8 +5051,9 @@
       <c r="J278" s="13"/>
       <c r="K278" s="14"/>
       <c r="L278" s="14"/>
-    </row>
-    <row r="279" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M278" s="14"/>
+    </row>
+    <row r="279" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="6"/>
@@ -4779,8 +5066,9 @@
       <c r="J279" s="13"/>
       <c r="K279" s="14"/>
       <c r="L279" s="14"/>
-    </row>
-    <row r="280" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M279" s="14"/>
+    </row>
+    <row r="280" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="6"/>
@@ -4793,8 +5081,9 @@
       <c r="J280" s="13"/>
       <c r="K280" s="14"/>
       <c r="L280" s="14"/>
-    </row>
-    <row r="281" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M280" s="14"/>
+    </row>
+    <row r="281" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
@@ -4807,8 +5096,9 @@
       <c r="J281" s="13"/>
       <c r="K281" s="14"/>
       <c r="L281" s="14"/>
-    </row>
-    <row r="282" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M281" s="14"/>
+    </row>
+    <row r="282" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="6"/>
@@ -4821,8 +5111,9 @@
       <c r="J282" s="13"/>
       <c r="K282" s="14"/>
       <c r="L282" s="14"/>
-    </row>
-    <row r="283" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M282" s="14"/>
+    </row>
+    <row r="283" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="6"/>
@@ -4835,8 +5126,9 @@
       <c r="J283" s="13"/>
       <c r="K283" s="14"/>
       <c r="L283" s="14"/>
-    </row>
-    <row r="284" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M283" s="14"/>
+    </row>
+    <row r="284" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="6"/>
@@ -4849,8 +5141,9 @@
       <c r="J284" s="13"/>
       <c r="K284" s="14"/>
       <c r="L284" s="14"/>
-    </row>
-    <row r="285" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M284" s="14"/>
+    </row>
+    <row r="285" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="6"/>
@@ -4863,8 +5156,9 @@
       <c r="J285" s="13"/>
       <c r="K285" s="14"/>
       <c r="L285" s="14"/>
-    </row>
-    <row r="286" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M285" s="14"/>
+    </row>
+    <row r="286" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="6"/>
@@ -4877,8 +5171,9 @@
       <c r="J286" s="13"/>
       <c r="K286" s="14"/>
       <c r="L286" s="14"/>
-    </row>
-    <row r="287" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M286" s="14"/>
+    </row>
+    <row r="287" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="6"/>
@@ -4891,8 +5186,9 @@
       <c r="J287" s="13"/>
       <c r="K287" s="14"/>
       <c r="L287" s="14"/>
-    </row>
-    <row r="288" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M287" s="14"/>
+    </row>
+    <row r="288" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="6"/>
@@ -4905,8 +5201,9 @@
       <c r="J288" s="13"/>
       <c r="K288" s="14"/>
       <c r="L288" s="14"/>
-    </row>
-    <row r="289" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M288" s="14"/>
+    </row>
+    <row r="289" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="6"/>
@@ -4919,8 +5216,9 @@
       <c r="J289" s="13"/>
       <c r="K289" s="14"/>
       <c r="L289" s="14"/>
-    </row>
-    <row r="290" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M289" s="14"/>
+    </row>
+    <row r="290" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="6"/>
@@ -4933,8 +5231,9 @@
       <c r="J290" s="13"/>
       <c r="K290" s="14"/>
       <c r="L290" s="14"/>
-    </row>
-    <row r="291" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M290" s="14"/>
+    </row>
+    <row r="291" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="6"/>
@@ -4947,8 +5246,9 @@
       <c r="J291" s="13"/>
       <c r="K291" s="14"/>
       <c r="L291" s="14"/>
-    </row>
-    <row r="292" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M291" s="14"/>
+    </row>
+    <row r="292" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="6"/>
@@ -4961,8 +5261,9 @@
       <c r="J292" s="13"/>
       <c r="K292" s="14"/>
       <c r="L292" s="14"/>
-    </row>
-    <row r="293" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M292" s="14"/>
+    </row>
+    <row r="293" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="6"/>
@@ -4975,8 +5276,9 @@
       <c r="J293" s="13"/>
       <c r="K293" s="14"/>
       <c r="L293" s="14"/>
-    </row>
-    <row r="294" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M293" s="14"/>
+    </row>
+    <row r="294" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="6"/>
@@ -4989,8 +5291,9 @@
       <c r="J294" s="13"/>
       <c r="K294" s="14"/>
       <c r="L294" s="14"/>
-    </row>
-    <row r="295" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M294" s="14"/>
+    </row>
+    <row r="295" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="6"/>
@@ -5003,8 +5306,9 @@
       <c r="J295" s="13"/>
       <c r="K295" s="14"/>
       <c r="L295" s="14"/>
-    </row>
-    <row r="296" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M295" s="14"/>
+    </row>
+    <row r="296" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
@@ -5017,8 +5321,9 @@
       <c r="J296" s="13"/>
       <c r="K296" s="14"/>
       <c r="L296" s="14"/>
-    </row>
-    <row r="297" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M296" s="14"/>
+    </row>
+    <row r="297" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="6"/>
@@ -5031,8 +5336,9 @@
       <c r="J297" s="13"/>
       <c r="K297" s="14"/>
       <c r="L297" s="14"/>
-    </row>
-    <row r="298" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M297" s="14"/>
+    </row>
+    <row r="298" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="6"/>
@@ -5045,8 +5351,9 @@
       <c r="J298" s="13"/>
       <c r="K298" s="14"/>
       <c r="L298" s="14"/>
-    </row>
-    <row r="299" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M298" s="14"/>
+    </row>
+    <row r="299" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="6"/>
@@ -5059,8 +5366,9 @@
       <c r="J299" s="13"/>
       <c r="K299" s="14"/>
       <c r="L299" s="14"/>
-    </row>
-    <row r="300" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M299" s="14"/>
+    </row>
+    <row r="300" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
@@ -5073,8 +5381,9 @@
       <c r="J300" s="13"/>
       <c r="K300" s="14"/>
       <c r="L300" s="14"/>
-    </row>
-    <row r="301" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M300" s="14"/>
+    </row>
+    <row r="301" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="6"/>
@@ -5087,8 +5396,9 @@
       <c r="J301" s="13"/>
       <c r="K301" s="14"/>
       <c r="L301" s="14"/>
-    </row>
-    <row r="302" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M301" s="14"/>
+    </row>
+    <row r="302" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
@@ -5101,8 +5411,9 @@
       <c r="J302" s="13"/>
       <c r="K302" s="14"/>
       <c r="L302" s="14"/>
-    </row>
-    <row r="303" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M302" s="14"/>
+    </row>
+    <row r="303" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
@@ -5115,8 +5426,9 @@
       <c r="J303" s="13"/>
       <c r="K303" s="14"/>
       <c r="L303" s="14"/>
-    </row>
-    <row r="304" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M303" s="14"/>
+    </row>
+    <row r="304" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
@@ -5129,8 +5441,9 @@
       <c r="J304" s="13"/>
       <c r="K304" s="14"/>
       <c r="L304" s="14"/>
-    </row>
-    <row r="305" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M304" s="14"/>
+    </row>
+    <row r="305" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
@@ -5143,8 +5456,9 @@
       <c r="J305" s="13"/>
       <c r="K305" s="14"/>
       <c r="L305" s="14"/>
-    </row>
-    <row r="306" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M305" s="14"/>
+    </row>
+    <row r="306" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
@@ -5157,8 +5471,9 @@
       <c r="J306" s="13"/>
       <c r="K306" s="14"/>
       <c r="L306" s="14"/>
-    </row>
-    <row r="307" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M306" s="14"/>
+    </row>
+    <row r="307" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
@@ -5171,8 +5486,9 @@
       <c r="J307" s="13"/>
       <c r="K307" s="14"/>
       <c r="L307" s="14"/>
-    </row>
-    <row r="308" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M307" s="14"/>
+    </row>
+    <row r="308" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
@@ -5185,8 +5501,9 @@
       <c r="J308" s="13"/>
       <c r="K308" s="14"/>
       <c r="L308" s="14"/>
-    </row>
-    <row r="309" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M308" s="14"/>
+    </row>
+    <row r="309" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
@@ -5199,8 +5516,9 @@
       <c r="J309" s="13"/>
       <c r="K309" s="14"/>
       <c r="L309" s="14"/>
-    </row>
-    <row r="310" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M309" s="14"/>
+    </row>
+    <row r="310" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
@@ -5213,8 +5531,9 @@
       <c r="J310" s="13"/>
       <c r="K310" s="14"/>
       <c r="L310" s="14"/>
-    </row>
-    <row r="311" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M310" s="14"/>
+    </row>
+    <row r="311" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
@@ -5227,8 +5546,9 @@
       <c r="J311" s="13"/>
       <c r="K311" s="14"/>
       <c r="L311" s="14"/>
-    </row>
-    <row r="312" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M311" s="14"/>
+    </row>
+    <row r="312" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
@@ -5241,8 +5561,9 @@
       <c r="J312" s="13"/>
       <c r="K312" s="14"/>
       <c r="L312" s="14"/>
-    </row>
-    <row r="313" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M312" s="14"/>
+    </row>
+    <row r="313" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
@@ -5255,8 +5576,9 @@
       <c r="J313" s="13"/>
       <c r="K313" s="14"/>
       <c r="L313" s="14"/>
-    </row>
-    <row r="314" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M313" s="14"/>
+    </row>
+    <row r="314" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
@@ -5269,8 +5591,9 @@
       <c r="J314" s="13"/>
       <c r="K314" s="14"/>
       <c r="L314" s="14"/>
-    </row>
-    <row r="315" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M314" s="14"/>
+    </row>
+    <row r="315" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
@@ -5283,8 +5606,9 @@
       <c r="J315" s="13"/>
       <c r="K315" s="14"/>
       <c r="L315" s="14"/>
-    </row>
-    <row r="316" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M315" s="14"/>
+    </row>
+    <row r="316" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
@@ -5297,8 +5621,9 @@
       <c r="J316" s="13"/>
       <c r="K316" s="14"/>
       <c r="L316" s="14"/>
-    </row>
-    <row r="317" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M316" s="14"/>
+    </row>
+    <row r="317" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
@@ -5311,8 +5636,9 @@
       <c r="J317" s="13"/>
       <c r="K317" s="14"/>
       <c r="L317" s="14"/>
-    </row>
-    <row r="318" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M317" s="14"/>
+    </row>
+    <row r="318" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
@@ -5325,8 +5651,9 @@
       <c r="J318" s="13"/>
       <c r="K318" s="14"/>
       <c r="L318" s="14"/>
-    </row>
-    <row r="319" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M318" s="14"/>
+    </row>
+    <row r="319" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
@@ -5339,8 +5666,9 @@
       <c r="J319" s="13"/>
       <c r="K319" s="14"/>
       <c r="L319" s="14"/>
-    </row>
-    <row r="320" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M319" s="14"/>
+    </row>
+    <row r="320" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
@@ -5353,8 +5681,9 @@
       <c r="J320" s="13"/>
       <c r="K320" s="14"/>
       <c r="L320" s="14"/>
-    </row>
-    <row r="321" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M320" s="14"/>
+    </row>
+    <row r="321" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
@@ -5367,8 +5696,9 @@
       <c r="J321" s="13"/>
       <c r="K321" s="14"/>
       <c r="L321" s="14"/>
-    </row>
-    <row r="322" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M321" s="14"/>
+    </row>
+    <row r="322" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
@@ -5381,8 +5711,9 @@
       <c r="J322" s="13"/>
       <c r="K322" s="14"/>
       <c r="L322" s="14"/>
-    </row>
-    <row r="323" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M322" s="14"/>
+    </row>
+    <row r="323" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
@@ -5395,8 +5726,9 @@
       <c r="J323" s="13"/>
       <c r="K323" s="14"/>
       <c r="L323" s="14"/>
-    </row>
-    <row r="324" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M323" s="14"/>
+    </row>
+    <row r="324" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
@@ -5409,8 +5741,9 @@
       <c r="J324" s="13"/>
       <c r="K324" s="14"/>
       <c r="L324" s="14"/>
-    </row>
-    <row r="325" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M324" s="14"/>
+    </row>
+    <row r="325" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
@@ -5423,8 +5756,9 @@
       <c r="J325" s="13"/>
       <c r="K325" s="14"/>
       <c r="L325" s="14"/>
-    </row>
-    <row r="326" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M325" s="14"/>
+    </row>
+    <row r="326" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
@@ -5437,8 +5771,9 @@
       <c r="J326" s="13"/>
       <c r="K326" s="14"/>
       <c r="L326" s="14"/>
-    </row>
-    <row r="327" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M326" s="14"/>
+    </row>
+    <row r="327" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
@@ -5451,8 +5786,9 @@
       <c r="J327" s="13"/>
       <c r="K327" s="14"/>
       <c r="L327" s="14"/>
-    </row>
-    <row r="328" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M327" s="14"/>
+    </row>
+    <row r="328" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
@@ -5465,8 +5801,9 @@
       <c r="J328" s="13"/>
       <c r="K328" s="14"/>
       <c r="L328" s="14"/>
-    </row>
-    <row r="329" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M328" s="14"/>
+    </row>
+    <row r="329" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
@@ -5479,8 +5816,9 @@
       <c r="J329" s="13"/>
       <c r="K329" s="14"/>
       <c r="L329" s="14"/>
-    </row>
-    <row r="330" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M329" s="14"/>
+    </row>
+    <row r="330" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
@@ -5493,8 +5831,9 @@
       <c r="J330" s="13"/>
       <c r="K330" s="14"/>
       <c r="L330" s="14"/>
-    </row>
-    <row r="331" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M330" s="14"/>
+    </row>
+    <row r="331" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
@@ -5507,8 +5846,9 @@
       <c r="J331" s="13"/>
       <c r="K331" s="14"/>
       <c r="L331" s="14"/>
-    </row>
-    <row r="332" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M331" s="14"/>
+    </row>
+    <row r="332" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
@@ -5521,8 +5861,9 @@
       <c r="J332" s="13"/>
       <c r="K332" s="14"/>
       <c r="L332" s="14"/>
-    </row>
-    <row r="333" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M332" s="14"/>
+    </row>
+    <row r="333" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
@@ -5535,8 +5876,9 @@
       <c r="J333" s="13"/>
       <c r="K333" s="14"/>
       <c r="L333" s="14"/>
-    </row>
-    <row r="334" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M333" s="14"/>
+    </row>
+    <row r="334" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
@@ -5549,8 +5891,9 @@
       <c r="J334" s="13"/>
       <c r="K334" s="14"/>
       <c r="L334" s="14"/>
-    </row>
-    <row r="335" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M334" s="14"/>
+    </row>
+    <row r="335" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
@@ -5563,8 +5906,9 @@
       <c r="J335" s="13"/>
       <c r="K335" s="14"/>
       <c r="L335" s="14"/>
-    </row>
-    <row r="336" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M335" s="14"/>
+    </row>
+    <row r="336" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
@@ -5577,8 +5921,9 @@
       <c r="J336" s="13"/>
       <c r="K336" s="14"/>
       <c r="L336" s="14"/>
-    </row>
-    <row r="337" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M336" s="14"/>
+    </row>
+    <row r="337" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
@@ -5591,8 +5936,9 @@
       <c r="J337" s="13"/>
       <c r="K337" s="14"/>
       <c r="L337" s="14"/>
-    </row>
-    <row r="338" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M337" s="14"/>
+    </row>
+    <row r="338" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
@@ -5605,8 +5951,9 @@
       <c r="J338" s="13"/>
       <c r="K338" s="14"/>
       <c r="L338" s="14"/>
-    </row>
-    <row r="339" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M338" s="14"/>
+    </row>
+    <row r="339" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
@@ -5619,8 +5966,9 @@
       <c r="J339" s="13"/>
       <c r="K339" s="14"/>
       <c r="L339" s="14"/>
-    </row>
-    <row r="340" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M339" s="14"/>
+    </row>
+    <row r="340" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="6"/>
@@ -5633,8 +5981,9 @@
       <c r="J340" s="13"/>
       <c r="K340" s="14"/>
       <c r="L340" s="14"/>
-    </row>
-    <row r="341" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M340" s="14"/>
+    </row>
+    <row r="341" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
@@ -5647,8 +5996,9 @@
       <c r="J341" s="13"/>
       <c r="K341" s="14"/>
       <c r="L341" s="14"/>
-    </row>
-    <row r="342" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M341" s="14"/>
+    </row>
+    <row r="342" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
@@ -5661,8 +6011,9 @@
       <c r="J342" s="13"/>
       <c r="K342" s="14"/>
       <c r="L342" s="14"/>
-    </row>
-    <row r="343" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M342" s="14"/>
+    </row>
+    <row r="343" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
@@ -5675,8 +6026,9 @@
       <c r="J343" s="13"/>
       <c r="K343" s="14"/>
       <c r="L343" s="14"/>
-    </row>
-    <row r="344" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M343" s="14"/>
+    </row>
+    <row r="344" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="6"/>
@@ -5689,8 +6041,9 @@
       <c r="J344" s="13"/>
       <c r="K344" s="14"/>
       <c r="L344" s="14"/>
-    </row>
-    <row r="345" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M344" s="14"/>
+    </row>
+    <row r="345" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="6"/>
@@ -5703,8 +6056,9 @@
       <c r="J345" s="13"/>
       <c r="K345" s="14"/>
       <c r="L345" s="14"/>
-    </row>
-    <row r="346" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M345" s="14"/>
+    </row>
+    <row r="346" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="6"/>
@@ -5717,8 +6071,9 @@
       <c r="J346" s="13"/>
       <c r="K346" s="14"/>
       <c r="L346" s="14"/>
-    </row>
-    <row r="347" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M346" s="14"/>
+    </row>
+    <row r="347" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
       <c r="C347" s="6"/>
@@ -5731,8 +6086,9 @@
       <c r="J347" s="13"/>
       <c r="K347" s="14"/>
       <c r="L347" s="14"/>
-    </row>
-    <row r="348" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M347" s="14"/>
+    </row>
+    <row r="348" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="6"/>
@@ -5745,8 +6101,9 @@
       <c r="J348" s="13"/>
       <c r="K348" s="14"/>
       <c r="L348" s="14"/>
-    </row>
-    <row r="349" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M348" s="14"/>
+    </row>
+    <row r="349" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="6"/>
@@ -5759,8 +6116,9 @@
       <c r="J349" s="13"/>
       <c r="K349" s="14"/>
       <c r="L349" s="14"/>
-    </row>
-    <row r="350" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M349" s="14"/>
+    </row>
+    <row r="350" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="6"/>
@@ -5773,8 +6131,9 @@
       <c r="J350" s="13"/>
       <c r="K350" s="14"/>
       <c r="L350" s="14"/>
-    </row>
-    <row r="351" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M350" s="14"/>
+    </row>
+    <row r="351" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="6"/>
@@ -5787,8 +6146,9 @@
       <c r="J351" s="13"/>
       <c r="K351" s="14"/>
       <c r="L351" s="14"/>
-    </row>
-    <row r="352" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M351" s="14"/>
+    </row>
+    <row r="352" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="6"/>
@@ -5801,8 +6161,9 @@
       <c r="J352" s="13"/>
       <c r="K352" s="14"/>
       <c r="L352" s="14"/>
-    </row>
-    <row r="353" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M352" s="14"/>
+    </row>
+    <row r="353" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="6"/>
@@ -5815,8 +6176,9 @@
       <c r="J353" s="13"/>
       <c r="K353" s="14"/>
       <c r="L353" s="14"/>
-    </row>
-    <row r="354" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M353" s="14"/>
+    </row>
+    <row r="354" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
@@ -5829,8 +6191,9 @@
       <c r="J354" s="13"/>
       <c r="K354" s="14"/>
       <c r="L354" s="14"/>
-    </row>
-    <row r="355" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M354" s="14"/>
+    </row>
+    <row r="355" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="6"/>
@@ -5843,8 +6206,9 @@
       <c r="J355" s="13"/>
       <c r="K355" s="14"/>
       <c r="L355" s="14"/>
-    </row>
-    <row r="356" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M355" s="14"/>
+    </row>
+    <row r="356" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="6"/>
@@ -5857,8 +6221,9 @@
       <c r="J356" s="13"/>
       <c r="K356" s="14"/>
       <c r="L356" s="14"/>
-    </row>
-    <row r="357" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M356" s="14"/>
+    </row>
+    <row r="357" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="6"/>
@@ -5871,8 +6236,9 @@
       <c r="J357" s="13"/>
       <c r="K357" s="14"/>
       <c r="L357" s="14"/>
-    </row>
-    <row r="358" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M357" s="14"/>
+    </row>
+    <row r="358" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
@@ -5885,8 +6251,9 @@
       <c r="J358" s="13"/>
       <c r="K358" s="14"/>
       <c r="L358" s="14"/>
-    </row>
-    <row r="359" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M358" s="14"/>
+    </row>
+    <row r="359" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="6"/>
@@ -5899,8 +6266,9 @@
       <c r="J359" s="13"/>
       <c r="K359" s="14"/>
       <c r="L359" s="14"/>
-    </row>
-    <row r="360" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M359" s="14"/>
+    </row>
+    <row r="360" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="6"/>
@@ -5913,8 +6281,9 @@
       <c r="J360" s="13"/>
       <c r="K360" s="14"/>
       <c r="L360" s="14"/>
-    </row>
-    <row r="361" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M360" s="14"/>
+    </row>
+    <row r="361" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="6"/>
@@ -5927,8 +6296,9 @@
       <c r="J361" s="13"/>
       <c r="K361" s="14"/>
       <c r="L361" s="14"/>
-    </row>
-    <row r="362" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M361" s="14"/>
+    </row>
+    <row r="362" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="6"/>
@@ -5941,8 +6311,9 @@
       <c r="J362" s="13"/>
       <c r="K362" s="14"/>
       <c r="L362" s="14"/>
-    </row>
-    <row r="363" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M362" s="14"/>
+    </row>
+    <row r="363" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="6"/>
@@ -5955,8 +6326,9 @@
       <c r="J363" s="13"/>
       <c r="K363" s="14"/>
       <c r="L363" s="14"/>
-    </row>
-    <row r="364" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M363" s="14"/>
+    </row>
+    <row r="364" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="6"/>
@@ -5969,8 +6341,9 @@
       <c r="J364" s="13"/>
       <c r="K364" s="14"/>
       <c r="L364" s="14"/>
-    </row>
-    <row r="365" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M364" s="14"/>
+    </row>
+    <row r="365" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="6"/>
@@ -5983,8 +6356,9 @@
       <c r="J365" s="13"/>
       <c r="K365" s="14"/>
       <c r="L365" s="14"/>
-    </row>
-    <row r="366" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M365" s="14"/>
+    </row>
+    <row r="366" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="6"/>
@@ -5997,8 +6371,9 @@
       <c r="J366" s="13"/>
       <c r="K366" s="14"/>
       <c r="L366" s="14"/>
-    </row>
-    <row r="367" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M366" s="14"/>
+    </row>
+    <row r="367" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="6"/>
@@ -6011,8 +6386,9 @@
       <c r="J367" s="13"/>
       <c r="K367" s="14"/>
       <c r="L367" s="14"/>
-    </row>
-    <row r="368" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M367" s="14"/>
+    </row>
+    <row r="368" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="6"/>
@@ -6025,8 +6401,9 @@
       <c r="J368" s="13"/>
       <c r="K368" s="14"/>
       <c r="L368" s="14"/>
-    </row>
-    <row r="369" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M368" s="14"/>
+    </row>
+    <row r="369" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
       <c r="C369" s="6"/>
@@ -6039,8 +6416,9 @@
       <c r="J369" s="13"/>
       <c r="K369" s="14"/>
       <c r="L369" s="14"/>
-    </row>
-    <row r="370" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M369" s="14"/>
+    </row>
+    <row r="370" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="6"/>
@@ -6053,8 +6431,9 @@
       <c r="J370" s="13"/>
       <c r="K370" s="14"/>
       <c r="L370" s="14"/>
-    </row>
-    <row r="371" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M370" s="14"/>
+    </row>
+    <row r="371" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="6"/>
@@ -6067,8 +6446,9 @@
       <c r="J371" s="13"/>
       <c r="K371" s="14"/>
       <c r="L371" s="14"/>
-    </row>
-    <row r="372" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M371" s="14"/>
+    </row>
+    <row r="372" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="6"/>
@@ -6081,8 +6461,9 @@
       <c r="J372" s="13"/>
       <c r="K372" s="14"/>
       <c r="L372" s="14"/>
-    </row>
-    <row r="373" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M372" s="14"/>
+    </row>
+    <row r="373" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="6"/>
@@ -6095,8 +6476,9 @@
       <c r="J373" s="13"/>
       <c r="K373" s="14"/>
       <c r="L373" s="14"/>
-    </row>
-    <row r="374" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M373" s="14"/>
+    </row>
+    <row r="374" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="6"/>
@@ -6109,8 +6491,9 @@
       <c r="J374" s="13"/>
       <c r="K374" s="14"/>
       <c r="L374" s="14"/>
-    </row>
-    <row r="375" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M374" s="14"/>
+    </row>
+    <row r="375" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
       <c r="C375" s="6"/>
@@ -6123,8 +6506,9 @@
       <c r="J375" s="13"/>
       <c r="K375" s="14"/>
       <c r="L375" s="14"/>
-    </row>
-    <row r="376" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M375" s="14"/>
+    </row>
+    <row r="376" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="6"/>
@@ -6137,8 +6521,9 @@
       <c r="J376" s="13"/>
       <c r="K376" s="14"/>
       <c r="L376" s="14"/>
-    </row>
-    <row r="377" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M376" s="14"/>
+    </row>
+    <row r="377" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
       <c r="C377" s="6"/>
@@ -6151,8 +6536,9 @@
       <c r="J377" s="13"/>
       <c r="K377" s="14"/>
       <c r="L377" s="14"/>
-    </row>
-    <row r="378" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M377" s="14"/>
+    </row>
+    <row r="378" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="6"/>
@@ -6165,8 +6551,9 @@
       <c r="J378" s="13"/>
       <c r="K378" s="14"/>
       <c r="L378" s="14"/>
-    </row>
-    <row r="379" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M378" s="14"/>
+    </row>
+    <row r="379" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
       <c r="C379" s="6"/>
@@ -6179,8 +6566,9 @@
       <c r="J379" s="13"/>
       <c r="K379" s="14"/>
       <c r="L379" s="14"/>
-    </row>
-    <row r="380" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M379" s="14"/>
+    </row>
+    <row r="380" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="6"/>
@@ -6193,8 +6581,9 @@
       <c r="J380" s="13"/>
       <c r="K380" s="14"/>
       <c r="L380" s="14"/>
-    </row>
-    <row r="381" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M380" s="14"/>
+    </row>
+    <row r="381" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
       <c r="C381" s="6"/>
@@ -6207,8 +6596,9 @@
       <c r="J381" s="13"/>
       <c r="K381" s="14"/>
       <c r="L381" s="14"/>
-    </row>
-    <row r="382" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M381" s="14"/>
+    </row>
+    <row r="382" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="6"/>
@@ -6221,8 +6611,9 @@
       <c r="J382" s="13"/>
       <c r="K382" s="14"/>
       <c r="L382" s="14"/>
-    </row>
-    <row r="383" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M382" s="14"/>
+    </row>
+    <row r="383" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
       <c r="C383" s="6"/>
@@ -6235,8 +6626,9 @@
       <c r="J383" s="13"/>
       <c r="K383" s="14"/>
       <c r="L383" s="14"/>
-    </row>
-    <row r="384" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M383" s="14"/>
+    </row>
+    <row r="384" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="6"/>
@@ -6249,8 +6641,9 @@
       <c r="J384" s="13"/>
       <c r="K384" s="14"/>
       <c r="L384" s="14"/>
-    </row>
-    <row r="385" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M384" s="14"/>
+    </row>
+    <row r="385" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
       <c r="C385" s="6"/>
@@ -6263,8 +6656,9 @@
       <c r="J385" s="13"/>
       <c r="K385" s="14"/>
       <c r="L385" s="14"/>
-    </row>
-    <row r="386" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M385" s="14"/>
+    </row>
+    <row r="386" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="6"/>
@@ -6277,8 +6671,9 @@
       <c r="J386" s="13"/>
       <c r="K386" s="14"/>
       <c r="L386" s="14"/>
-    </row>
-    <row r="387" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M386" s="14"/>
+    </row>
+    <row r="387" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
       <c r="C387" s="6"/>
@@ -6291,8 +6686,9 @@
       <c r="J387" s="13"/>
       <c r="K387" s="14"/>
       <c r="L387" s="14"/>
-    </row>
-    <row r="388" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M387" s="14"/>
+    </row>
+    <row r="388" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
       <c r="C388" s="6"/>
@@ -6305,8 +6701,9 @@
       <c r="J388" s="13"/>
       <c r="K388" s="14"/>
       <c r="L388" s="14"/>
-    </row>
-    <row r="389" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M388" s="14"/>
+    </row>
+    <row r="389" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
       <c r="C389" s="6"/>
@@ -6319,8 +6716,9 @@
       <c r="J389" s="13"/>
       <c r="K389" s="14"/>
       <c r="L389" s="14"/>
-    </row>
-    <row r="390" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M389" s="14"/>
+    </row>
+    <row r="390" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="6"/>
@@ -6333,8 +6731,9 @@
       <c r="J390" s="13"/>
       <c r="K390" s="14"/>
       <c r="L390" s="14"/>
-    </row>
-    <row r="391" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M390" s="14"/>
+    </row>
+    <row r="391" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
       <c r="C391" s="6"/>
@@ -6347,8 +6746,9 @@
       <c r="J391" s="13"/>
       <c r="K391" s="14"/>
       <c r="L391" s="14"/>
-    </row>
-    <row r="392" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M391" s="14"/>
+    </row>
+    <row r="392" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
@@ -6361,8 +6761,9 @@
       <c r="J392" s="13"/>
       <c r="K392" s="14"/>
       <c r="L392" s="14"/>
-    </row>
-    <row r="393" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M392" s="14"/>
+    </row>
+    <row r="393" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
       <c r="C393" s="6"/>
@@ -6375,8 +6776,9 @@
       <c r="J393" s="13"/>
       <c r="K393" s="14"/>
       <c r="L393" s="14"/>
-    </row>
-    <row r="394" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M393" s="14"/>
+    </row>
+    <row r="394" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="6"/>
@@ -6389,8 +6791,9 @@
       <c r="J394" s="13"/>
       <c r="K394" s="14"/>
       <c r="L394" s="14"/>
-    </row>
-    <row r="395" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M394" s="14"/>
+    </row>
+    <row r="395" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
       <c r="C395" s="6"/>
@@ -6403,8 +6806,9 @@
       <c r="J395" s="13"/>
       <c r="K395" s="14"/>
       <c r="L395" s="14"/>
-    </row>
-    <row r="396" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M395" s="14"/>
+    </row>
+    <row r="396" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="6"/>
@@ -6417,8 +6821,9 @@
       <c r="J396" s="13"/>
       <c r="K396" s="14"/>
       <c r="L396" s="14"/>
-    </row>
-    <row r="397" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M396" s="14"/>
+    </row>
+    <row r="397" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="6"/>
@@ -6431,8 +6836,9 @@
       <c r="J397" s="13"/>
       <c r="K397" s="14"/>
       <c r="L397" s="14"/>
-    </row>
-    <row r="398" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M397" s="14"/>
+    </row>
+    <row r="398" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="6"/>
@@ -6445,8 +6851,9 @@
       <c r="J398" s="13"/>
       <c r="K398" s="14"/>
       <c r="L398" s="14"/>
-    </row>
-    <row r="399" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M398" s="14"/>
+    </row>
+    <row r="399" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="6"/>
@@ -6459,8 +6866,9 @@
       <c r="J399" s="13"/>
       <c r="K399" s="14"/>
       <c r="L399" s="14"/>
-    </row>
-    <row r="400" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M399" s="14"/>
+    </row>
+    <row r="400" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="6"/>
@@ -6473,8 +6881,9 @@
       <c r="J400" s="13"/>
       <c r="K400" s="14"/>
       <c r="L400" s="14"/>
-    </row>
-    <row r="401" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M400" s="14"/>
+    </row>
+    <row r="401" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
       <c r="C401" s="6"/>
@@ -6487,8 +6896,9 @@
       <c r="J401" s="13"/>
       <c r="K401" s="14"/>
       <c r="L401" s="14"/>
-    </row>
-    <row r="402" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M401" s="14"/>
+    </row>
+    <row r="402" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="6"/>
@@ -6501,8 +6911,9 @@
       <c r="J402" s="13"/>
       <c r="K402" s="14"/>
       <c r="L402" s="14"/>
-    </row>
-    <row r="403" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M402" s="14"/>
+    </row>
+    <row r="403" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
       <c r="C403" s="6"/>
@@ -6515,8 +6926,9 @@
       <c r="J403" s="13"/>
       <c r="K403" s="14"/>
       <c r="L403" s="14"/>
-    </row>
-    <row r="404" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M403" s="14"/>
+    </row>
+    <row r="404" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="6"/>
@@ -6529,8 +6941,9 @@
       <c r="J404" s="13"/>
       <c r="K404" s="14"/>
       <c r="L404" s="14"/>
-    </row>
-    <row r="405" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M404" s="14"/>
+    </row>
+    <row r="405" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
       <c r="C405" s="6"/>
@@ -6543,8 +6956,9 @@
       <c r="J405" s="13"/>
       <c r="K405" s="14"/>
       <c r="L405" s="14"/>
-    </row>
-    <row r="406" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M405" s="14"/>
+    </row>
+    <row r="406" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="6"/>
@@ -6557,8 +6971,9 @@
       <c r="J406" s="13"/>
       <c r="K406" s="14"/>
       <c r="L406" s="14"/>
-    </row>
-    <row r="407" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M406" s="14"/>
+    </row>
+    <row r="407" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
       <c r="C407" s="6"/>
@@ -6571,8 +6986,9 @@
       <c r="J407" s="13"/>
       <c r="K407" s="14"/>
       <c r="L407" s="14"/>
-    </row>
-    <row r="408" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M407" s="14"/>
+    </row>
+    <row r="408" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="6"/>
@@ -6585,8 +7001,9 @@
       <c r="J408" s="13"/>
       <c r="K408" s="14"/>
       <c r="L408" s="14"/>
-    </row>
-    <row r="409" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M408" s="14"/>
+    </row>
+    <row r="409" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
       <c r="C409" s="6"/>
@@ -6599,8 +7016,9 @@
       <c r="J409" s="13"/>
       <c r="K409" s="14"/>
       <c r="L409" s="14"/>
-    </row>
-    <row r="410" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M409" s="14"/>
+    </row>
+    <row r="410" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
       <c r="C410" s="6"/>
@@ -6613,8 +7031,9 @@
       <c r="J410" s="13"/>
       <c r="K410" s="14"/>
       <c r="L410" s="14"/>
-    </row>
-    <row r="411" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M410" s="14"/>
+    </row>
+    <row r="411" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
       <c r="C411" s="6"/>
@@ -6627,8 +7046,9 @@
       <c r="J411" s="13"/>
       <c r="K411" s="14"/>
       <c r="L411" s="14"/>
-    </row>
-    <row r="412" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M411" s="14"/>
+    </row>
+    <row r="412" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="6"/>
@@ -6641,8 +7061,9 @@
       <c r="J412" s="13"/>
       <c r="K412" s="14"/>
       <c r="L412" s="14"/>
-    </row>
-    <row r="413" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M412" s="14"/>
+    </row>
+    <row r="413" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
       <c r="C413" s="6"/>
@@ -6655,8 +7076,9 @@
       <c r="J413" s="13"/>
       <c r="K413" s="14"/>
       <c r="L413" s="14"/>
-    </row>
-    <row r="414" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M413" s="14"/>
+    </row>
+    <row r="414" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="6"/>
@@ -6669,8 +7091,9 @@
       <c r="J414" s="13"/>
       <c r="K414" s="14"/>
       <c r="L414" s="14"/>
-    </row>
-    <row r="415" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M414" s="14"/>
+    </row>
+    <row r="415" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
       <c r="C415" s="6"/>
@@ -6683,8 +7106,9 @@
       <c r="J415" s="13"/>
       <c r="K415" s="14"/>
       <c r="L415" s="14"/>
-    </row>
-    <row r="416" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M415" s="14"/>
+    </row>
+    <row r="416" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="6"/>
@@ -6697,8 +7121,9 @@
       <c r="J416" s="13"/>
       <c r="K416" s="14"/>
       <c r="L416" s="14"/>
-    </row>
-    <row r="417" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M416" s="14"/>
+    </row>
+    <row r="417" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
       <c r="C417" s="6"/>
@@ -6711,8 +7136,9 @@
       <c r="J417" s="13"/>
       <c r="K417" s="14"/>
       <c r="L417" s="14"/>
-    </row>
-    <row r="418" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M417" s="14"/>
+    </row>
+    <row r="418" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="6"/>
@@ -6725,8 +7151,9 @@
       <c r="J418" s="13"/>
       <c r="K418" s="14"/>
       <c r="L418" s="14"/>
-    </row>
-    <row r="419" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M418" s="14"/>
+    </row>
+    <row r="419" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="6"/>
@@ -6739,8 +7166,9 @@
       <c r="J419" s="13"/>
       <c r="K419" s="14"/>
       <c r="L419" s="14"/>
-    </row>
-    <row r="420" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M419" s="14"/>
+    </row>
+    <row r="420" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="6"/>
@@ -6753,8 +7181,9 @@
       <c r="J420" s="13"/>
       <c r="K420" s="14"/>
       <c r="L420" s="14"/>
-    </row>
-    <row r="421" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M420" s="14"/>
+    </row>
+    <row r="421" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
       <c r="C421" s="6"/>
@@ -6767,8 +7196,9 @@
       <c r="J421" s="13"/>
       <c r="K421" s="14"/>
       <c r="L421" s="14"/>
-    </row>
-    <row r="422" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M421" s="14"/>
+    </row>
+    <row r="422" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="6"/>
@@ -6781,8 +7211,9 @@
       <c r="J422" s="13"/>
       <c r="K422" s="14"/>
       <c r="L422" s="14"/>
-    </row>
-    <row r="423" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M422" s="14"/>
+    </row>
+    <row r="423" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="C423" s="6"/>
@@ -6795,8 +7226,9 @@
       <c r="J423" s="13"/>
       <c r="K423" s="14"/>
       <c r="L423" s="14"/>
-    </row>
-    <row r="424" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M423" s="14"/>
+    </row>
+    <row r="424" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="6"/>
@@ -6809,8 +7241,9 @@
       <c r="J424" s="13"/>
       <c r="K424" s="14"/>
       <c r="L424" s="14"/>
-    </row>
-    <row r="425" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M424" s="14"/>
+    </row>
+    <row r="425" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="6"/>
@@ -6823,8 +7256,9 @@
       <c r="J425" s="13"/>
       <c r="K425" s="14"/>
       <c r="L425" s="14"/>
-    </row>
-    <row r="426" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M425" s="14"/>
+    </row>
+    <row r="426" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="6"/>
@@ -6837,8 +7271,9 @@
       <c r="J426" s="13"/>
       <c r="K426" s="14"/>
       <c r="L426" s="14"/>
-    </row>
-    <row r="427" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M426" s="14"/>
+    </row>
+    <row r="427" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
       <c r="C427" s="6"/>
@@ -6851,8 +7286,9 @@
       <c r="J427" s="13"/>
       <c r="K427" s="14"/>
       <c r="L427" s="14"/>
-    </row>
-    <row r="428" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M427" s="14"/>
+    </row>
+    <row r="428" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="6"/>
@@ -6865,8 +7301,9 @@
       <c r="J428" s="13"/>
       <c r="K428" s="14"/>
       <c r="L428" s="14"/>
-    </row>
-    <row r="429" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M428" s="14"/>
+    </row>
+    <row r="429" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
       <c r="C429" s="6"/>
@@ -6879,8 +7316,9 @@
       <c r="J429" s="13"/>
       <c r="K429" s="14"/>
       <c r="L429" s="14"/>
-    </row>
-    <row r="430" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M429" s="14"/>
+    </row>
+    <row r="430" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="6"/>
@@ -6893,8 +7331,9 @@
       <c r="J430" s="13"/>
       <c r="K430" s="14"/>
       <c r="L430" s="14"/>
-    </row>
-    <row r="431" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M430" s="14"/>
+    </row>
+    <row r="431" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
       <c r="C431" s="6"/>
@@ -6907,8 +7346,9 @@
       <c r="J431" s="13"/>
       <c r="K431" s="14"/>
       <c r="L431" s="14"/>
-    </row>
-    <row r="432" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M431" s="14"/>
+    </row>
+    <row r="432" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="6"/>
@@ -6921,8 +7361,9 @@
       <c r="J432" s="13"/>
       <c r="K432" s="14"/>
       <c r="L432" s="14"/>
-    </row>
-    <row r="433" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M432" s="14"/>
+    </row>
+    <row r="433" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="6"/>
@@ -6935,8 +7376,9 @@
       <c r="J433" s="13"/>
       <c r="K433" s="14"/>
       <c r="L433" s="14"/>
-    </row>
-    <row r="434" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M433" s="14"/>
+    </row>
+    <row r="434" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="6"/>
@@ -6949,8 +7391,9 @@
       <c r="J434" s="13"/>
       <c r="K434" s="14"/>
       <c r="L434" s="14"/>
-    </row>
-    <row r="435" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M434" s="14"/>
+    </row>
+    <row r="435" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="6"/>
@@ -6963,8 +7406,9 @@
       <c r="J435" s="13"/>
       <c r="K435" s="14"/>
       <c r="L435" s="14"/>
-    </row>
-    <row r="436" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M435" s="14"/>
+    </row>
+    <row r="436" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="6"/>
@@ -6977,8 +7421,9 @@
       <c r="J436" s="13"/>
       <c r="K436" s="14"/>
       <c r="L436" s="14"/>
-    </row>
-    <row r="437" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M436" s="14"/>
+    </row>
+    <row r="437" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
       <c r="C437" s="6"/>
@@ -6991,8 +7436,9 @@
       <c r="J437" s="13"/>
       <c r="K437" s="14"/>
       <c r="L437" s="14"/>
-    </row>
-    <row r="438" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M437" s="14"/>
+    </row>
+    <row r="438" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="6"/>
@@ -7005,8 +7451,9 @@
       <c r="J438" s="13"/>
       <c r="K438" s="14"/>
       <c r="L438" s="14"/>
-    </row>
-    <row r="439" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M438" s="14"/>
+    </row>
+    <row r="439" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
       <c r="C439" s="6"/>
@@ -7019,8 +7466,9 @@
       <c r="J439" s="13"/>
       <c r="K439" s="14"/>
       <c r="L439" s="14"/>
-    </row>
-    <row r="440" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M439" s="14"/>
+    </row>
+    <row r="440" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="6"/>
@@ -7033,8 +7481,9 @@
       <c r="J440" s="13"/>
       <c r="K440" s="14"/>
       <c r="L440" s="14"/>
-    </row>
-    <row r="441" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M440" s="14"/>
+    </row>
+    <row r="441" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
       <c r="C441" s="6"/>
@@ -7047,8 +7496,9 @@
       <c r="J441" s="13"/>
       <c r="K441" s="14"/>
       <c r="L441" s="14"/>
-    </row>
-    <row r="442" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M441" s="14"/>
+    </row>
+    <row r="442" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="6"/>
@@ -7061,8 +7511,9 @@
       <c r="J442" s="13"/>
       <c r="K442" s="14"/>
       <c r="L442" s="14"/>
-    </row>
-    <row r="443" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M442" s="14"/>
+    </row>
+    <row r="443" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
       <c r="C443" s="6"/>
@@ -7075,8 +7526,9 @@
       <c r="J443" s="13"/>
       <c r="K443" s="14"/>
       <c r="L443" s="14"/>
-    </row>
-    <row r="444" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M443" s="14"/>
+    </row>
+    <row r="444" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="6"/>
@@ -7089,8 +7541,9 @@
       <c r="J444" s="13"/>
       <c r="K444" s="14"/>
       <c r="L444" s="14"/>
-    </row>
-    <row r="445" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M444" s="14"/>
+    </row>
+    <row r="445" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
       <c r="C445" s="6"/>
@@ -7103,8 +7556,9 @@
       <c r="J445" s="13"/>
       <c r="K445" s="14"/>
       <c r="L445" s="14"/>
-    </row>
-    <row r="446" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M445" s="14"/>
+    </row>
+    <row r="446" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="6"/>
@@ -7117,8 +7571,9 @@
       <c r="J446" s="13"/>
       <c r="K446" s="14"/>
       <c r="L446" s="14"/>
-    </row>
-    <row r="447" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M446" s="14"/>
+    </row>
+    <row r="447" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
       <c r="C447" s="6"/>
@@ -7131,8 +7586,9 @@
       <c r="J447" s="13"/>
       <c r="K447" s="14"/>
       <c r="L447" s="14"/>
-    </row>
-    <row r="448" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M447" s="14"/>
+    </row>
+    <row r="448" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="6"/>
@@ -7145,8 +7601,9 @@
       <c r="J448" s="13"/>
       <c r="K448" s="14"/>
       <c r="L448" s="14"/>
-    </row>
-    <row r="449" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M448" s="14"/>
+    </row>
+    <row r="449" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="5"/>
       <c r="C449" s="6"/>
@@ -7159,8 +7616,9 @@
       <c r="J449" s="13"/>
       <c r="K449" s="14"/>
       <c r="L449" s="14"/>
-    </row>
-    <row r="450" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M449" s="14"/>
+    </row>
+    <row r="450" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="5"/>
       <c r="C450" s="6"/>
@@ -7173,8 +7631,9 @@
       <c r="J450" s="13"/>
       <c r="K450" s="14"/>
       <c r="L450" s="14"/>
-    </row>
-    <row r="451" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M450" s="14"/>
+    </row>
+    <row r="451" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="5"/>
       <c r="C451" s="6"/>
@@ -7187,8 +7646,9 @@
       <c r="J451" s="13"/>
       <c r="K451" s="14"/>
       <c r="L451" s="14"/>
-    </row>
-    <row r="452" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M451" s="14"/>
+    </row>
+    <row r="452" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="5"/>
       <c r="C452" s="6"/>
@@ -7201,8 +7661,9 @@
       <c r="J452" s="13"/>
       <c r="K452" s="14"/>
       <c r="L452" s="14"/>
-    </row>
-    <row r="453" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M452" s="14"/>
+    </row>
+    <row r="453" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="5"/>
       <c r="C453" s="6"/>
@@ -7215,8 +7676,9 @@
       <c r="J453" s="13"/>
       <c r="K453" s="14"/>
       <c r="L453" s="14"/>
-    </row>
-    <row r="454" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M453" s="14"/>
+    </row>
+    <row r="454" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="5"/>
       <c r="C454" s="6"/>
@@ -7229,8 +7691,9 @@
       <c r="J454" s="13"/>
       <c r="K454" s="14"/>
       <c r="L454" s="14"/>
-    </row>
-    <row r="455" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M454" s="14"/>
+    </row>
+    <row r="455" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="5"/>
       <c r="C455" s="6"/>
@@ -7243,8 +7706,9 @@
       <c r="J455" s="13"/>
       <c r="K455" s="14"/>
       <c r="L455" s="14"/>
-    </row>
-    <row r="456" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M455" s="14"/>
+    </row>
+    <row r="456" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="5"/>
       <c r="C456" s="6"/>
@@ -7257,8 +7721,9 @@
       <c r="J456" s="13"/>
       <c r="K456" s="14"/>
       <c r="L456" s="14"/>
-    </row>
-    <row r="457" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M456" s="14"/>
+    </row>
+    <row r="457" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="5"/>
       <c r="C457" s="6"/>
@@ -7271,8 +7736,9 @@
       <c r="J457" s="13"/>
       <c r="K457" s="14"/>
       <c r="L457" s="14"/>
-    </row>
-    <row r="458" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M457" s="14"/>
+    </row>
+    <row r="458" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="5"/>
       <c r="C458" s="6"/>
@@ -7285,8 +7751,9 @@
       <c r="J458" s="13"/>
       <c r="K458" s="14"/>
       <c r="L458" s="14"/>
-    </row>
-    <row r="459" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M458" s="14"/>
+    </row>
+    <row r="459" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="5"/>
       <c r="C459" s="6"/>
@@ -7299,8 +7766,9 @@
       <c r="J459" s="13"/>
       <c r="K459" s="14"/>
       <c r="L459" s="14"/>
-    </row>
-    <row r="460" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M459" s="14"/>
+    </row>
+    <row r="460" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="5"/>
       <c r="C460" s="6"/>
@@ -7313,8 +7781,9 @@
       <c r="J460" s="13"/>
       <c r="K460" s="14"/>
       <c r="L460" s="14"/>
-    </row>
-    <row r="461" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M460" s="14"/>
+    </row>
+    <row r="461" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="5"/>
       <c r="C461" s="6"/>
@@ -7327,8 +7796,9 @@
       <c r="J461" s="13"/>
       <c r="K461" s="14"/>
       <c r="L461" s="14"/>
-    </row>
-    <row r="462" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M461" s="14"/>
+    </row>
+    <row r="462" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="5"/>
       <c r="C462" s="6"/>
@@ -7341,8 +7811,9 @@
       <c r="J462" s="13"/>
       <c r="K462" s="14"/>
       <c r="L462" s="14"/>
-    </row>
-    <row r="463" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M462" s="14"/>
+    </row>
+    <row r="463" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="5"/>
       <c r="C463" s="6"/>
@@ -7355,8 +7826,9 @@
       <c r="J463" s="13"/>
       <c r="K463" s="14"/>
       <c r="L463" s="14"/>
-    </row>
-    <row r="464" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M463" s="14"/>
+    </row>
+    <row r="464" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="5"/>
       <c r="C464" s="6"/>
@@ -7369,8 +7841,9 @@
       <c r="J464" s="13"/>
       <c r="K464" s="14"/>
       <c r="L464" s="14"/>
-    </row>
-    <row r="465" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M464" s="14"/>
+    </row>
+    <row r="465" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="5"/>
       <c r="C465" s="6"/>
@@ -7383,8 +7856,9 @@
       <c r="J465" s="13"/>
       <c r="K465" s="14"/>
       <c r="L465" s="14"/>
-    </row>
-    <row r="466" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M465" s="14"/>
+    </row>
+    <row r="466" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="5"/>
       <c r="C466" s="6"/>
@@ -7397,8 +7871,9 @@
       <c r="J466" s="13"/>
       <c r="K466" s="14"/>
       <c r="L466" s="14"/>
-    </row>
-    <row r="467" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M466" s="14"/>
+    </row>
+    <row r="467" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="5"/>
       <c r="C467" s="6"/>
@@ -7411,8 +7886,9 @@
       <c r="J467" s="13"/>
       <c r="K467" s="14"/>
       <c r="L467" s="14"/>
-    </row>
-    <row r="468" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M467" s="14"/>
+    </row>
+    <row r="468" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="5"/>
       <c r="C468" s="6"/>
@@ -7425,8 +7901,9 @@
       <c r="J468" s="13"/>
       <c r="K468" s="14"/>
       <c r="L468" s="14"/>
-    </row>
-    <row r="469" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M468" s="14"/>
+    </row>
+    <row r="469" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="5"/>
       <c r="C469" s="6"/>
@@ -7439,8 +7916,9 @@
       <c r="J469" s="13"/>
       <c r="K469" s="14"/>
       <c r="L469" s="14"/>
-    </row>
-    <row r="470" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M469" s="14"/>
+    </row>
+    <row r="470" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="5"/>
       <c r="C470" s="6"/>
@@ -7453,8 +7931,9 @@
       <c r="J470" s="13"/>
       <c r="K470" s="14"/>
       <c r="L470" s="14"/>
-    </row>
-    <row r="471" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M470" s="14"/>
+    </row>
+    <row r="471" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="5"/>
       <c r="C471" s="6"/>
@@ -7467,8 +7946,9 @@
       <c r="J471" s="13"/>
       <c r="K471" s="14"/>
       <c r="L471" s="14"/>
-    </row>
-    <row r="472" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M471" s="14"/>
+    </row>
+    <row r="472" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="5"/>
       <c r="C472" s="6"/>
@@ -7481,8 +7961,9 @@
       <c r="J472" s="13"/>
       <c r="K472" s="14"/>
       <c r="L472" s="14"/>
-    </row>
-    <row r="473" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M472" s="14"/>
+    </row>
+    <row r="473" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="5"/>
       <c r="C473" s="6"/>
@@ -7495,8 +7976,9 @@
       <c r="J473" s="13"/>
       <c r="K473" s="14"/>
       <c r="L473" s="14"/>
-    </row>
-    <row r="474" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M473" s="14"/>
+    </row>
+    <row r="474" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="5"/>
       <c r="C474" s="6"/>
@@ -7509,8 +7991,9 @@
       <c r="J474" s="13"/>
       <c r="K474" s="14"/>
       <c r="L474" s="14"/>
-    </row>
-    <row r="475" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M474" s="14"/>
+    </row>
+    <row r="475" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="5"/>
       <c r="C475" s="6"/>
@@ -7523,8 +8006,9 @@
       <c r="J475" s="13"/>
       <c r="K475" s="14"/>
       <c r="L475" s="14"/>
-    </row>
-    <row r="476" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M475" s="14"/>
+    </row>
+    <row r="476" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="5"/>
       <c r="C476" s="6"/>
@@ -7537,8 +8021,9 @@
       <c r="J476" s="13"/>
       <c r="K476" s="14"/>
       <c r="L476" s="14"/>
-    </row>
-    <row r="477" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M476" s="14"/>
+    </row>
+    <row r="477" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="5"/>
       <c r="C477" s="6"/>
@@ -7551,8 +8036,9 @@
       <c r="J477" s="13"/>
       <c r="K477" s="14"/>
       <c r="L477" s="14"/>
-    </row>
-    <row r="478" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M477" s="14"/>
+    </row>
+    <row r="478" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="5"/>
       <c r="C478" s="6"/>
@@ -7565,8 +8051,9 @@
       <c r="J478" s="13"/>
       <c r="K478" s="14"/>
       <c r="L478" s="14"/>
-    </row>
-    <row r="479" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M478" s="14"/>
+    </row>
+    <row r="479" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="5"/>
       <c r="C479" s="6"/>
@@ -7579,8 +8066,9 @@
       <c r="J479" s="13"/>
       <c r="K479" s="14"/>
       <c r="L479" s="14"/>
-    </row>
-    <row r="480" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M479" s="14"/>
+    </row>
+    <row r="480" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="5"/>
       <c r="C480" s="6"/>
@@ -7593,8 +8081,9 @@
       <c r="J480" s="13"/>
       <c r="K480" s="14"/>
       <c r="L480" s="14"/>
-    </row>
-    <row r="481" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M480" s="14"/>
+    </row>
+    <row r="481" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="5"/>
       <c r="C481" s="6"/>
@@ -7607,8 +8096,9 @@
       <c r="J481" s="13"/>
       <c r="K481" s="14"/>
       <c r="L481" s="14"/>
-    </row>
-    <row r="482" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M481" s="14"/>
+    </row>
+    <row r="482" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="5"/>
       <c r="C482" s="6"/>
@@ -7621,8 +8111,9 @@
       <c r="J482" s="13"/>
       <c r="K482" s="14"/>
       <c r="L482" s="14"/>
-    </row>
-    <row r="483" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M482" s="14"/>
+    </row>
+    <row r="483" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="5"/>
       <c r="C483" s="6"/>
@@ -7635,8 +8126,9 @@
       <c r="J483" s="13"/>
       <c r="K483" s="14"/>
       <c r="L483" s="14"/>
-    </row>
-    <row r="484" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M483" s="14"/>
+    </row>
+    <row r="484" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="5"/>
       <c r="C484" s="6"/>
@@ -7649,8 +8141,9 @@
       <c r="J484" s="13"/>
       <c r="K484" s="14"/>
       <c r="L484" s="14"/>
-    </row>
-    <row r="485" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M484" s="14"/>
+    </row>
+    <row r="485" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="5"/>
       <c r="C485" s="6"/>
@@ -7663,8 +8156,9 @@
       <c r="J485" s="13"/>
       <c r="K485" s="14"/>
       <c r="L485" s="14"/>
-    </row>
-    <row r="486" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M485" s="14"/>
+    </row>
+    <row r="486" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="5"/>
       <c r="C486" s="6"/>
@@ -7677,8 +8171,9 @@
       <c r="J486" s="13"/>
       <c r="K486" s="14"/>
       <c r="L486" s="14"/>
-    </row>
-    <row r="487" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M486" s="14"/>
+    </row>
+    <row r="487" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="5"/>
       <c r="C487" s="6"/>
@@ -7691,8 +8186,9 @@
       <c r="J487" s="13"/>
       <c r="K487" s="14"/>
       <c r="L487" s="14"/>
-    </row>
-    <row r="488" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M487" s="14"/>
+    </row>
+    <row r="488" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="5"/>
       <c r="C488" s="6"/>
@@ -7705,8 +8201,9 @@
       <c r="J488" s="13"/>
       <c r="K488" s="14"/>
       <c r="L488" s="14"/>
-    </row>
-    <row r="489" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M488" s="14"/>
+    </row>
+    <row r="489" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="5"/>
       <c r="C489" s="6"/>
@@ -7719,8 +8216,9 @@
       <c r="J489" s="13"/>
       <c r="K489" s="14"/>
       <c r="L489" s="14"/>
-    </row>
-    <row r="490" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M489" s="14"/>
+    </row>
+    <row r="490" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="5"/>
       <c r="C490" s="6"/>
@@ -7733,8 +8231,9 @@
       <c r="J490" s="13"/>
       <c r="K490" s="14"/>
       <c r="L490" s="14"/>
-    </row>
-    <row r="491" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M490" s="14"/>
+    </row>
+    <row r="491" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="5"/>
       <c r="C491" s="6"/>
@@ -7747,8 +8246,9 @@
       <c r="J491" s="13"/>
       <c r="K491" s="14"/>
       <c r="L491" s="14"/>
-    </row>
-    <row r="492" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M491" s="14"/>
+    </row>
+    <row r="492" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="5"/>
       <c r="C492" s="6"/>
@@ -7761,8 +8261,9 @@
       <c r="J492" s="13"/>
       <c r="K492" s="14"/>
       <c r="L492" s="14"/>
-    </row>
-    <row r="493" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M492" s="14"/>
+    </row>
+    <row r="493" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="5"/>
       <c r="C493" s="6"/>
@@ -7775,8 +8276,9 @@
       <c r="J493" s="13"/>
       <c r="K493" s="14"/>
       <c r="L493" s="14"/>
-    </row>
-    <row r="494" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M493" s="14"/>
+    </row>
+    <row r="494" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="5"/>
       <c r="C494" s="6"/>
@@ -7789,8 +8291,9 @@
       <c r="J494" s="13"/>
       <c r="K494" s="14"/>
       <c r="L494" s="14"/>
-    </row>
-    <row r="495" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M494" s="14"/>
+    </row>
+    <row r="495" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="5"/>
       <c r="C495" s="6"/>
@@ -7803,8 +8306,9 @@
       <c r="J495" s="13"/>
       <c r="K495" s="14"/>
       <c r="L495" s="14"/>
-    </row>
-    <row r="496" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M495" s="14"/>
+    </row>
+    <row r="496" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="5"/>
       <c r="C496" s="6"/>
@@ -7817,8 +8321,9 @@
       <c r="J496" s="13"/>
       <c r="K496" s="14"/>
       <c r="L496" s="14"/>
-    </row>
-    <row r="497" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M496" s="14"/>
+    </row>
+    <row r="497" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="5"/>
       <c r="C497" s="6"/>
@@ -7831,8 +8336,9 @@
       <c r="J497" s="13"/>
       <c r="K497" s="14"/>
       <c r="L497" s="14"/>
-    </row>
-    <row r="498" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M497" s="14"/>
+    </row>
+    <row r="498" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="5"/>
       <c r="C498" s="6"/>
@@ -7845,8 +8351,9 @@
       <c r="J498" s="13"/>
       <c r="K498" s="14"/>
       <c r="L498" s="14"/>
-    </row>
-    <row r="499" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M498" s="14"/>
+    </row>
+    <row r="499" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="5"/>
       <c r="C499" s="6"/>
@@ -7859,8 +8366,9 @@
       <c r="J499" s="13"/>
       <c r="K499" s="14"/>
       <c r="L499" s="14"/>
-    </row>
-    <row r="500" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M499" s="14"/>
+    </row>
+    <row r="500" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="5"/>
       <c r="C500" s="6"/>
@@ -7873,8 +8381,9 @@
       <c r="J500" s="13"/>
       <c r="K500" s="14"/>
       <c r="L500" s="14"/>
-    </row>
-    <row r="501" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M500" s="14"/>
+    </row>
+    <row r="501" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="5"/>
       <c r="C501" s="6"/>
@@ -7887,8 +8396,9 @@
       <c r="J501" s="13"/>
       <c r="K501" s="14"/>
       <c r="L501" s="14"/>
-    </row>
-    <row r="502" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M501" s="14"/>
+    </row>
+    <row r="502" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="5"/>
       <c r="C502" s="6"/>
@@ -7901,8 +8411,9 @@
       <c r="J502" s="13"/>
       <c r="K502" s="14"/>
       <c r="L502" s="14"/>
-    </row>
-    <row r="503" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M502" s="14"/>
+    </row>
+    <row r="503" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="5"/>
       <c r="C503" s="6"/>
@@ -7915,8 +8426,9 @@
       <c r="J503" s="13"/>
       <c r="K503" s="14"/>
       <c r="L503" s="14"/>
-    </row>
-    <row r="504" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M503" s="14"/>
+    </row>
+    <row r="504" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="5"/>
       <c r="C504" s="6"/>
@@ -7929,8 +8441,9 @@
       <c r="J504" s="13"/>
       <c r="K504" s="14"/>
       <c r="L504" s="14"/>
-    </row>
-    <row r="505" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M504" s="14"/>
+    </row>
+    <row r="505" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="5"/>
       <c r="C505" s="6"/>
@@ -7943,8 +8456,9 @@
       <c r="J505" s="13"/>
       <c r="K505" s="14"/>
       <c r="L505" s="14"/>
-    </row>
-    <row r="506" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M505" s="14"/>
+    </row>
+    <row r="506" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="5"/>
       <c r="C506" s="6"/>
@@ -7957,8 +8471,9 @@
       <c r="J506" s="13"/>
       <c r="K506" s="14"/>
       <c r="L506" s="14"/>
-    </row>
-    <row r="507" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M506" s="14"/>
+    </row>
+    <row r="507" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="5"/>
       <c r="C507" s="6"/>
@@ -7971,8 +8486,9 @@
       <c r="J507" s="13"/>
       <c r="K507" s="14"/>
       <c r="L507" s="14"/>
-    </row>
-    <row r="508" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M507" s="14"/>
+    </row>
+    <row r="508" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="5"/>
       <c r="C508" s="6"/>
@@ -7985,8 +8501,9 @@
       <c r="J508" s="13"/>
       <c r="K508" s="14"/>
       <c r="L508" s="14"/>
-    </row>
-    <row r="509" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M508" s="14"/>
+    </row>
+    <row r="509" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="5"/>
       <c r="C509" s="6"/>
@@ -7999,8 +8516,9 @@
       <c r="J509" s="13"/>
       <c r="K509" s="14"/>
       <c r="L509" s="14"/>
-    </row>
-    <row r="510" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M509" s="14"/>
+    </row>
+    <row r="510" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="5"/>
       <c r="C510" s="6"/>
@@ -8013,8 +8531,9 @@
       <c r="J510" s="13"/>
       <c r="K510" s="14"/>
       <c r="L510" s="14"/>
-    </row>
-    <row r="511" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M510" s="14"/>
+    </row>
+    <row r="511" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" s="9"/>
       <c r="B511" s="10"/>
       <c r="C511" s="11"/>
@@ -8027,153 +8546,153 @@
       <c r="J511" s="13"/>
       <c r="K511" s="14"/>
       <c r="L511" s="14"/>
-    </row>
-    <row r="512" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="31" t="s">
-        <v>15</v>
+      <c r="M511" s="14"/>
+    </row>
+    <row r="512" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="18" t="s">
+        <v>17</v>
       </c>
-      <c r="B512" s="31"/>
-      <c r="C512" s="31"/>
-      <c r="D512" s="31"/>
-      <c r="E512" s="31"/>
-      <c r="F512" s="31"/>
-      <c r="G512" s="31"/>
+      <c r="B512" s="18"/>
+      <c r="C512" s="18"/>
+      <c r="D512" s="18"/>
+      <c r="E512" s="18"/>
+      <c r="F512" s="18"/>
+      <c r="G512" s="18"/>
       <c r="H512" s="12"/>
       <c r="I512" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J512" s="12"/>
       <c r="K512" s="17"/>
-      <c r="L512" s="16"/>
-    </row>
-    <row r="513" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="31" t="s">
-        <v>16</v>
+      <c r="L512" s="17"/>
+      <c r="M512" s="16"/>
+    </row>
+    <row r="513" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="18" t="s">
+        <v>18</v>
       </c>
-      <c r="B513" s="31"/>
-      <c r="C513" s="31"/>
-      <c r="D513" s="31"/>
-      <c r="E513" s="31"/>
-      <c r="F513" s="31"/>
-      <c r="G513" s="31"/>
+      <c r="B513" s="18"/>
+      <c r="C513" s="18"/>
+      <c r="D513" s="18"/>
+      <c r="E513" s="18"/>
+      <c r="F513" s="18"/>
+      <c r="G513" s="18"/>
       <c r="H513" s="12"/>
       <c r="I513" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J513" s="12"/>
       <c r="K513" s="17"/>
-      <c r="L513" s="16"/>
-    </row>
-    <row r="514" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="31" t="s">
-        <v>17</v>
+      <c r="L513" s="17"/>
+      <c r="M513" s="16"/>
+    </row>
+    <row r="514" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="18" t="s">
+        <v>19</v>
       </c>
-      <c r="B514" s="31"/>
-      <c r="C514" s="31"/>
-      <c r="D514" s="31"/>
-      <c r="E514" s="31"/>
-      <c r="F514" s="31"/>
-      <c r="G514" s="31"/>
+      <c r="B514" s="18"/>
+      <c r="C514" s="18"/>
+      <c r="D514" s="18"/>
+      <c r="E514" s="18"/>
+      <c r="F514" s="18"/>
+      <c r="G514" s="18"/>
       <c r="H514" s="12"/>
       <c r="I514" s="12"/>
       <c r="J514" s="12"/>
       <c r="K514" s="17"/>
-      <c r="L514" s="16"/>
-    </row>
-    <row r="515" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="31" t="s">
-        <v>18</v>
+      <c r="L514" s="17"/>
+      <c r="M514" s="16"/>
+    </row>
+    <row r="515" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="18" t="s">
+        <v>20</v>
       </c>
-      <c r="B515" s="31"/>
-      <c r="C515" s="31"/>
-      <c r="D515" s="31"/>
-      <c r="E515" s="31"/>
-      <c r="F515" s="31"/>
-      <c r="G515" s="31"/>
+      <c r="B515" s="18"/>
+      <c r="C515" s="18"/>
+      <c r="D515" s="18"/>
+      <c r="E515" s="18"/>
+      <c r="F515" s="18"/>
+      <c r="G515" s="18"/>
       <c r="H515" s="12"/>
-      <c r="I515" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="I515" s="12"/>
       <c r="J515" s="12"/>
       <c r="K515" s="17"/>
-      <c r="L515" s="16"/>
-    </row>
-    <row r="516" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="31" t="s">
-        <v>19</v>
+      <c r="L515" s="17"/>
+      <c r="M515" s="16"/>
+    </row>
+    <row r="516" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="18" t="s">
+        <v>23</v>
       </c>
-      <c r="B516" s="31"/>
-      <c r="C516" s="31"/>
-      <c r="D516" s="31"/>
-      <c r="E516" s="31"/>
-      <c r="F516" s="31"/>
-      <c r="G516" s="31"/>
+      <c r="B516" s="18"/>
+      <c r="C516" s="18"/>
+      <c r="D516" s="18"/>
+      <c r="E516" s="18"/>
+      <c r="F516" s="18"/>
+      <c r="G516" s="18"/>
       <c r="H516" s="12"/>
       <c r="I516" s="12"/>
       <c r="J516" s="12"/>
       <c r="K516" s="17"/>
-      <c r="L516" s="16"/>
-    </row>
-    <row r="517" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="31" t="s">
-        <v>20</v>
+      <c r="L516" s="17"/>
+      <c r="M516" s="16"/>
+    </row>
+    <row r="517" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="18" t="s">
+        <v>21</v>
       </c>
-      <c r="B517" s="31"/>
-      <c r="C517" s="31"/>
-      <c r="D517" s="31"/>
-      <c r="E517" s="31"/>
-      <c r="F517" s="31"/>
-      <c r="G517" s="31"/>
+      <c r="B517" s="18"/>
+      <c r="C517" s="18"/>
+      <c r="D517" s="18"/>
+      <c r="E517" s="18"/>
+      <c r="F517" s="18"/>
+      <c r="G517" s="18"/>
       <c r="H517" s="12"/>
       <c r="I517" s="12"/>
       <c r="J517" s="12"/>
       <c r="K517" s="17"/>
-      <c r="L517" s="16"/>
-    </row>
-    <row r="518" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="32"/>
-      <c r="B518" s="33"/>
-      <c r="C518" s="33"/>
-      <c r="D518" s="33"/>
-      <c r="E518" s="33"/>
-      <c r="F518" s="33"/>
-      <c r="G518" s="33"/>
-      <c r="H518" s="33"/>
-      <c r="I518" s="33"/>
-      <c r="J518" s="33"/>
-      <c r="K518" s="33"/>
-      <c r="L518" s="34"/>
+      <c r="L517" s="17"/>
+      <c r="M517" s="16"/>
+    </row>
+    <row r="518" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B518" s="18"/>
+      <c r="C518" s="18"/>
+      <c r="D518" s="18"/>
+      <c r="E518" s="18"/>
+      <c r="F518" s="18"/>
+      <c r="G518" s="18"/>
+      <c r="H518" s="12"/>
+      <c r="I518" s="12"/>
+      <c r="J518" s="12"/>
+      <c r="K518" s="17"/>
+      <c r="L518" s="17"/>
+      <c r="M518" s="16"/>
+    </row>
+    <row r="519" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="19"/>
+      <c r="B519" s="20"/>
+      <c r="C519" s="20"/>
+      <c r="D519" s="20"/>
+      <c r="E519" s="20"/>
+      <c r="F519" s="20"/>
+      <c r="G519" s="20"/>
+      <c r="H519" s="20"/>
+      <c r="I519" s="20"/>
+      <c r="J519" s="20"/>
+      <c r="K519" s="20"/>
+      <c r="L519" s="20"/>
+      <c r="M519" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="43">
+    <mergeCell ref="L10:L11"/>
     <mergeCell ref="A516:G516"/>
-    <mergeCell ref="A517:G517"/>
-    <mergeCell ref="A518:L518"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A512:G512"/>
-    <mergeCell ref="A513:G513"/>
-    <mergeCell ref="A514:G514"/>
-    <mergeCell ref="A515:G515"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="M10:M11"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -8187,6 +8706,31 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A517:G517"/>
+    <mergeCell ref="A518:G518"/>
+    <mergeCell ref="A519:M519"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A512:G512"/>
+    <mergeCell ref="A513:G513"/>
+    <mergeCell ref="A514:G514"/>
+    <mergeCell ref="A515:G515"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/template_baogia.xlsx
+++ b/template_baogia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BANCHUAN\BAOGIANSB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B13AB65-7CB7-4ABC-95BD-501081C4E9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE5AB08-B824-420D-8847-ACCD89598A8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17400" xr2:uid="{1ACCF3B5-8732-43CE-BFEE-861D393691CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1ACCF3B5-8732-43CE-BFEE-861D393691CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -138,7 +138,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -370,7 +370,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -423,47 +423,29 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -476,6 +458,27 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -850,205 +853,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C7507C-0651-46A0-B0E3-516D355C4980}">
   <dimension ref="A1:M519"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L513" sqref="L513"/>
+    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L518" sqref="L518"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="1" customWidth="1"/>
-    <col min="5" max="8" width="9.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="16.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="9.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-    </row>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="1" spans="1:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="29"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1063,7 +1066,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1078,7 +1081,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -1093,7 +1096,7 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1108,7 +1111,7 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -1123,7 +1126,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1138,7 +1141,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1153,7 +1156,7 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -1168,7 +1171,7 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -1183,7 +1186,7 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -1198,7 +1201,7 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -1213,7 +1216,7 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -1228,7 +1231,7 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -1243,7 +1246,7 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
@@ -1258,7 +1261,7 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
@@ -1273,7 +1276,7 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -1288,7 +1291,7 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -1303,7 +1306,7 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -1318,7 +1321,7 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -1333,7 +1336,7 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
@@ -1348,7 +1351,7 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
@@ -1363,7 +1366,7 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -1378,7 +1381,7 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -1393,7 +1396,7 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -1408,7 +1411,7 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -1423,7 +1426,7 @@
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
@@ -1438,7 +1441,7 @@
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
@@ -1453,7 +1456,7 @@
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
@@ -1468,7 +1471,7 @@
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
@@ -1483,7 +1486,7 @@
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
@@ -1498,7 +1501,7 @@
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -1513,7 +1516,7 @@
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
@@ -1528,7 +1531,7 @@
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
@@ -1543,7 +1546,7 @@
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
@@ -1558,7 +1561,7 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
@@ -1573,7 +1576,7 @@
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
@@ -1588,7 +1591,7 @@
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
@@ -1603,7 +1606,7 @@
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
@@ -1618,7 +1621,7 @@
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
@@ -1633,7 +1636,7 @@
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
@@ -1648,7 +1651,7 @@
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
@@ -1663,7 +1666,7 @@
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
@@ -1678,7 +1681,7 @@
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
@@ -1693,7 +1696,7 @@
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -1708,7 +1711,7 @@
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
@@ -1723,7 +1726,7 @@
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
@@ -1738,7 +1741,7 @@
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
@@ -1753,7 +1756,7 @@
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -1768,7 +1771,7 @@
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -1783,7 +1786,7 @@
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -1798,7 +1801,7 @@
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
@@ -1813,7 +1816,7 @@
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
@@ -1828,7 +1831,7 @@
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -1843,7 +1846,7 @@
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
@@ -1858,7 +1861,7 @@
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -1873,7 +1876,7 @@
       <c r="L66" s="14"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -1888,7 +1891,7 @@
       <c r="L67" s="14"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -1903,7 +1906,7 @@
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
@@ -1918,7 +1921,7 @@
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -1933,7 +1936,7 @@
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -1948,7 +1951,7 @@
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -1963,7 +1966,7 @@
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -1978,7 +1981,7 @@
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -1993,7 +1996,7 @@
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -2008,7 +2011,7 @@
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -2023,7 +2026,7 @@
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -2038,7 +2041,7 @@
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -2053,7 +2056,7 @@
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -2068,7 +2071,7 @@
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -2083,7 +2086,7 @@
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -2098,7 +2101,7 @@
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
@@ -2113,7 +2116,7 @@
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
@@ -2128,7 +2131,7 @@
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
@@ -2143,7 +2146,7 @@
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
@@ -2158,7 +2161,7 @@
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
@@ -2173,7 +2176,7 @@
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
@@ -2188,7 +2191,7 @@
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
@@ -2203,7 +2206,7 @@
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
@@ -2218,7 +2221,7 @@
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
@@ -2233,7 +2236,7 @@
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
     </row>
-    <row r="91" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
@@ -2248,7 +2251,7 @@
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
     </row>
-    <row r="92" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
@@ -2263,7 +2266,7 @@
       <c r="L92" s="14"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
@@ -2278,7 +2281,7 @@
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
@@ -2293,7 +2296,7 @@
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
@@ -2308,7 +2311,7 @@
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
@@ -2323,7 +2326,7 @@
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
     </row>
-    <row r="97" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
@@ -2338,7 +2341,7 @@
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
@@ -2353,7 +2356,7 @@
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
     </row>
-    <row r="99" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
@@ -2368,7 +2371,7 @@
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
     </row>
-    <row r="100" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
@@ -2383,7 +2386,7 @@
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
@@ -2398,7 +2401,7 @@
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
@@ -2413,7 +2416,7 @@
       <c r="L102" s="14"/>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
@@ -2428,7 +2431,7 @@
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
     </row>
-    <row r="104" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
@@ -2443,7 +2446,7 @@
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
@@ -2458,7 +2461,7 @@
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
@@ -2473,7 +2476,7 @@
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
     </row>
-    <row r="107" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
@@ -2488,7 +2491,7 @@
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
     </row>
-    <row r="108" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
@@ -2503,7 +2506,7 @@
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
     </row>
-    <row r="109" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
@@ -2518,7 +2521,7 @@
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
     </row>
-    <row r="110" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
@@ -2533,7 +2536,7 @@
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
     </row>
-    <row r="111" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
@@ -2548,7 +2551,7 @@
       <c r="L111" s="14"/>
       <c r="M111" s="14"/>
     </row>
-    <row r="112" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
@@ -2563,7 +2566,7 @@
       <c r="L112" s="14"/>
       <c r="M112" s="14"/>
     </row>
-    <row r="113" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
@@ -2578,7 +2581,7 @@
       <c r="L113" s="14"/>
       <c r="M113" s="14"/>
     </row>
-    <row r="114" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
@@ -2593,7 +2596,7 @@
       <c r="L114" s="14"/>
       <c r="M114" s="14"/>
     </row>
-    <row r="115" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
@@ -2608,7 +2611,7 @@
       <c r="L115" s="14"/>
       <c r="M115" s="14"/>
     </row>
-    <row r="116" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
@@ -2623,7 +2626,7 @@
       <c r="L116" s="14"/>
       <c r="M116" s="14"/>
     </row>
-    <row r="117" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
@@ -2638,7 +2641,7 @@
       <c r="L117" s="14"/>
       <c r="M117" s="14"/>
     </row>
-    <row r="118" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
@@ -2653,7 +2656,7 @@
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
     </row>
-    <row r="119" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
@@ -2668,7 +2671,7 @@
       <c r="L119" s="14"/>
       <c r="M119" s="14"/>
     </row>
-    <row r="120" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
@@ -2683,7 +2686,7 @@
       <c r="L120" s="14"/>
       <c r="M120" s="14"/>
     </row>
-    <row r="121" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
@@ -2698,7 +2701,7 @@
       <c r="L121" s="14"/>
       <c r="M121" s="14"/>
     </row>
-    <row r="122" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
@@ -2713,7 +2716,7 @@
       <c r="L122" s="14"/>
       <c r="M122" s="14"/>
     </row>
-    <row r="123" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
@@ -2728,7 +2731,7 @@
       <c r="L123" s="14"/>
       <c r="M123" s="14"/>
     </row>
-    <row r="124" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
@@ -2743,7 +2746,7 @@
       <c r="L124" s="14"/>
       <c r="M124" s="14"/>
     </row>
-    <row r="125" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
@@ -2758,7 +2761,7 @@
       <c r="L125" s="14"/>
       <c r="M125" s="14"/>
     </row>
-    <row r="126" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
@@ -2773,7 +2776,7 @@
       <c r="L126" s="14"/>
       <c r="M126" s="14"/>
     </row>
-    <row r="127" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
@@ -2788,7 +2791,7 @@
       <c r="L127" s="14"/>
       <c r="M127" s="14"/>
     </row>
-    <row r="128" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
@@ -2803,7 +2806,7 @@
       <c r="L128" s="14"/>
       <c r="M128" s="14"/>
     </row>
-    <row r="129" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
@@ -2818,7 +2821,7 @@
       <c r="L129" s="14"/>
       <c r="M129" s="14"/>
     </row>
-    <row r="130" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
@@ -2833,7 +2836,7 @@
       <c r="L130" s="14"/>
       <c r="M130" s="14"/>
     </row>
-    <row r="131" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
@@ -2848,7 +2851,7 @@
       <c r="L131" s="14"/>
       <c r="M131" s="14"/>
     </row>
-    <row r="132" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
@@ -2863,7 +2866,7 @@
       <c r="L132" s="14"/>
       <c r="M132" s="14"/>
     </row>
-    <row r="133" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
@@ -2878,7 +2881,7 @@
       <c r="L133" s="14"/>
       <c r="M133" s="14"/>
     </row>
-    <row r="134" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
@@ -2893,7 +2896,7 @@
       <c r="L134" s="14"/>
       <c r="M134" s="14"/>
     </row>
-    <row r="135" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
@@ -2908,7 +2911,7 @@
       <c r="L135" s="14"/>
       <c r="M135" s="14"/>
     </row>
-    <row r="136" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
@@ -2923,7 +2926,7 @@
       <c r="L136" s="14"/>
       <c r="M136" s="14"/>
     </row>
-    <row r="137" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
@@ -2938,7 +2941,7 @@
       <c r="L137" s="14"/>
       <c r="M137" s="14"/>
     </row>
-    <row r="138" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
@@ -2953,7 +2956,7 @@
       <c r="L138" s="14"/>
       <c r="M138" s="14"/>
     </row>
-    <row r="139" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
@@ -2968,7 +2971,7 @@
       <c r="L139" s="14"/>
       <c r="M139" s="14"/>
     </row>
-    <row r="140" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
@@ -2983,7 +2986,7 @@
       <c r="L140" s="14"/>
       <c r="M140" s="14"/>
     </row>
-    <row r="141" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
@@ -2998,7 +3001,7 @@
       <c r="L141" s="14"/>
       <c r="M141" s="14"/>
     </row>
-    <row r="142" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
@@ -3013,7 +3016,7 @@
       <c r="L142" s="14"/>
       <c r="M142" s="14"/>
     </row>
-    <row r="143" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
@@ -3028,7 +3031,7 @@
       <c r="L143" s="14"/>
       <c r="M143" s="14"/>
     </row>
-    <row r="144" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
@@ -3043,7 +3046,7 @@
       <c r="L144" s="14"/>
       <c r="M144" s="14"/>
     </row>
-    <row r="145" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="6"/>
@@ -3058,7 +3061,7 @@
       <c r="L145" s="14"/>
       <c r="M145" s="14"/>
     </row>
-    <row r="146" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="6"/>
@@ -3073,7 +3076,7 @@
       <c r="L146" s="14"/>
       <c r="M146" s="14"/>
     </row>
-    <row r="147" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6"/>
@@ -3088,7 +3091,7 @@
       <c r="L147" s="14"/>
       <c r="M147" s="14"/>
     </row>
-    <row r="148" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="6"/>
@@ -3103,7 +3106,7 @@
       <c r="L148" s="14"/>
       <c r="M148" s="14"/>
     </row>
-    <row r="149" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="6"/>
@@ -3118,7 +3121,7 @@
       <c r="L149" s="14"/>
       <c r="M149" s="14"/>
     </row>
-    <row r="150" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="6"/>
@@ -3133,7 +3136,7 @@
       <c r="L150" s="14"/>
       <c r="M150" s="14"/>
     </row>
-    <row r="151" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6"/>
@@ -3148,7 +3151,7 @@
       <c r="L151" s="14"/>
       <c r="M151" s="14"/>
     </row>
-    <row r="152" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="6"/>
@@ -3163,7 +3166,7 @@
       <c r="L152" s="14"/>
       <c r="M152" s="14"/>
     </row>
-    <row r="153" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6"/>
@@ -3178,7 +3181,7 @@
       <c r="L153" s="14"/>
       <c r="M153" s="14"/>
     </row>
-    <row r="154" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="6"/>
@@ -3193,7 +3196,7 @@
       <c r="L154" s="14"/>
       <c r="M154" s="14"/>
     </row>
-    <row r="155" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="6"/>
@@ -3208,7 +3211,7 @@
       <c r="L155" s="14"/>
       <c r="M155" s="14"/>
     </row>
-    <row r="156" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="6"/>
@@ -3223,7 +3226,7 @@
       <c r="L156" s="14"/>
       <c r="M156" s="14"/>
     </row>
-    <row r="157" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="6"/>
@@ -3238,7 +3241,7 @@
       <c r="L157" s="14"/>
       <c r="M157" s="14"/>
     </row>
-    <row r="158" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6"/>
@@ -3253,7 +3256,7 @@
       <c r="L158" s="14"/>
       <c r="M158" s="14"/>
     </row>
-    <row r="159" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="6"/>
@@ -3268,7 +3271,7 @@
       <c r="L159" s="14"/>
       <c r="M159" s="14"/>
     </row>
-    <row r="160" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
@@ -3283,7 +3286,7 @@
       <c r="L160" s="14"/>
       <c r="M160" s="14"/>
     </row>
-    <row r="161" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6"/>
@@ -3298,7 +3301,7 @@
       <c r="L161" s="14"/>
       <c r="M161" s="14"/>
     </row>
-    <row r="162" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6"/>
@@ -3313,7 +3316,7 @@
       <c r="L162" s="14"/>
       <c r="M162" s="14"/>
     </row>
-    <row r="163" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6"/>
@@ -3328,7 +3331,7 @@
       <c r="L163" s="14"/>
       <c r="M163" s="14"/>
     </row>
-    <row r="164" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
@@ -3343,7 +3346,7 @@
       <c r="L164" s="14"/>
       <c r="M164" s="14"/>
     </row>
-    <row r="165" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6"/>
@@ -3358,7 +3361,7 @@
       <c r="L165" s="14"/>
       <c r="M165" s="14"/>
     </row>
-    <row r="166" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6"/>
@@ -3373,7 +3376,7 @@
       <c r="L166" s="14"/>
       <c r="M166" s="14"/>
     </row>
-    <row r="167" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
@@ -3388,7 +3391,7 @@
       <c r="L167" s="14"/>
       <c r="M167" s="14"/>
     </row>
-    <row r="168" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
@@ -3403,7 +3406,7 @@
       <c r="L168" s="14"/>
       <c r="M168" s="14"/>
     </row>
-    <row r="169" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6"/>
@@ -3418,7 +3421,7 @@
       <c r="L169" s="14"/>
       <c r="M169" s="14"/>
     </row>
-    <row r="170" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
@@ -3433,7 +3436,7 @@
       <c r="L170" s="14"/>
       <c r="M170" s="14"/>
     </row>
-    <row r="171" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
@@ -3448,7 +3451,7 @@
       <c r="L171" s="14"/>
       <c r="M171" s="14"/>
     </row>
-    <row r="172" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
@@ -3463,7 +3466,7 @@
       <c r="L172" s="14"/>
       <c r="M172" s="14"/>
     </row>
-    <row r="173" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
@@ -3478,7 +3481,7 @@
       <c r="L173" s="14"/>
       <c r="M173" s="14"/>
     </row>
-    <row r="174" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6"/>
@@ -3493,7 +3496,7 @@
       <c r="L174" s="14"/>
       <c r="M174" s="14"/>
     </row>
-    <row r="175" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
@@ -3508,7 +3511,7 @@
       <c r="L175" s="14"/>
       <c r="M175" s="14"/>
     </row>
-    <row r="176" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
@@ -3523,7 +3526,7 @@
       <c r="L176" s="14"/>
       <c r="M176" s="14"/>
     </row>
-    <row r="177" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6"/>
@@ -3538,7 +3541,7 @@
       <c r="L177" s="14"/>
       <c r="M177" s="14"/>
     </row>
-    <row r="178" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
@@ -3553,7 +3556,7 @@
       <c r="L178" s="14"/>
       <c r="M178" s="14"/>
     </row>
-    <row r="179" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
@@ -3568,7 +3571,7 @@
       <c r="L179" s="14"/>
       <c r="M179" s="14"/>
     </row>
-    <row r="180" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6"/>
@@ -3583,7 +3586,7 @@
       <c r="L180" s="14"/>
       <c r="M180" s="14"/>
     </row>
-    <row r="181" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
@@ -3598,7 +3601,7 @@
       <c r="L181" s="14"/>
       <c r="M181" s="14"/>
     </row>
-    <row r="182" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
@@ -3613,7 +3616,7 @@
       <c r="L182" s="14"/>
       <c r="M182" s="14"/>
     </row>
-    <row r="183" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
@@ -3628,7 +3631,7 @@
       <c r="L183" s="14"/>
       <c r="M183" s="14"/>
     </row>
-    <row r="184" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
@@ -3643,7 +3646,7 @@
       <c r="L184" s="14"/>
       <c r="M184" s="14"/>
     </row>
-    <row r="185" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
@@ -3658,7 +3661,7 @@
       <c r="L185" s="14"/>
       <c r="M185" s="14"/>
     </row>
-    <row r="186" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
@@ -3673,7 +3676,7 @@
       <c r="L186" s="14"/>
       <c r="M186" s="14"/>
     </row>
-    <row r="187" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
@@ -3688,7 +3691,7 @@
       <c r="L187" s="14"/>
       <c r="M187" s="14"/>
     </row>
-    <row r="188" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
@@ -3703,7 +3706,7 @@
       <c r="L188" s="14"/>
       <c r="M188" s="14"/>
     </row>
-    <row r="189" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
@@ -3718,7 +3721,7 @@
       <c r="L189" s="14"/>
       <c r="M189" s="14"/>
     </row>
-    <row r="190" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -3733,7 +3736,7 @@
       <c r="L190" s="14"/>
       <c r="M190" s="14"/>
     </row>
-    <row r="191" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
@@ -3748,7 +3751,7 @@
       <c r="L191" s="14"/>
       <c r="M191" s="14"/>
     </row>
-    <row r="192" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
@@ -3763,7 +3766,7 @@
       <c r="L192" s="14"/>
       <c r="M192" s="14"/>
     </row>
-    <row r="193" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
@@ -3778,7 +3781,7 @@
       <c r="L193" s="14"/>
       <c r="M193" s="14"/>
     </row>
-    <row r="194" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
@@ -3793,7 +3796,7 @@
       <c r="L194" s="14"/>
       <c r="M194" s="14"/>
     </row>
-    <row r="195" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6"/>
@@ -3808,7 +3811,7 @@
       <c r="L195" s="14"/>
       <c r="M195" s="14"/>
     </row>
-    <row r="196" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6"/>
@@ -3823,7 +3826,7 @@
       <c r="L196" s="14"/>
       <c r="M196" s="14"/>
     </row>
-    <row r="197" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
@@ -3838,7 +3841,7 @@
       <c r="L197" s="14"/>
       <c r="M197" s="14"/>
     </row>
-    <row r="198" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
@@ -3853,7 +3856,7 @@
       <c r="L198" s="14"/>
       <c r="M198" s="14"/>
     </row>
-    <row r="199" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
@@ -3868,7 +3871,7 @@
       <c r="L199" s="14"/>
       <c r="M199" s="14"/>
     </row>
-    <row r="200" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
@@ -3883,7 +3886,7 @@
       <c r="L200" s="14"/>
       <c r="M200" s="14"/>
     </row>
-    <row r="201" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
@@ -3898,7 +3901,7 @@
       <c r="L201" s="14"/>
       <c r="M201" s="14"/>
     </row>
-    <row r="202" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
@@ -3913,7 +3916,7 @@
       <c r="L202" s="14"/>
       <c r="M202" s="14"/>
     </row>
-    <row r="203" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
@@ -3928,7 +3931,7 @@
       <c r="L203" s="14"/>
       <c r="M203" s="14"/>
     </row>
-    <row r="204" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
@@ -3943,7 +3946,7 @@
       <c r="L204" s="14"/>
       <c r="M204" s="14"/>
     </row>
-    <row r="205" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6"/>
@@ -3958,7 +3961,7 @@
       <c r="L205" s="14"/>
       <c r="M205" s="14"/>
     </row>
-    <row r="206" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6"/>
@@ -3973,7 +3976,7 @@
       <c r="L206" s="14"/>
       <c r="M206" s="14"/>
     </row>
-    <row r="207" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="6"/>
@@ -3988,7 +3991,7 @@
       <c r="L207" s="14"/>
       <c r="M207" s="14"/>
     </row>
-    <row r="208" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6"/>
@@ -4003,7 +4006,7 @@
       <c r="L208" s="14"/>
       <c r="M208" s="14"/>
     </row>
-    <row r="209" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6"/>
@@ -4018,7 +4021,7 @@
       <c r="L209" s="14"/>
       <c r="M209" s="14"/>
     </row>
-    <row r="210" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6"/>
@@ -4033,7 +4036,7 @@
       <c r="L210" s="14"/>
       <c r="M210" s="14"/>
     </row>
-    <row r="211" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6"/>
@@ -4048,7 +4051,7 @@
       <c r="L211" s="14"/>
       <c r="M211" s="14"/>
     </row>
-    <row r="212" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6"/>
@@ -4063,7 +4066,7 @@
       <c r="L212" s="14"/>
       <c r="M212" s="14"/>
     </row>
-    <row r="213" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
@@ -4078,7 +4081,7 @@
       <c r="L213" s="14"/>
       <c r="M213" s="14"/>
     </row>
-    <row r="214" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6"/>
@@ -4093,7 +4096,7 @@
       <c r="L214" s="14"/>
       <c r="M214" s="14"/>
     </row>
-    <row r="215" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
@@ -4108,7 +4111,7 @@
       <c r="L215" s="14"/>
       <c r="M215" s="14"/>
     </row>
-    <row r="216" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6"/>
@@ -4123,7 +4126,7 @@
       <c r="L216" s="14"/>
       <c r="M216" s="14"/>
     </row>
-    <row r="217" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
@@ -4138,7 +4141,7 @@
       <c r="L217" s="14"/>
       <c r="M217" s="14"/>
     </row>
-    <row r="218" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="6"/>
@@ -4153,7 +4156,7 @@
       <c r="L218" s="14"/>
       <c r="M218" s="14"/>
     </row>
-    <row r="219" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="6"/>
@@ -4168,7 +4171,7 @@
       <c r="L219" s="14"/>
       <c r="M219" s="14"/>
     </row>
-    <row r="220" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="6"/>
@@ -4183,7 +4186,7 @@
       <c r="L220" s="14"/>
       <c r="M220" s="14"/>
     </row>
-    <row r="221" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="6"/>
@@ -4198,7 +4201,7 @@
       <c r="L221" s="14"/>
       <c r="M221" s="14"/>
     </row>
-    <row r="222" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
@@ -4213,7 +4216,7 @@
       <c r="L222" s="14"/>
       <c r="M222" s="14"/>
     </row>
-    <row r="223" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="6"/>
@@ -4228,7 +4231,7 @@
       <c r="L223" s="14"/>
       <c r="M223" s="14"/>
     </row>
-    <row r="224" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
@@ -4243,7 +4246,7 @@
       <c r="L224" s="14"/>
       <c r="M224" s="14"/>
     </row>
-    <row r="225" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
@@ -4258,7 +4261,7 @@
       <c r="L225" s="14"/>
       <c r="M225" s="14"/>
     </row>
-    <row r="226" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="6"/>
@@ -4273,7 +4276,7 @@
       <c r="L226" s="14"/>
       <c r="M226" s="14"/>
     </row>
-    <row r="227" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
@@ -4288,7 +4291,7 @@
       <c r="L227" s="14"/>
       <c r="M227" s="14"/>
     </row>
-    <row r="228" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="6"/>
@@ -4303,7 +4306,7 @@
       <c r="L228" s="14"/>
       <c r="M228" s="14"/>
     </row>
-    <row r="229" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="6"/>
@@ -4318,7 +4321,7 @@
       <c r="L229" s="14"/>
       <c r="M229" s="14"/>
     </row>
-    <row r="230" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="6"/>
@@ -4333,7 +4336,7 @@
       <c r="L230" s="14"/>
       <c r="M230" s="14"/>
     </row>
-    <row r="231" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="6"/>
@@ -4348,7 +4351,7 @@
       <c r="L231" s="14"/>
       <c r="M231" s="14"/>
     </row>
-    <row r="232" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="6"/>
@@ -4363,7 +4366,7 @@
       <c r="L232" s="14"/>
       <c r="M232" s="14"/>
     </row>
-    <row r="233" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
       <c r="C233" s="6"/>
@@ -4378,7 +4381,7 @@
       <c r="L233" s="14"/>
       <c r="M233" s="14"/>
     </row>
-    <row r="234" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
       <c r="C234" s="6"/>
@@ -4393,7 +4396,7 @@
       <c r="L234" s="14"/>
       <c r="M234" s="14"/>
     </row>
-    <row r="235" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
       <c r="C235" s="6"/>
@@ -4408,7 +4411,7 @@
       <c r="L235" s="14"/>
       <c r="M235" s="14"/>
     </row>
-    <row r="236" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="6"/>
@@ -4423,7 +4426,7 @@
       <c r="L236" s="14"/>
       <c r="M236" s="14"/>
     </row>
-    <row r="237" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
@@ -4438,7 +4441,7 @@
       <c r="L237" s="14"/>
       <c r="M237" s="14"/>
     </row>
-    <row r="238" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="6"/>
@@ -4453,7 +4456,7 @@
       <c r="L238" s="14"/>
       <c r="M238" s="14"/>
     </row>
-    <row r="239" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="6"/>
@@ -4468,7 +4471,7 @@
       <c r="L239" s="14"/>
       <c r="M239" s="14"/>
     </row>
-    <row r="240" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
@@ -4483,7 +4486,7 @@
       <c r="L240" s="14"/>
       <c r="M240" s="14"/>
     </row>
-    <row r="241" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
       <c r="C241" s="6"/>
@@ -4498,7 +4501,7 @@
       <c r="L241" s="14"/>
       <c r="M241" s="14"/>
     </row>
-    <row r="242" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="6"/>
@@ -4513,7 +4516,7 @@
       <c r="L242" s="14"/>
       <c r="M242" s="14"/>
     </row>
-    <row r="243" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
       <c r="C243" s="6"/>
@@ -4528,7 +4531,7 @@
       <c r="L243" s="14"/>
       <c r="M243" s="14"/>
     </row>
-    <row r="244" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
@@ -4543,7 +4546,7 @@
       <c r="L244" s="14"/>
       <c r="M244" s="14"/>
     </row>
-    <row r="245" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
@@ -4558,7 +4561,7 @@
       <c r="L245" s="14"/>
       <c r="M245" s="14"/>
     </row>
-    <row r="246" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="6"/>
@@ -4573,7 +4576,7 @@
       <c r="L246" s="14"/>
       <c r="M246" s="14"/>
     </row>
-    <row r="247" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="5"/>
       <c r="C247" s="6"/>
@@ -4588,7 +4591,7 @@
       <c r="L247" s="14"/>
       <c r="M247" s="14"/>
     </row>
-    <row r="248" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="6"/>
@@ -4603,7 +4606,7 @@
       <c r="L248" s="14"/>
       <c r="M248" s="14"/>
     </row>
-    <row r="249" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
@@ -4618,7 +4621,7 @@
       <c r="L249" s="14"/>
       <c r="M249" s="14"/>
     </row>
-    <row r="250" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="6"/>
@@ -4633,7 +4636,7 @@
       <c r="L250" s="14"/>
       <c r="M250" s="14"/>
     </row>
-    <row r="251" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
       <c r="C251" s="6"/>
@@ -4648,7 +4651,7 @@
       <c r="L251" s="14"/>
       <c r="M251" s="14"/>
     </row>
-    <row r="252" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="5"/>
       <c r="C252" s="6"/>
@@ -4663,7 +4666,7 @@
       <c r="L252" s="14"/>
       <c r="M252" s="14"/>
     </row>
-    <row r="253" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="5"/>
       <c r="C253" s="6"/>
@@ -4678,7 +4681,7 @@
       <c r="L253" s="14"/>
       <c r="M253" s="14"/>
     </row>
-    <row r="254" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="5"/>
       <c r="C254" s="6"/>
@@ -4693,7 +4696,7 @@
       <c r="L254" s="14"/>
       <c r="M254" s="14"/>
     </row>
-    <row r="255" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="5"/>
       <c r="C255" s="6"/>
@@ -4708,7 +4711,7 @@
       <c r="L255" s="14"/>
       <c r="M255" s="14"/>
     </row>
-    <row r="256" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
       <c r="C256" s="6"/>
@@ -4723,7 +4726,7 @@
       <c r="L256" s="14"/>
       <c r="M256" s="14"/>
     </row>
-    <row r="257" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="5"/>
       <c r="C257" s="6"/>
@@ -4738,7 +4741,7 @@
       <c r="L257" s="14"/>
       <c r="M257" s="14"/>
     </row>
-    <row r="258" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="5"/>
       <c r="C258" s="6"/>
@@ -4753,7 +4756,7 @@
       <c r="L258" s="14"/>
       <c r="M258" s="14"/>
     </row>
-    <row r="259" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="5"/>
       <c r="C259" s="6"/>
@@ -4768,7 +4771,7 @@
       <c r="L259" s="14"/>
       <c r="M259" s="14"/>
     </row>
-    <row r="260" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="5"/>
       <c r="C260" s="6"/>
@@ -4783,7 +4786,7 @@
       <c r="L260" s="14"/>
       <c r="M260" s="14"/>
     </row>
-    <row r="261" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="6"/>
@@ -4798,7 +4801,7 @@
       <c r="L261" s="14"/>
       <c r="M261" s="14"/>
     </row>
-    <row r="262" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
       <c r="C262" s="6"/>
@@ -4813,7 +4816,7 @@
       <c r="L262" s="14"/>
       <c r="M262" s="14"/>
     </row>
-    <row r="263" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="5"/>
       <c r="C263" s="6"/>
@@ -4828,7 +4831,7 @@
       <c r="L263" s="14"/>
       <c r="M263" s="14"/>
     </row>
-    <row r="264" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
       <c r="C264" s="6"/>
@@ -4843,7 +4846,7 @@
       <c r="L264" s="14"/>
       <c r="M264" s="14"/>
     </row>
-    <row r="265" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="6"/>
@@ -4858,7 +4861,7 @@
       <c r="L265" s="14"/>
       <c r="M265" s="14"/>
     </row>
-    <row r="266" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
@@ -4873,7 +4876,7 @@
       <c r="L266" s="14"/>
       <c r="M266" s="14"/>
     </row>
-    <row r="267" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
       <c r="C267" s="6"/>
@@ -4888,7 +4891,7 @@
       <c r="L267" s="14"/>
       <c r="M267" s="14"/>
     </row>
-    <row r="268" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="6"/>
@@ -4903,7 +4906,7 @@
       <c r="L268" s="14"/>
       <c r="M268" s="14"/>
     </row>
-    <row r="269" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="6"/>
@@ -4918,7 +4921,7 @@
       <c r="L269" s="14"/>
       <c r="M269" s="14"/>
     </row>
-    <row r="270" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="6"/>
@@ -4933,7 +4936,7 @@
       <c r="L270" s="14"/>
       <c r="M270" s="14"/>
     </row>
-    <row r="271" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="6"/>
@@ -4948,7 +4951,7 @@
       <c r="L271" s="14"/>
       <c r="M271" s="14"/>
     </row>
-    <row r="272" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="6"/>
@@ -4963,7 +4966,7 @@
       <c r="L272" s="14"/>
       <c r="M272" s="14"/>
     </row>
-    <row r="273" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
@@ -4978,7 +4981,7 @@
       <c r="L273" s="14"/>
       <c r="M273" s="14"/>
     </row>
-    <row r="274" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
@@ -4993,7 +4996,7 @@
       <c r="L274" s="14"/>
       <c r="M274" s="14"/>
     </row>
-    <row r="275" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
@@ -5008,7 +5011,7 @@
       <c r="L275" s="14"/>
       <c r="M275" s="14"/>
     </row>
-    <row r="276" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="6"/>
@@ -5023,7 +5026,7 @@
       <c r="L276" s="14"/>
       <c r="M276" s="14"/>
     </row>
-    <row r="277" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
@@ -5038,7 +5041,7 @@
       <c r="L277" s="14"/>
       <c r="M277" s="14"/>
     </row>
-    <row r="278" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="6"/>
@@ -5053,7 +5056,7 @@
       <c r="L278" s="14"/>
       <c r="M278" s="14"/>
     </row>
-    <row r="279" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="6"/>
@@ -5068,7 +5071,7 @@
       <c r="L279" s="14"/>
       <c r="M279" s="14"/>
     </row>
-    <row r="280" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="6"/>
@@ -5083,7 +5086,7 @@
       <c r="L280" s="14"/>
       <c r="M280" s="14"/>
     </row>
-    <row r="281" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
@@ -5098,7 +5101,7 @@
       <c r="L281" s="14"/>
       <c r="M281" s="14"/>
     </row>
-    <row r="282" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="6"/>
@@ -5113,7 +5116,7 @@
       <c r="L282" s="14"/>
       <c r="M282" s="14"/>
     </row>
-    <row r="283" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="6"/>
@@ -5128,7 +5131,7 @@
       <c r="L283" s="14"/>
       <c r="M283" s="14"/>
     </row>
-    <row r="284" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="6"/>
@@ -5143,7 +5146,7 @@
       <c r="L284" s="14"/>
       <c r="M284" s="14"/>
     </row>
-    <row r="285" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="6"/>
@@ -5158,7 +5161,7 @@
       <c r="L285" s="14"/>
       <c r="M285" s="14"/>
     </row>
-    <row r="286" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="6"/>
@@ -5173,7 +5176,7 @@
       <c r="L286" s="14"/>
       <c r="M286" s="14"/>
     </row>
-    <row r="287" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="6"/>
@@ -5188,7 +5191,7 @@
       <c r="L287" s="14"/>
       <c r="M287" s="14"/>
     </row>
-    <row r="288" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="6"/>
@@ -5203,7 +5206,7 @@
       <c r="L288" s="14"/>
       <c r="M288" s="14"/>
     </row>
-    <row r="289" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="6"/>
@@ -5218,7 +5221,7 @@
       <c r="L289" s="14"/>
       <c r="M289" s="14"/>
     </row>
-    <row r="290" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="6"/>
@@ -5233,7 +5236,7 @@
       <c r="L290" s="14"/>
       <c r="M290" s="14"/>
     </row>
-    <row r="291" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="6"/>
@@ -5248,7 +5251,7 @@
       <c r="L291" s="14"/>
       <c r="M291" s="14"/>
     </row>
-    <row r="292" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="6"/>
@@ -5263,7 +5266,7 @@
       <c r="L292" s="14"/>
       <c r="M292" s="14"/>
     </row>
-    <row r="293" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="6"/>
@@ -5278,7 +5281,7 @@
       <c r="L293" s="14"/>
       <c r="M293" s="14"/>
     </row>
-    <row r="294" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="6"/>
@@ -5293,7 +5296,7 @@
       <c r="L294" s="14"/>
       <c r="M294" s="14"/>
     </row>
-    <row r="295" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="6"/>
@@ -5308,7 +5311,7 @@
       <c r="L295" s="14"/>
       <c r="M295" s="14"/>
     </row>
-    <row r="296" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
@@ -5323,7 +5326,7 @@
       <c r="L296" s="14"/>
       <c r="M296" s="14"/>
     </row>
-    <row r="297" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="6"/>
@@ -5338,7 +5341,7 @@
       <c r="L297" s="14"/>
       <c r="M297" s="14"/>
     </row>
-    <row r="298" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="6"/>
@@ -5353,7 +5356,7 @@
       <c r="L298" s="14"/>
       <c r="M298" s="14"/>
     </row>
-    <row r="299" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="6"/>
@@ -5368,7 +5371,7 @@
       <c r="L299" s="14"/>
       <c r="M299" s="14"/>
     </row>
-    <row r="300" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
@@ -5383,7 +5386,7 @@
       <c r="L300" s="14"/>
       <c r="M300" s="14"/>
     </row>
-    <row r="301" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="6"/>
@@ -5398,7 +5401,7 @@
       <c r="L301" s="14"/>
       <c r="M301" s="14"/>
     </row>
-    <row r="302" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
@@ -5413,7 +5416,7 @@
       <c r="L302" s="14"/>
       <c r="M302" s="14"/>
     </row>
-    <row r="303" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
@@ -5428,7 +5431,7 @@
       <c r="L303" s="14"/>
       <c r="M303" s="14"/>
     </row>
-    <row r="304" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
@@ -5443,7 +5446,7 @@
       <c r="L304" s="14"/>
       <c r="M304" s="14"/>
     </row>
-    <row r="305" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
@@ -5458,7 +5461,7 @@
       <c r="L305" s="14"/>
       <c r="M305" s="14"/>
     </row>
-    <row r="306" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
@@ -5473,7 +5476,7 @@
       <c r="L306" s="14"/>
       <c r="M306" s="14"/>
     </row>
-    <row r="307" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
@@ -5488,7 +5491,7 @@
       <c r="L307" s="14"/>
       <c r="M307" s="14"/>
     </row>
-    <row r="308" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
@@ -5503,7 +5506,7 @@
       <c r="L308" s="14"/>
       <c r="M308" s="14"/>
     </row>
-    <row r="309" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
@@ -5518,7 +5521,7 @@
       <c r="L309" s="14"/>
       <c r="M309" s="14"/>
     </row>
-    <row r="310" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
@@ -5533,7 +5536,7 @@
       <c r="L310" s="14"/>
       <c r="M310" s="14"/>
     </row>
-    <row r="311" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
@@ -5548,7 +5551,7 @@
       <c r="L311" s="14"/>
       <c r="M311" s="14"/>
     </row>
-    <row r="312" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
@@ -5563,7 +5566,7 @@
       <c r="L312" s="14"/>
       <c r="M312" s="14"/>
     </row>
-    <row r="313" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
@@ -5578,7 +5581,7 @@
       <c r="L313" s="14"/>
       <c r="M313" s="14"/>
     </row>
-    <row r="314" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
@@ -5593,7 +5596,7 @@
       <c r="L314" s="14"/>
       <c r="M314" s="14"/>
     </row>
-    <row r="315" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
@@ -5608,7 +5611,7 @@
       <c r="L315" s="14"/>
       <c r="M315" s="14"/>
     </row>
-    <row r="316" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
@@ -5623,7 +5626,7 @@
       <c r="L316" s="14"/>
       <c r="M316" s="14"/>
     </row>
-    <row r="317" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
@@ -5638,7 +5641,7 @@
       <c r="L317" s="14"/>
       <c r="M317" s="14"/>
     </row>
-    <row r="318" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
@@ -5653,7 +5656,7 @@
       <c r="L318" s="14"/>
       <c r="M318" s="14"/>
     </row>
-    <row r="319" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
@@ -5668,7 +5671,7 @@
       <c r="L319" s="14"/>
       <c r="M319" s="14"/>
     </row>
-    <row r="320" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
@@ -5683,7 +5686,7 @@
       <c r="L320" s="14"/>
       <c r="M320" s="14"/>
     </row>
-    <row r="321" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
@@ -5698,7 +5701,7 @@
       <c r="L321" s="14"/>
       <c r="M321" s="14"/>
     </row>
-    <row r="322" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
@@ -5713,7 +5716,7 @@
       <c r="L322" s="14"/>
       <c r="M322" s="14"/>
     </row>
-    <row r="323" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
@@ -5728,7 +5731,7 @@
       <c r="L323" s="14"/>
       <c r="M323" s="14"/>
     </row>
-    <row r="324" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
@@ -5743,7 +5746,7 @@
       <c r="L324" s="14"/>
       <c r="M324" s="14"/>
     </row>
-    <row r="325" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
@@ -5758,7 +5761,7 @@
       <c r="L325" s="14"/>
       <c r="M325" s="14"/>
     </row>
-    <row r="326" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
@@ -5773,7 +5776,7 @@
       <c r="L326" s="14"/>
       <c r="M326" s="14"/>
     </row>
-    <row r="327" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
@@ -5788,7 +5791,7 @@
       <c r="L327" s="14"/>
       <c r="M327" s="14"/>
     </row>
-    <row r="328" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
@@ -5803,7 +5806,7 @@
       <c r="L328" s="14"/>
       <c r="M328" s="14"/>
     </row>
-    <row r="329" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
@@ -5818,7 +5821,7 @@
       <c r="L329" s="14"/>
       <c r="M329" s="14"/>
     </row>
-    <row r="330" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
@@ -5833,7 +5836,7 @@
       <c r="L330" s="14"/>
       <c r="M330" s="14"/>
     </row>
-    <row r="331" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
@@ -5848,7 +5851,7 @@
       <c r="L331" s="14"/>
       <c r="M331" s="14"/>
     </row>
-    <row r="332" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
@@ -5863,7 +5866,7 @@
       <c r="L332" s="14"/>
       <c r="M332" s="14"/>
     </row>
-    <row r="333" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
@@ -5878,7 +5881,7 @@
       <c r="L333" s="14"/>
       <c r="M333" s="14"/>
     </row>
-    <row r="334" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
@@ -5893,7 +5896,7 @@
       <c r="L334" s="14"/>
       <c r="M334" s="14"/>
     </row>
-    <row r="335" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
@@ -5908,7 +5911,7 @@
       <c r="L335" s="14"/>
       <c r="M335" s="14"/>
     </row>
-    <row r="336" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
@@ -5923,7 +5926,7 @@
       <c r="L336" s="14"/>
       <c r="M336" s="14"/>
     </row>
-    <row r="337" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
@@ -5938,7 +5941,7 @@
       <c r="L337" s="14"/>
       <c r="M337" s="14"/>
     </row>
-    <row r="338" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
@@ -5953,7 +5956,7 @@
       <c r="L338" s="14"/>
       <c r="M338" s="14"/>
     </row>
-    <row r="339" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
@@ -5968,7 +5971,7 @@
       <c r="L339" s="14"/>
       <c r="M339" s="14"/>
     </row>
-    <row r="340" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="6"/>
@@ -5983,7 +5986,7 @@
       <c r="L340" s="14"/>
       <c r="M340" s="14"/>
     </row>
-    <row r="341" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
@@ -5998,7 +6001,7 @@
       <c r="L341" s="14"/>
       <c r="M341" s="14"/>
     </row>
-    <row r="342" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
@@ -6013,7 +6016,7 @@
       <c r="L342" s="14"/>
       <c r="M342" s="14"/>
     </row>
-    <row r="343" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
@@ -6028,7 +6031,7 @@
       <c r="L343" s="14"/>
       <c r="M343" s="14"/>
     </row>
-    <row r="344" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="6"/>
@@ -6043,7 +6046,7 @@
       <c r="L344" s="14"/>
       <c r="M344" s="14"/>
     </row>
-    <row r="345" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="6"/>
@@ -6058,7 +6061,7 @@
       <c r="L345" s="14"/>
       <c r="M345" s="14"/>
     </row>
-    <row r="346" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="6"/>
@@ -6073,7 +6076,7 @@
       <c r="L346" s="14"/>
       <c r="M346" s="14"/>
     </row>
-    <row r="347" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
       <c r="C347" s="6"/>
@@ -6088,7 +6091,7 @@
       <c r="L347" s="14"/>
       <c r="M347" s="14"/>
     </row>
-    <row r="348" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="6"/>
@@ -6103,7 +6106,7 @@
       <c r="L348" s="14"/>
       <c r="M348" s="14"/>
     </row>
-    <row r="349" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="6"/>
@@ -6118,7 +6121,7 @@
       <c r="L349" s="14"/>
       <c r="M349" s="14"/>
     </row>
-    <row r="350" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="6"/>
@@ -6133,7 +6136,7 @@
       <c r="L350" s="14"/>
       <c r="M350" s="14"/>
     </row>
-    <row r="351" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="6"/>
@@ -6148,7 +6151,7 @@
       <c r="L351" s="14"/>
       <c r="M351" s="14"/>
     </row>
-    <row r="352" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="6"/>
@@ -6163,7 +6166,7 @@
       <c r="L352" s="14"/>
       <c r="M352" s="14"/>
     </row>
-    <row r="353" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="6"/>
@@ -6178,7 +6181,7 @@
       <c r="L353" s="14"/>
       <c r="M353" s="14"/>
     </row>
-    <row r="354" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
@@ -6193,7 +6196,7 @@
       <c r="L354" s="14"/>
       <c r="M354" s="14"/>
     </row>
-    <row r="355" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="6"/>
@@ -6208,7 +6211,7 @@
       <c r="L355" s="14"/>
       <c r="M355" s="14"/>
     </row>
-    <row r="356" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="6"/>
@@ -6223,7 +6226,7 @@
       <c r="L356" s="14"/>
       <c r="M356" s="14"/>
     </row>
-    <row r="357" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="6"/>
@@ -6238,7 +6241,7 @@
       <c r="L357" s="14"/>
       <c r="M357" s="14"/>
     </row>
-    <row r="358" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
@@ -6253,7 +6256,7 @@
       <c r="L358" s="14"/>
       <c r="M358" s="14"/>
     </row>
-    <row r="359" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="6"/>
@@ -6268,7 +6271,7 @@
       <c r="L359" s="14"/>
       <c r="M359" s="14"/>
     </row>
-    <row r="360" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="6"/>
@@ -6283,7 +6286,7 @@
       <c r="L360" s="14"/>
       <c r="M360" s="14"/>
     </row>
-    <row r="361" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="6"/>
@@ -6298,7 +6301,7 @@
       <c r="L361" s="14"/>
       <c r="M361" s="14"/>
     </row>
-    <row r="362" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="6"/>
@@ -6313,7 +6316,7 @@
       <c r="L362" s="14"/>
       <c r="M362" s="14"/>
     </row>
-    <row r="363" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="6"/>
@@ -6328,7 +6331,7 @@
       <c r="L363" s="14"/>
       <c r="M363" s="14"/>
     </row>
-    <row r="364" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="6"/>
@@ -6343,7 +6346,7 @@
       <c r="L364" s="14"/>
       <c r="M364" s="14"/>
     </row>
-    <row r="365" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="6"/>
@@ -6358,7 +6361,7 @@
       <c r="L365" s="14"/>
       <c r="M365" s="14"/>
     </row>
-    <row r="366" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="6"/>
@@ -6373,7 +6376,7 @@
       <c r="L366" s="14"/>
       <c r="M366" s="14"/>
     </row>
-    <row r="367" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="6"/>
@@ -6388,7 +6391,7 @@
       <c r="L367" s="14"/>
       <c r="M367" s="14"/>
     </row>
-    <row r="368" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="6"/>
@@ -6403,7 +6406,7 @@
       <c r="L368" s="14"/>
       <c r="M368" s="14"/>
     </row>
-    <row r="369" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
       <c r="C369" s="6"/>
@@ -6418,7 +6421,7 @@
       <c r="L369" s="14"/>
       <c r="M369" s="14"/>
     </row>
-    <row r="370" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="6"/>
@@ -6433,7 +6436,7 @@
       <c r="L370" s="14"/>
       <c r="M370" s="14"/>
     </row>
-    <row r="371" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="6"/>
@@ -6448,7 +6451,7 @@
       <c r="L371" s="14"/>
       <c r="M371" s="14"/>
     </row>
-    <row r="372" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="6"/>
@@ -6463,7 +6466,7 @@
       <c r="L372" s="14"/>
       <c r="M372" s="14"/>
     </row>
-    <row r="373" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="6"/>
@@ -6478,7 +6481,7 @@
       <c r="L373" s="14"/>
       <c r="M373" s="14"/>
     </row>
-    <row r="374" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="6"/>
@@ -6493,7 +6496,7 @@
       <c r="L374" s="14"/>
       <c r="M374" s="14"/>
     </row>
-    <row r="375" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
       <c r="C375" s="6"/>
@@ -6508,7 +6511,7 @@
       <c r="L375" s="14"/>
       <c r="M375" s="14"/>
     </row>
-    <row r="376" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="6"/>
@@ -6523,7 +6526,7 @@
       <c r="L376" s="14"/>
       <c r="M376" s="14"/>
     </row>
-    <row r="377" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
       <c r="C377" s="6"/>
@@ -6538,7 +6541,7 @@
       <c r="L377" s="14"/>
       <c r="M377" s="14"/>
     </row>
-    <row r="378" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="6"/>
@@ -6553,7 +6556,7 @@
       <c r="L378" s="14"/>
       <c r="M378" s="14"/>
     </row>
-    <row r="379" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
       <c r="C379" s="6"/>
@@ -6568,7 +6571,7 @@
       <c r="L379" s="14"/>
       <c r="M379" s="14"/>
     </row>
-    <row r="380" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="6"/>
@@ -6583,7 +6586,7 @@
       <c r="L380" s="14"/>
       <c r="M380" s="14"/>
     </row>
-    <row r="381" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
       <c r="C381" s="6"/>
@@ -6598,7 +6601,7 @@
       <c r="L381" s="14"/>
       <c r="M381" s="14"/>
     </row>
-    <row r="382" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="6"/>
@@ -6613,7 +6616,7 @@
       <c r="L382" s="14"/>
       <c r="M382" s="14"/>
     </row>
-    <row r="383" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
       <c r="C383" s="6"/>
@@ -6628,7 +6631,7 @@
       <c r="L383" s="14"/>
       <c r="M383" s="14"/>
     </row>
-    <row r="384" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="6"/>
@@ -6643,7 +6646,7 @@
       <c r="L384" s="14"/>
       <c r="M384" s="14"/>
     </row>
-    <row r="385" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
       <c r="C385" s="6"/>
@@ -6658,7 +6661,7 @@
       <c r="L385" s="14"/>
       <c r="M385" s="14"/>
     </row>
-    <row r="386" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="6"/>
@@ -6673,7 +6676,7 @@
       <c r="L386" s="14"/>
       <c r="M386" s="14"/>
     </row>
-    <row r="387" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
       <c r="C387" s="6"/>
@@ -6688,7 +6691,7 @@
       <c r="L387" s="14"/>
       <c r="M387" s="14"/>
     </row>
-    <row r="388" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
       <c r="C388" s="6"/>
@@ -6703,7 +6706,7 @@
       <c r="L388" s="14"/>
       <c r="M388" s="14"/>
     </row>
-    <row r="389" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
       <c r="C389" s="6"/>
@@ -6718,7 +6721,7 @@
       <c r="L389" s="14"/>
       <c r="M389" s="14"/>
     </row>
-    <row r="390" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="6"/>
@@ -6733,7 +6736,7 @@
       <c r="L390" s="14"/>
       <c r="M390" s="14"/>
     </row>
-    <row r="391" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
       <c r="C391" s="6"/>
@@ -6748,7 +6751,7 @@
       <c r="L391" s="14"/>
       <c r="M391" s="14"/>
     </row>
-    <row r="392" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
@@ -6763,7 +6766,7 @@
       <c r="L392" s="14"/>
       <c r="M392" s="14"/>
     </row>
-    <row r="393" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
       <c r="C393" s="6"/>
@@ -6778,7 +6781,7 @@
       <c r="L393" s="14"/>
       <c r="M393" s="14"/>
     </row>
-    <row r="394" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="6"/>
@@ -6793,7 +6796,7 @@
       <c r="L394" s="14"/>
       <c r="M394" s="14"/>
     </row>
-    <row r="395" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
       <c r="C395" s="6"/>
@@ -6808,7 +6811,7 @@
       <c r="L395" s="14"/>
       <c r="M395" s="14"/>
     </row>
-    <row r="396" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="6"/>
@@ -6823,7 +6826,7 @@
       <c r="L396" s="14"/>
       <c r="M396" s="14"/>
     </row>
-    <row r="397" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="6"/>
@@ -6838,7 +6841,7 @@
       <c r="L397" s="14"/>
       <c r="M397" s="14"/>
     </row>
-    <row r="398" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="6"/>
@@ -6853,7 +6856,7 @@
       <c r="L398" s="14"/>
       <c r="M398" s="14"/>
     </row>
-    <row r="399" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="6"/>
@@ -6868,7 +6871,7 @@
       <c r="L399" s="14"/>
       <c r="M399" s="14"/>
     </row>
-    <row r="400" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="6"/>
@@ -6883,7 +6886,7 @@
       <c r="L400" s="14"/>
       <c r="M400" s="14"/>
     </row>
-    <row r="401" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
       <c r="C401" s="6"/>
@@ -6898,7 +6901,7 @@
       <c r="L401" s="14"/>
       <c r="M401" s="14"/>
     </row>
-    <row r="402" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="6"/>
@@ -6913,7 +6916,7 @@
       <c r="L402" s="14"/>
       <c r="M402" s="14"/>
     </row>
-    <row r="403" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
       <c r="C403" s="6"/>
@@ -6928,7 +6931,7 @@
       <c r="L403" s="14"/>
       <c r="M403" s="14"/>
     </row>
-    <row r="404" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="6"/>
@@ -6943,7 +6946,7 @@
       <c r="L404" s="14"/>
       <c r="M404" s="14"/>
     </row>
-    <row r="405" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
       <c r="C405" s="6"/>
@@ -6958,7 +6961,7 @@
       <c r="L405" s="14"/>
       <c r="M405" s="14"/>
     </row>
-    <row r="406" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="6"/>
@@ -6973,7 +6976,7 @@
       <c r="L406" s="14"/>
       <c r="M406" s="14"/>
     </row>
-    <row r="407" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
       <c r="C407" s="6"/>
@@ -6988,7 +6991,7 @@
       <c r="L407" s="14"/>
       <c r="M407" s="14"/>
     </row>
-    <row r="408" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="6"/>
@@ -7003,7 +7006,7 @@
       <c r="L408" s="14"/>
       <c r="M408" s="14"/>
     </row>
-    <row r="409" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
       <c r="C409" s="6"/>
@@ -7018,7 +7021,7 @@
       <c r="L409" s="14"/>
       <c r="M409" s="14"/>
     </row>
-    <row r="410" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
       <c r="C410" s="6"/>
@@ -7033,7 +7036,7 @@
       <c r="L410" s="14"/>
       <c r="M410" s="14"/>
     </row>
-    <row r="411" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
       <c r="C411" s="6"/>
@@ -7048,7 +7051,7 @@
       <c r="L411" s="14"/>
       <c r="M411" s="14"/>
     </row>
-    <row r="412" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="6"/>
@@ -7063,7 +7066,7 @@
       <c r="L412" s="14"/>
       <c r="M412" s="14"/>
     </row>
-    <row r="413" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
       <c r="C413" s="6"/>
@@ -7078,7 +7081,7 @@
       <c r="L413" s="14"/>
       <c r="M413" s="14"/>
     </row>
-    <row r="414" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="6"/>
@@ -7093,7 +7096,7 @@
       <c r="L414" s="14"/>
       <c r="M414" s="14"/>
     </row>
-    <row r="415" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
       <c r="C415" s="6"/>
@@ -7108,7 +7111,7 @@
       <c r="L415" s="14"/>
       <c r="M415" s="14"/>
     </row>
-    <row r="416" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="6"/>
@@ -7123,7 +7126,7 @@
       <c r="L416" s="14"/>
       <c r="M416" s="14"/>
     </row>
-    <row r="417" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
       <c r="C417" s="6"/>
@@ -7138,7 +7141,7 @@
       <c r="L417" s="14"/>
       <c r="M417" s="14"/>
     </row>
-    <row r="418" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="6"/>
@@ -7153,7 +7156,7 @@
       <c r="L418" s="14"/>
       <c r="M418" s="14"/>
     </row>
-    <row r="419" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="6"/>
@@ -7168,7 +7171,7 @@
       <c r="L419" s="14"/>
       <c r="M419" s="14"/>
     </row>
-    <row r="420" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="6"/>
@@ -7183,7 +7186,7 @@
       <c r="L420" s="14"/>
       <c r="M420" s="14"/>
     </row>
-    <row r="421" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
       <c r="C421" s="6"/>
@@ -7198,7 +7201,7 @@
       <c r="L421" s="14"/>
       <c r="M421" s="14"/>
     </row>
-    <row r="422" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="6"/>
@@ -7213,7 +7216,7 @@
       <c r="L422" s="14"/>
       <c r="M422" s="14"/>
     </row>
-    <row r="423" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="C423" s="6"/>
@@ -7228,7 +7231,7 @@
       <c r="L423" s="14"/>
       <c r="M423" s="14"/>
     </row>
-    <row r="424" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="6"/>
@@ -7243,7 +7246,7 @@
       <c r="L424" s="14"/>
       <c r="M424" s="14"/>
     </row>
-    <row r="425" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="6"/>
@@ -7258,7 +7261,7 @@
       <c r="L425" s="14"/>
       <c r="M425" s="14"/>
     </row>
-    <row r="426" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="6"/>
@@ -7273,7 +7276,7 @@
       <c r="L426" s="14"/>
       <c r="M426" s="14"/>
     </row>
-    <row r="427" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
       <c r="C427" s="6"/>
@@ -7288,7 +7291,7 @@
       <c r="L427" s="14"/>
       <c r="M427" s="14"/>
     </row>
-    <row r="428" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="6"/>
@@ -7303,7 +7306,7 @@
       <c r="L428" s="14"/>
       <c r="M428" s="14"/>
     </row>
-    <row r="429" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
       <c r="C429" s="6"/>
@@ -7318,7 +7321,7 @@
       <c r="L429" s="14"/>
       <c r="M429" s="14"/>
     </row>
-    <row r="430" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="6"/>
@@ -7333,7 +7336,7 @@
       <c r="L430" s="14"/>
       <c r="M430" s="14"/>
     </row>
-    <row r="431" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
       <c r="C431" s="6"/>
@@ -7348,7 +7351,7 @@
       <c r="L431" s="14"/>
       <c r="M431" s="14"/>
     </row>
-    <row r="432" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="6"/>
@@ -7363,7 +7366,7 @@
       <c r="L432" s="14"/>
       <c r="M432" s="14"/>
     </row>
-    <row r="433" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="6"/>
@@ -7378,7 +7381,7 @@
       <c r="L433" s="14"/>
       <c r="M433" s="14"/>
     </row>
-    <row r="434" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="6"/>
@@ -7393,7 +7396,7 @@
       <c r="L434" s="14"/>
       <c r="M434" s="14"/>
     </row>
-    <row r="435" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="6"/>
@@ -7408,7 +7411,7 @@
       <c r="L435" s="14"/>
       <c r="M435" s="14"/>
     </row>
-    <row r="436" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="6"/>
@@ -7423,7 +7426,7 @@
       <c r="L436" s="14"/>
       <c r="M436" s="14"/>
     </row>
-    <row r="437" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
       <c r="C437" s="6"/>
@@ -7438,7 +7441,7 @@
       <c r="L437" s="14"/>
       <c r="M437" s="14"/>
     </row>
-    <row r="438" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="6"/>
@@ -7453,7 +7456,7 @@
       <c r="L438" s="14"/>
       <c r="M438" s="14"/>
     </row>
-    <row r="439" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
       <c r="C439" s="6"/>
@@ -7468,7 +7471,7 @@
       <c r="L439" s="14"/>
       <c r="M439" s="14"/>
     </row>
-    <row r="440" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="6"/>
@@ -7483,7 +7486,7 @@
       <c r="L440" s="14"/>
       <c r="M440" s="14"/>
     </row>
-    <row r="441" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
       <c r="C441" s="6"/>
@@ -7498,7 +7501,7 @@
       <c r="L441" s="14"/>
       <c r="M441" s="14"/>
     </row>
-    <row r="442" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="6"/>
@@ -7513,7 +7516,7 @@
       <c r="L442" s="14"/>
       <c r="M442" s="14"/>
     </row>
-    <row r="443" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
       <c r="C443" s="6"/>
@@ -7528,7 +7531,7 @@
       <c r="L443" s="14"/>
       <c r="M443" s="14"/>
     </row>
-    <row r="444" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="6"/>
@@ -7543,7 +7546,7 @@
       <c r="L444" s="14"/>
       <c r="M444" s="14"/>
     </row>
-    <row r="445" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
       <c r="C445" s="6"/>
@@ -7558,7 +7561,7 @@
       <c r="L445" s="14"/>
       <c r="M445" s="14"/>
     </row>
-    <row r="446" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="6"/>
@@ -7573,7 +7576,7 @@
       <c r="L446" s="14"/>
       <c r="M446" s="14"/>
     </row>
-    <row r="447" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
       <c r="C447" s="6"/>
@@ -7588,7 +7591,7 @@
       <c r="L447" s="14"/>
       <c r="M447" s="14"/>
     </row>
-    <row r="448" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="6"/>
@@ -7603,7 +7606,7 @@
       <c r="L448" s="14"/>
       <c r="M448" s="14"/>
     </row>
-    <row r="449" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="5"/>
       <c r="C449" s="6"/>
@@ -7618,7 +7621,7 @@
       <c r="L449" s="14"/>
       <c r="M449" s="14"/>
     </row>
-    <row r="450" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
       <c r="B450" s="5"/>
       <c r="C450" s="6"/>
@@ -7633,7 +7636,7 @@
       <c r="L450" s="14"/>
       <c r="M450" s="14"/>
     </row>
-    <row r="451" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="B451" s="5"/>
       <c r="C451" s="6"/>
@@ -7648,7 +7651,7 @@
       <c r="L451" s="14"/>
       <c r="M451" s="14"/>
     </row>
-    <row r="452" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="5"/>
       <c r="C452" s="6"/>
@@ -7663,7 +7666,7 @@
       <c r="L452" s="14"/>
       <c r="M452" s="14"/>
     </row>
-    <row r="453" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="5"/>
       <c r="C453" s="6"/>
@@ -7678,7 +7681,7 @@
       <c r="L453" s="14"/>
       <c r="M453" s="14"/>
     </row>
-    <row r="454" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="5"/>
       <c r="C454" s="6"/>
@@ -7693,7 +7696,7 @@
       <c r="L454" s="14"/>
       <c r="M454" s="14"/>
     </row>
-    <row r="455" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="5"/>
       <c r="C455" s="6"/>
@@ -7708,7 +7711,7 @@
       <c r="L455" s="14"/>
       <c r="M455" s="14"/>
     </row>
-    <row r="456" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
       <c r="B456" s="5"/>
       <c r="C456" s="6"/>
@@ -7723,7 +7726,7 @@
       <c r="L456" s="14"/>
       <c r="M456" s="14"/>
     </row>
-    <row r="457" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="5"/>
       <c r="C457" s="6"/>
@@ -7738,7 +7741,7 @@
       <c r="L457" s="14"/>
       <c r="M457" s="14"/>
     </row>
-    <row r="458" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="5"/>
       <c r="C458" s="6"/>
@@ -7753,7 +7756,7 @@
       <c r="L458" s="14"/>
       <c r="M458" s="14"/>
     </row>
-    <row r="459" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
       <c r="B459" s="5"/>
       <c r="C459" s="6"/>
@@ -7768,7 +7771,7 @@
       <c r="L459" s="14"/>
       <c r="M459" s="14"/>
     </row>
-    <row r="460" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="5"/>
       <c r="C460" s="6"/>
@@ -7783,7 +7786,7 @@
       <c r="L460" s="14"/>
       <c r="M460" s="14"/>
     </row>
-    <row r="461" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="5"/>
       <c r="C461" s="6"/>
@@ -7798,7 +7801,7 @@
       <c r="L461" s="14"/>
       <c r="M461" s="14"/>
     </row>
-    <row r="462" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="5"/>
       <c r="C462" s="6"/>
@@ -7813,7 +7816,7 @@
       <c r="L462" s="14"/>
       <c r="M462" s="14"/>
     </row>
-    <row r="463" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="5"/>
       <c r="C463" s="6"/>
@@ -7828,7 +7831,7 @@
       <c r="L463" s="14"/>
       <c r="M463" s="14"/>
     </row>
-    <row r="464" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="5"/>
       <c r="C464" s="6"/>
@@ -7843,7 +7846,7 @@
       <c r="L464" s="14"/>
       <c r="M464" s="14"/>
     </row>
-    <row r="465" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="5"/>
       <c r="C465" s="6"/>
@@ -7858,7 +7861,7 @@
       <c r="L465" s="14"/>
       <c r="M465" s="14"/>
     </row>
-    <row r="466" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="5"/>
       <c r="C466" s="6"/>
@@ -7873,7 +7876,7 @@
       <c r="L466" s="14"/>
       <c r="M466" s="14"/>
     </row>
-    <row r="467" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="5"/>
       <c r="C467" s="6"/>
@@ -7888,7 +7891,7 @@
       <c r="L467" s="14"/>
       <c r="M467" s="14"/>
     </row>
-    <row r="468" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="5"/>
       <c r="C468" s="6"/>
@@ -7903,7 +7906,7 @@
       <c r="L468" s="14"/>
       <c r="M468" s="14"/>
     </row>
-    <row r="469" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="5"/>
       <c r="C469" s="6"/>
@@ -7918,7 +7921,7 @@
       <c r="L469" s="14"/>
       <c r="M469" s="14"/>
     </row>
-    <row r="470" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="5"/>
       <c r="C470" s="6"/>
@@ -7933,7 +7936,7 @@
       <c r="L470" s="14"/>
       <c r="M470" s="14"/>
     </row>
-    <row r="471" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="5"/>
       <c r="C471" s="6"/>
@@ -7948,7 +7951,7 @@
       <c r="L471" s="14"/>
       <c r="M471" s="14"/>
     </row>
-    <row r="472" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="5"/>
       <c r="C472" s="6"/>
@@ -7963,7 +7966,7 @@
       <c r="L472" s="14"/>
       <c r="M472" s="14"/>
     </row>
-    <row r="473" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="5"/>
       <c r="C473" s="6"/>
@@ -7978,7 +7981,7 @@
       <c r="L473" s="14"/>
       <c r="M473" s="14"/>
     </row>
-    <row r="474" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
       <c r="B474" s="5"/>
       <c r="C474" s="6"/>
@@ -7993,7 +7996,7 @@
       <c r="L474" s="14"/>
       <c r="M474" s="14"/>
     </row>
-    <row r="475" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
       <c r="B475" s="5"/>
       <c r="C475" s="6"/>
@@ -8008,7 +8011,7 @@
       <c r="L475" s="14"/>
       <c r="M475" s="14"/>
     </row>
-    <row r="476" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="5"/>
       <c r="C476" s="6"/>
@@ -8023,7 +8026,7 @@
       <c r="L476" s="14"/>
       <c r="M476" s="14"/>
     </row>
-    <row r="477" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="5"/>
       <c r="C477" s="6"/>
@@ -8038,7 +8041,7 @@
       <c r="L477" s="14"/>
       <c r="M477" s="14"/>
     </row>
-    <row r="478" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="5"/>
       <c r="C478" s="6"/>
@@ -8053,7 +8056,7 @@
       <c r="L478" s="14"/>
       <c r="M478" s="14"/>
     </row>
-    <row r="479" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="5"/>
       <c r="C479" s="6"/>
@@ -8068,7 +8071,7 @@
       <c r="L479" s="14"/>
       <c r="M479" s="14"/>
     </row>
-    <row r="480" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
       <c r="B480" s="5"/>
       <c r="C480" s="6"/>
@@ -8083,7 +8086,7 @@
       <c r="L480" s="14"/>
       <c r="M480" s="14"/>
     </row>
-    <row r="481" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
       <c r="B481" s="5"/>
       <c r="C481" s="6"/>
@@ -8098,7 +8101,7 @@
       <c r="L481" s="14"/>
       <c r="M481" s="14"/>
     </row>
-    <row r="482" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
       <c r="B482" s="5"/>
       <c r="C482" s="6"/>
@@ -8113,7 +8116,7 @@
       <c r="L482" s="14"/>
       <c r="M482" s="14"/>
     </row>
-    <row r="483" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
       <c r="B483" s="5"/>
       <c r="C483" s="6"/>
@@ -8128,7 +8131,7 @@
       <c r="L483" s="14"/>
       <c r="M483" s="14"/>
     </row>
-    <row r="484" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
       <c r="B484" s="5"/>
       <c r="C484" s="6"/>
@@ -8143,7 +8146,7 @@
       <c r="L484" s="14"/>
       <c r="M484" s="14"/>
     </row>
-    <row r="485" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
       <c r="B485" s="5"/>
       <c r="C485" s="6"/>
@@ -8158,7 +8161,7 @@
       <c r="L485" s="14"/>
       <c r="M485" s="14"/>
     </row>
-    <row r="486" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
       <c r="B486" s="5"/>
       <c r="C486" s="6"/>
@@ -8173,7 +8176,7 @@
       <c r="L486" s="14"/>
       <c r="M486" s="14"/>
     </row>
-    <row r="487" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
       <c r="B487" s="5"/>
       <c r="C487" s="6"/>
@@ -8188,7 +8191,7 @@
       <c r="L487" s="14"/>
       <c r="M487" s="14"/>
     </row>
-    <row r="488" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
       <c r="B488" s="5"/>
       <c r="C488" s="6"/>
@@ -8203,7 +8206,7 @@
       <c r="L488" s="14"/>
       <c r="M488" s="14"/>
     </row>
-    <row r="489" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
       <c r="B489" s="5"/>
       <c r="C489" s="6"/>
@@ -8218,7 +8221,7 @@
       <c r="L489" s="14"/>
       <c r="M489" s="14"/>
     </row>
-    <row r="490" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="B490" s="5"/>
       <c r="C490" s="6"/>
@@ -8233,7 +8236,7 @@
       <c r="L490" s="14"/>
       <c r="M490" s="14"/>
     </row>
-    <row r="491" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
       <c r="B491" s="5"/>
       <c r="C491" s="6"/>
@@ -8248,7 +8251,7 @@
       <c r="L491" s="14"/>
       <c r="M491" s="14"/>
     </row>
-    <row r="492" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
       <c r="B492" s="5"/>
       <c r="C492" s="6"/>
@@ -8263,7 +8266,7 @@
       <c r="L492" s="14"/>
       <c r="M492" s="14"/>
     </row>
-    <row r="493" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
       <c r="B493" s="5"/>
       <c r="C493" s="6"/>
@@ -8278,7 +8281,7 @@
       <c r="L493" s="14"/>
       <c r="M493" s="14"/>
     </row>
-    <row r="494" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
       <c r="B494" s="5"/>
       <c r="C494" s="6"/>
@@ -8293,7 +8296,7 @@
       <c r="L494" s="14"/>
       <c r="M494" s="14"/>
     </row>
-    <row r="495" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
       <c r="B495" s="5"/>
       <c r="C495" s="6"/>
@@ -8308,7 +8311,7 @@
       <c r="L495" s="14"/>
       <c r="M495" s="14"/>
     </row>
-    <row r="496" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="B496" s="5"/>
       <c r="C496" s="6"/>
@@ -8323,7 +8326,7 @@
       <c r="L496" s="14"/>
       <c r="M496" s="14"/>
     </row>
-    <row r="497" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
       <c r="B497" s="5"/>
       <c r="C497" s="6"/>
@@ -8338,7 +8341,7 @@
       <c r="L497" s="14"/>
       <c r="M497" s="14"/>
     </row>
-    <row r="498" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
       <c r="B498" s="5"/>
       <c r="C498" s="6"/>
@@ -8353,7 +8356,7 @@
       <c r="L498" s="14"/>
       <c r="M498" s="14"/>
     </row>
-    <row r="499" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
       <c r="B499" s="5"/>
       <c r="C499" s="6"/>
@@ -8368,7 +8371,7 @@
       <c r="L499" s="14"/>
       <c r="M499" s="14"/>
     </row>
-    <row r="500" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
       <c r="B500" s="5"/>
       <c r="C500" s="6"/>
@@ -8383,7 +8386,7 @@
       <c r="L500" s="14"/>
       <c r="M500" s="14"/>
     </row>
-    <row r="501" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
       <c r="B501" s="5"/>
       <c r="C501" s="6"/>
@@ -8398,7 +8401,7 @@
       <c r="L501" s="14"/>
       <c r="M501" s="14"/>
     </row>
-    <row r="502" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
       <c r="B502" s="5"/>
       <c r="C502" s="6"/>
@@ -8413,7 +8416,7 @@
       <c r="L502" s="14"/>
       <c r="M502" s="14"/>
     </row>
-    <row r="503" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
       <c r="B503" s="5"/>
       <c r="C503" s="6"/>
@@ -8428,7 +8431,7 @@
       <c r="L503" s="14"/>
       <c r="M503" s="14"/>
     </row>
-    <row r="504" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="5"/>
       <c r="C504" s="6"/>
@@ -8443,7 +8446,7 @@
       <c r="L504" s="14"/>
       <c r="M504" s="14"/>
     </row>
-    <row r="505" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="5"/>
       <c r="C505" s="6"/>
@@ -8458,7 +8461,7 @@
       <c r="L505" s="14"/>
       <c r="M505" s="14"/>
     </row>
-    <row r="506" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="5"/>
       <c r="C506" s="6"/>
@@ -8473,7 +8476,7 @@
       <c r="L506" s="14"/>
       <c r="M506" s="14"/>
     </row>
-    <row r="507" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="5"/>
       <c r="C507" s="6"/>
@@ -8488,7 +8491,7 @@
       <c r="L507" s="14"/>
       <c r="M507" s="14"/>
     </row>
-    <row r="508" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="5"/>
       <c r="C508" s="6"/>
@@ -8503,7 +8506,7 @@
       <c r="L508" s="14"/>
       <c r="M508" s="14"/>
     </row>
-    <row r="509" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="5"/>
       <c r="C509" s="6"/>
@@ -8518,7 +8521,7 @@
       <c r="L509" s="14"/>
       <c r="M509" s="14"/>
     </row>
-    <row r="510" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="5"/>
       <c r="C510" s="6"/>
@@ -8533,7 +8536,7 @@
       <c r="L510" s="14"/>
       <c r="M510" s="14"/>
     </row>
-    <row r="511" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="9"/>
       <c r="B511" s="10"/>
       <c r="C511" s="11"/>
@@ -8548,146 +8551,173 @@
       <c r="L511" s="14"/>
       <c r="M511" s="14"/>
     </row>
-    <row r="512" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A512" s="18" t="s">
+    <row r="512" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B512" s="18"/>
-      <c r="C512" s="18"/>
-      <c r="D512" s="18"/>
-      <c r="E512" s="18"/>
-      <c r="F512" s="18"/>
-      <c r="G512" s="18"/>
+      <c r="B512" s="20"/>
+      <c r="C512" s="20"/>
+      <c r="D512" s="20"/>
+      <c r="E512" s="20"/>
+      <c r="F512" s="20"/>
+      <c r="G512" s="20"/>
       <c r="H512" s="12"/>
       <c r="I512" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J512" s="12"/>
       <c r="K512" s="17"/>
-      <c r="L512" s="17"/>
+      <c r="L512" s="36"/>
       <c r="M512" s="16"/>
     </row>
-    <row r="513" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="18" t="s">
+    <row r="513" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B513" s="18"/>
-      <c r="C513" s="18"/>
-      <c r="D513" s="18"/>
-      <c r="E513" s="18"/>
-      <c r="F513" s="18"/>
-      <c r="G513" s="18"/>
+      <c r="B513" s="20"/>
+      <c r="C513" s="20"/>
+      <c r="D513" s="20"/>
+      <c r="E513" s="20"/>
+      <c r="F513" s="20"/>
+      <c r="G513" s="20"/>
       <c r="H513" s="12"/>
       <c r="I513" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J513" s="12"/>
       <c r="K513" s="17"/>
-      <c r="L513" s="17"/>
+      <c r="L513" s="36"/>
       <c r="M513" s="16"/>
     </row>
-    <row r="514" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="18" t="s">
+    <row r="514" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B514" s="18"/>
-      <c r="C514" s="18"/>
-      <c r="D514" s="18"/>
-      <c r="E514" s="18"/>
-      <c r="F514" s="18"/>
-      <c r="G514" s="18"/>
+      <c r="B514" s="20"/>
+      <c r="C514" s="20"/>
+      <c r="D514" s="20"/>
+      <c r="E514" s="20"/>
+      <c r="F514" s="20"/>
+      <c r="G514" s="20"/>
       <c r="H514" s="12"/>
       <c r="I514" s="12"/>
       <c r="J514" s="12"/>
       <c r="K514" s="17"/>
-      <c r="L514" s="17"/>
+      <c r="L514" s="36"/>
       <c r="M514" s="16"/>
     </row>
-    <row r="515" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="18" t="s">
+    <row r="515" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B515" s="18"/>
-      <c r="C515" s="18"/>
-      <c r="D515" s="18"/>
-      <c r="E515" s="18"/>
-      <c r="F515" s="18"/>
-      <c r="G515" s="18"/>
+      <c r="B515" s="20"/>
+      <c r="C515" s="20"/>
+      <c r="D515" s="20"/>
+      <c r="E515" s="20"/>
+      <c r="F515" s="20"/>
+      <c r="G515" s="20"/>
       <c r="H515" s="12"/>
       <c r="I515" s="12"/>
       <c r="J515" s="12"/>
       <c r="K515" s="17"/>
-      <c r="L515" s="17"/>
+      <c r="L515" s="36"/>
       <c r="M515" s="16"/>
     </row>
-    <row r="516" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="18" t="s">
+    <row r="516" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B516" s="18"/>
-      <c r="C516" s="18"/>
-      <c r="D516" s="18"/>
-      <c r="E516" s="18"/>
-      <c r="F516" s="18"/>
-      <c r="G516" s="18"/>
+      <c r="B516" s="20"/>
+      <c r="C516" s="20"/>
+      <c r="D516" s="20"/>
+      <c r="E516" s="20"/>
+      <c r="F516" s="20"/>
+      <c r="G516" s="20"/>
       <c r="H516" s="12"/>
       <c r="I516" s="12"/>
       <c r="J516" s="12"/>
       <c r="K516" s="17"/>
-      <c r="L516" s="17"/>
+      <c r="L516" s="36"/>
       <c r="M516" s="16"/>
     </row>
-    <row r="517" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="18" t="s">
+    <row r="517" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B517" s="18"/>
-      <c r="C517" s="18"/>
-      <c r="D517" s="18"/>
-      <c r="E517" s="18"/>
-      <c r="F517" s="18"/>
-      <c r="G517" s="18"/>
+      <c r="B517" s="20"/>
+      <c r="C517" s="20"/>
+      <c r="D517" s="20"/>
+      <c r="E517" s="20"/>
+      <c r="F517" s="20"/>
+      <c r="G517" s="20"/>
       <c r="H517" s="12"/>
       <c r="I517" s="12"/>
       <c r="J517" s="12"/>
       <c r="K517" s="17"/>
-      <c r="L517" s="17"/>
+      <c r="L517" s="36"/>
       <c r="M517" s="16"/>
     </row>
-    <row r="518" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="18" t="s">
+    <row r="518" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B518" s="18"/>
-      <c r="C518" s="18"/>
-      <c r="D518" s="18"/>
-      <c r="E518" s="18"/>
-      <c r="F518" s="18"/>
-      <c r="G518" s="18"/>
+      <c r="B518" s="20"/>
+      <c r="C518" s="20"/>
+      <c r="D518" s="20"/>
+      <c r="E518" s="20"/>
+      <c r="F518" s="20"/>
+      <c r="G518" s="20"/>
       <c r="H518" s="12"/>
       <c r="I518" s="12"/>
       <c r="J518" s="12"/>
       <c r="K518" s="17"/>
-      <c r="L518" s="17"/>
+      <c r="L518" s="36"/>
       <c r="M518" s="16"/>
     </row>
-    <row r="519" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="19"/>
-      <c r="B519" s="20"/>
-      <c r="C519" s="20"/>
-      <c r="D519" s="20"/>
-      <c r="E519" s="20"/>
-      <c r="F519" s="20"/>
-      <c r="G519" s="20"/>
-      <c r="H519" s="20"/>
-      <c r="I519" s="20"/>
-      <c r="J519" s="20"/>
-      <c r="K519" s="20"/>
-      <c r="L519" s="20"/>
-      <c r="M519" s="21"/>
+    <row r="519" spans="1:13" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="32"/>
+      <c r="B519" s="33"/>
+      <c r="C519" s="33"/>
+      <c r="D519" s="33"/>
+      <c r="E519" s="33"/>
+      <c r="F519" s="33"/>
+      <c r="G519" s="33"/>
+      <c r="H519" s="33"/>
+      <c r="I519" s="33"/>
+      <c r="J519" s="33"/>
+      <c r="K519" s="33"/>
+      <c r="L519" s="33"/>
+      <c r="M519" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A517:G517"/>
+    <mergeCell ref="A518:G518"/>
+    <mergeCell ref="A519:M519"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A512:G512"/>
+    <mergeCell ref="A513:G513"/>
+    <mergeCell ref="A514:G514"/>
+    <mergeCell ref="A515:G515"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="A516:G516"/>
     <mergeCell ref="A2:M2"/>
@@ -8704,33 +8734,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A517:G517"/>
-    <mergeCell ref="A518:G518"/>
-    <mergeCell ref="A519:M519"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A512:G512"/>
-    <mergeCell ref="A513:G513"/>
-    <mergeCell ref="A514:G514"/>
-    <mergeCell ref="A515:G515"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
